--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/vmbet18/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nygard001\VM2018\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFA1808-1149-7645-8FA9-802228E1BC35}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -402,11 +401,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1088,10 +1087,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,13 +1170,17 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
-    <cellStyle name="20 % - Dekorfärg4" xfId="3" builtinId="42"/>
-    <cellStyle name="40 % - Dekorfärg1" xfId="2" builtinId="31"/>
-    <cellStyle name="40 % - Dekorfärg3" xfId="5" builtinId="39"/>
-    <cellStyle name="40 % - Dekorfärg4" xfId="4" builtinId="43"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1198,7 +1197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1493,38 +1492,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="12" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="15">
@@ -1549,36 +1548,36 @@
         <f>CONCATENATE(J1, "_Odds")</f>
         <v>Niklas_Odds</v>
       </c>
-      <c r="L1" s="77" t="str">
+      <c r="L1" s="75" t="str">
         <f>CONCATENATE(J1, "_Resultat")</f>
         <v>Niklas_Resultat</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="68" t="str">
+      <c r="N1" s="66" t="str">
         <f>CONCATENATE(M1, "_Odds")</f>
         <v>Patrik_Odds</v>
       </c>
-      <c r="O1" s="69" t="str">
+      <c r="O1" s="67" t="str">
         <f>CONCATENATE(M1, "_Resultat")</f>
         <v>Patrik_Resultat</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="53">
         <v>43265</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="50">
         <v>1</v>
       </c>
       <c r="F2" s="27">
@@ -1602,7 +1601,7 @@
         <f t="shared" ref="K2:K49" si="1">_xlfn.IFS(J2=1,$E2,J2="x",$F2,J2=2,$G2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="74" t="s">
         <v>68</v>
       </c>
       <c r="M2" s="22">
@@ -1612,24 +1611,24 @@
         <f t="shared" ref="N2:N49" si="2">_xlfn.IFS(M2=1,$E2,M2="x",$F2,M2=2,$G2)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>43266</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="51">
         <v>4.0999999999999996</v>
       </c>
       <c r="F3" s="28">
@@ -1653,7 +1652,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="69" t="s">
         <v>69</v>
       </c>
       <c r="M3" s="23" t="s">
@@ -1663,24 +1662,24 @@
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>43266</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="51">
         <v>2.5</v>
       </c>
       <c r="F4" s="28">
@@ -1704,7 +1703,7 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="23" t="s">
@@ -1714,24 +1713,24 @@
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>43266</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
       <c r="F5" s="28">
@@ -1755,7 +1754,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M5" s="23">
@@ -1769,20 +1768,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <v>43267</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="56">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>1</v>
       </c>
       <c r="F6" s="28">
@@ -1806,7 +1805,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="23">
@@ -1816,24 +1815,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="52">
         <v>43267</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="56">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>1.3</v>
       </c>
       <c r="F7" s="28">
@@ -1857,7 +1856,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="69" t="s">
         <v>73</v>
       </c>
       <c r="M7" s="23">
@@ -1867,24 +1866,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="52">
         <v>43267</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>0.53125</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>1</v>
       </c>
       <c r="F8" s="28">
@@ -1908,7 +1907,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M8" s="23">
@@ -1918,24 +1917,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O8" s="78" t="s">
+      <c r="O8" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <v>43267</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="56">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="51">
         <v>1.5</v>
       </c>
       <c r="F9" s="28">
@@ -1959,7 +1958,7 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="69" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="23">
@@ -1973,20 +1972,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="59">
         <v>43268</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="56">
         <v>0.55208333333333404</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <v>1</v>
       </c>
       <c r="F10" s="28">
@@ -2010,7 +2009,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="69" t="s">
         <v>76</v>
       </c>
       <c r="M10" s="23">
@@ -2020,24 +2019,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="A11" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>43268</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>0.5625</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="51">
         <v>2.4</v>
       </c>
       <c r="F11" s="28">
@@ -2061,7 +2060,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="69" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="23">
@@ -2071,24 +2070,24 @@
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="O11" s="78" t="s">
+      <c r="O11" s="76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>43268</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="56">
         <v>0.57291666666666696</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="51">
         <v>1</v>
       </c>
       <c r="F12" s="28">
@@ -2112,7 +2111,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="69" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="23">
@@ -2122,24 +2121,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12" s="78" t="s">
+      <c r="O12" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="52">
         <v>43269</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="56">
         <v>0.58333333333333404</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>1</v>
       </c>
       <c r="F13" s="28">
@@ -2163,7 +2162,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M13" s="23" t="s">
@@ -2177,20 +2176,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="52">
         <v>43269</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="56">
         <v>0.593750000000001</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>1</v>
       </c>
       <c r="F14" s="28">
@@ -2214,7 +2213,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="69" t="s">
         <v>68</v>
       </c>
       <c r="M14" s="23">
@@ -2224,24 +2223,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O14" s="78" t="s">
+      <c r="O14" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <v>43269</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="56">
         <v>0.60416666666666696</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="51">
         <v>7.1</v>
       </c>
       <c r="F15" s="28">
@@ -2265,7 +2264,7 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M15" s="23" t="s">
@@ -2275,24 +2274,24 @@
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="O15" s="78" t="s">
+      <c r="O15" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="A16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="59">
         <v>43270</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="56">
         <v>0.61458333333333404</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>1</v>
       </c>
       <c r="F16" s="28">
@@ -2316,7 +2315,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M16" s="23">
@@ -2326,24 +2325,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="78" t="s">
+      <c r="O16" s="76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:15" ht="15.75">
+      <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="59">
         <v>43270</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="56">
         <v>0.625000000000001</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>1</v>
       </c>
       <c r="F17" s="28">
@@ -2367,7 +2366,7 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -2381,20 +2380,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="59">
         <v>43270</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="56">
         <v>0.63541666666666796</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>1</v>
       </c>
       <c r="F18" s="28">
@@ -2418,7 +2417,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="23" t="s">
@@ -2428,24 +2427,24 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="O18" s="78" t="s">
+      <c r="O18" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <v>43271</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="56">
         <v>0.64583333333333504</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="51">
         <v>1</v>
       </c>
       <c r="F19" s="28">
@@ -2469,7 +2468,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="69" t="s">
         <v>68</v>
       </c>
       <c r="M19" s="23" t="s">
@@ -2479,24 +2478,24 @@
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="O19" s="78" t="s">
+      <c r="O19" s="76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="52">
         <v>43271</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <v>0.656250000000001</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>1</v>
       </c>
       <c r="F20" s="28">
@@ -2520,7 +2519,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M20" s="23">
@@ -2530,24 +2529,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="78" t="s">
+      <c r="O20" s="76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="52">
         <v>43271</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="56">
         <v>0.66666666666666796</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="51">
         <v>17.2</v>
       </c>
       <c r="F21" s="28">
@@ -2571,7 +2570,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="69" t="s">
         <v>79</v>
       </c>
       <c r="M21" s="23">
@@ -2585,20 +2584,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="59">
         <v>43272</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="56">
         <v>0.67708333333333504</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="51">
         <v>1</v>
       </c>
       <c r="F22" s="28">
@@ -2622,7 +2621,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="71" t="s">
+      <c r="L22" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M22" s="23">
@@ -2632,24 +2631,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22" s="78" t="s">
+      <c r="O22" s="76" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="59">
         <v>43272</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="56">
         <v>0.687500000000002</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="51">
         <v>1</v>
       </c>
       <c r="F23" s="28">
@@ -2673,7 +2672,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M23" s="23" t="s">
@@ -2683,24 +2682,24 @@
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O23" s="78" t="s">
+      <c r="O23" s="76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="59">
         <v>43272</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="56">
         <v>0.69791666666666796</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="51">
         <v>1.2</v>
       </c>
       <c r="F24" s="28">
@@ -2724,7 +2723,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="71" t="s">
+      <c r="L24" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M24" s="23">
@@ -2734,24 +2733,24 @@
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O24" s="78" t="s">
+      <c r="O24" s="76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="52">
         <v>43273</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="56">
         <v>0.70833333333333504</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="51">
         <v>1</v>
       </c>
       <c r="F25" s="28">
@@ -2775,7 +2774,7 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="69" t="s">
         <v>80</v>
       </c>
       <c r="M25" s="23">
@@ -2789,20 +2788,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="52">
         <v>43273</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="56">
         <v>0.718750000000002</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="51">
         <v>1</v>
       </c>
       <c r="F26" s="28">
@@ -2826,7 +2825,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="69" t="s">
         <v>76</v>
       </c>
       <c r="M26" s="23">
@@ -2836,24 +2835,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26" s="78" t="s">
+      <c r="O26" s="76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="52">
         <v>43273</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="56">
         <v>0.72916666666666896</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="51">
         <v>1.1000000000000001</v>
       </c>
       <c r="F27" s="28">
@@ -2877,7 +2876,7 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M27" s="23">
@@ -2887,24 +2886,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O27" s="78" t="s">
+      <c r="O27" s="76" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="59">
         <v>43274</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="56">
         <v>0.73958333333333504</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="51">
         <v>1</v>
       </c>
       <c r="F28" s="28">
@@ -2928,7 +2927,7 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L28" s="71" t="s">
+      <c r="L28" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M28" s="23">
@@ -2938,24 +2937,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O28" s="78" t="s">
+      <c r="O28" s="76" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="59">
         <v>43274</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="56">
         <v>0.750000000000002</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="51">
         <v>2.6</v>
       </c>
       <c r="F29" s="28">
@@ -2979,7 +2978,7 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M29" s="23">
@@ -2993,20 +2992,20 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="59">
         <v>43274</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="56">
         <v>0.76041666666666896</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="51">
         <v>1</v>
       </c>
       <c r="F30" s="28">
@@ -3030,7 +3029,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="71" t="s">
+      <c r="L30" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="23">
@@ -3040,24 +3039,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="78" t="s">
+      <c r="O30" s="76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="52">
         <v>43275</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="56">
         <v>0.77083333333333603</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="51">
         <v>1</v>
       </c>
       <c r="F31" s="28">
@@ -3081,7 +3080,7 @@
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M31" s="23">
@@ -3091,24 +3090,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O31" s="78" t="s">
+      <c r="O31" s="76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="52">
         <v>43275</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="56">
         <v>0.781250000000002</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="51">
         <v>1.3</v>
       </c>
       <c r="F32" s="28">
@@ -3132,7 +3131,7 @@
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="L32" s="71" t="s">
+      <c r="L32" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M32" s="23">
@@ -3142,24 +3141,24 @@
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O32" s="78" t="s">
+      <c r="O32" s="76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="52">
         <v>43275</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="56">
         <v>0.79166666666666896</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="51">
         <v>1.5</v>
       </c>
       <c r="F33" s="28">
@@ -3183,7 +3182,7 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M33" s="23">
@@ -3197,20 +3196,20 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A34" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="59">
         <v>43276</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="56">
         <v>0.80208333333333603</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="51">
         <v>1</v>
       </c>
       <c r="F34" s="28">
@@ -3234,7 +3233,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="71" t="s">
+      <c r="L34" s="69" t="s">
         <v>72</v>
       </c>
       <c r="M34" s="23">
@@ -3244,24 +3243,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O34" s="78" t="s">
+      <c r="O34" s="76" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A35" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="59">
         <v>43276</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="56">
         <v>0.812500000000002</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="51">
         <v>2.9</v>
       </c>
       <c r="F35" s="28">
@@ -3285,7 +3284,7 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="L35" s="71" t="s">
+      <c r="L35" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M35" s="23">
@@ -3295,24 +3294,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O35" s="78" t="s">
+      <c r="O35" s="76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A36" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="59">
         <v>43276</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="56">
         <v>0.82291666666666896</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="51">
         <v>7.5</v>
       </c>
       <c r="F36" s="28">
@@ -3336,7 +3335,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L36" s="71" t="s">
+      <c r="L36" s="69" t="s">
         <v>69</v>
       </c>
       <c r="M36" s="23">
@@ -3346,24 +3345,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36" s="78" t="s">
+      <c r="O36" s="76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="59">
         <v>43276</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="56">
         <v>0.83333333333333603</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="51">
         <v>1</v>
       </c>
       <c r="F37" s="28">
@@ -3387,7 +3386,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="71" t="s">
+      <c r="L37" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M37" s="23">
@@ -3401,20 +3400,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="52">
         <v>43277</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="56">
         <v>0.843750000000003</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="51">
         <v>3.6</v>
       </c>
       <c r="F38" s="28">
@@ -3438,7 +3437,7 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L38" s="71" t="s">
+      <c r="L38" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M38" s="23">
@@ -3448,24 +3447,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38" s="78" t="s">
+      <c r="O38" s="76" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="52">
         <v>43277</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="56">
         <v>0.85416666666666896</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="51">
         <v>1.6</v>
       </c>
       <c r="F39" s="28">
@@ -3489,7 +3488,7 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L39" s="71" t="s">
+      <c r="L39" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M39" s="23" t="s">
@@ -3499,24 +3498,24 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O39" s="78" t="s">
+      <c r="O39" s="76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="52">
         <v>43277</v>
       </c>
-      <c r="D40" s="58">
+      <c r="D40" s="56">
         <v>0.86458333333333603</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="51">
         <v>5.3</v>
       </c>
       <c r="F40" s="28">
@@ -3540,7 +3539,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="69" t="s">
         <v>73</v>
       </c>
       <c r="M40" s="23">
@@ -3550,24 +3549,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40" s="78" t="s">
+      <c r="O40" s="76" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="52">
         <v>43277</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="56">
         <v>0.875000000000003</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="51">
         <v>1.4</v>
       </c>
       <c r="F41" s="28">
@@ -3591,7 +3590,7 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L41" s="71" t="s">
+      <c r="L41" s="69" t="s">
         <v>69</v>
       </c>
       <c r="M41" s="23" t="s">
@@ -3605,20 +3604,20 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A42" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="59">
         <v>43278</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="56">
         <v>0.88541666666666996</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="51">
         <v>6.9</v>
       </c>
       <c r="F42" s="28">
@@ -3642,7 +3641,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L42" s="71" t="s">
+      <c r="L42" s="69" t="s">
         <v>81</v>
       </c>
       <c r="M42" s="23">
@@ -3652,24 +3651,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42" s="78" t="s">
+      <c r="O42" s="76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A43" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="59">
         <v>43278</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="56">
         <v>0.89583333333333603</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="51">
         <v>1</v>
       </c>
       <c r="F43" s="28">
@@ -3693,7 +3692,7 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L43" s="71" t="s">
+      <c r="L43" s="69" t="s">
         <v>70</v>
       </c>
       <c r="M43" s="23">
@@ -3703,24 +3702,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O43" s="78" t="s">
+      <c r="O43" s="76" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A44" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="59">
         <v>43278</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="56">
         <v>0.906250000000003</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="51">
         <v>10</v>
       </c>
       <c r="F44" s="28">
@@ -3744,7 +3743,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L44" s="71" t="s">
+      <c r="L44" s="69" t="s">
         <v>81</v>
       </c>
       <c r="M44" s="23">
@@ -3754,24 +3753,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O44" s="78" t="s">
+      <c r="O44" s="76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A45" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="59">
         <v>43278</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="56">
         <v>0.91666666666666996</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="51">
         <v>1</v>
       </c>
       <c r="F45" s="28">
@@ -3795,7 +3794,7 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L45" s="71" t="s">
+      <c r="L45" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M45" s="23" t="s">
@@ -3809,20 +3808,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="52">
         <v>43279</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="56">
         <v>0.92708333333333703</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="51">
         <v>1.2</v>
       </c>
       <c r="F46" s="28">
@@ -3846,7 +3845,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L46" s="71" t="s">
+      <c r="L46" s="69" t="s">
         <v>81</v>
       </c>
       <c r="M46" s="23" t="s">
@@ -3856,24 +3855,24 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="O46" s="78" t="s">
+      <c r="O46" s="76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="52">
         <v>43279</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="56">
         <v>0.937500000000003</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="51">
         <v>1.6</v>
       </c>
       <c r="F47" s="28">
@@ -3897,7 +3896,7 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="L47" s="71" t="s">
+      <c r="L47" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M47" s="23">
@@ -3907,24 +3906,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O47" s="78" t="s">
+      <c r="O47" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="52">
         <v>43279</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="56">
         <v>0.94791666666666996</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="51">
         <v>2.2999999999999998</v>
       </c>
       <c r="F48" s="28">
@@ -3948,7 +3947,7 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L48" s="71" t="s">
+      <c r="L48" s="69" t="s">
         <v>71</v>
       </c>
       <c r="M48" s="23">
@@ -3958,24 +3957,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O48" s="78" t="s">
+      <c r="O48" s="76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="52">
         <v>43279</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="56">
         <v>0.95833333333333703</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="51">
         <v>1.9</v>
       </c>
       <c r="F49" s="28">
@@ -3999,7 +3998,7 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="L49" s="72" t="s">
+      <c r="L49" s="70" t="s">
         <v>71</v>
       </c>
       <c r="M49" s="24" t="s">
@@ -4013,7 +4012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -4032,7 +4031,7 @@
         <f>SUM(K2:K49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="L50" s="73"/>
+      <c r="L50" s="71"/>
       <c r="M50" s="36" t="s">
         <v>60</v>
       </c>
@@ -4040,9 +4039,9 @@
         <f>SUM(N2:N49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="O50" s="65"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="63"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -4055,7 +4054,7 @@
         <f>COUNTIF(K2:K49,1)</f>
         <v>27</v>
       </c>
-      <c r="L51" s="74"/>
+      <c r="L51" s="72"/>
       <c r="M51" s="41" t="s">
         <v>62</v>
       </c>
@@ -4063,9 +4062,9 @@
         <f>COUNTIF(N2:N49,1)</f>
         <v>31</v>
       </c>
-      <c r="O51" s="66"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="64"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="J52" s="32" t="s">
         <v>61</v>
       </c>
@@ -4073,7 +4072,7 @@
         <f>1-(-$I$50+K50)/($H$50-$I$50)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="L52" s="75"/>
+      <c r="L52" s="73"/>
       <c r="M52" s="37" t="s">
         <v>61</v>
       </c>
@@ -4081,779 +4080,779 @@
         <f>1-(-$I$50+N50)/($H$50-$I$50)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="O52" s="67"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O52" s="65"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4864,26 +4863,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="46" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="C1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -6752,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -6842,7 +6841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6852,9 +6851,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -6862,12 +6861,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -6881,7 +6880,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -6901,7 +6900,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -6921,7 +6920,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -6941,7 +6940,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -6961,7 +6960,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -6981,7 +6980,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -7001,7 +7000,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -7021,7 +7020,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -7043,7 +7042,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -7063,7 +7062,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -7083,7 +7082,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -7103,7 +7102,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -7123,7 +7122,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -7143,7 +7142,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -7163,7 +7162,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -7183,7 +7182,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -7203,7 +7202,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
@@ -7223,7 +7222,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -7243,7 +7242,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -7263,7 +7262,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -7303,7 +7302,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -7323,7 +7322,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -7343,7 +7342,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -7363,7 +7362,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -7383,7 +7382,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
@@ -7403,7 +7402,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -7423,7 +7422,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -7443,7 +7442,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -7463,7 +7462,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
@@ -7483,7 +7482,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -7503,7 +7502,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -7523,7 +7522,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -7543,7 +7542,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -7563,7 +7562,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="9" t="s">
         <v>14</v>
       </c>
@@ -7583,7 +7582,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -7603,7 +7602,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
@@ -7623,7 +7622,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -7643,7 +7642,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -7663,7 +7662,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -7683,7 +7682,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -7703,7 +7702,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -7723,7 +7722,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -7743,7 +7742,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="11" t="s">
         <v>45</v>
       </c>
@@ -7763,7 +7762,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
@@ -7783,7 +7782,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="15" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="95">
   <si>
     <t>Resultat</t>
   </si>
@@ -278,124 +278,34 @@
     <t>0-5</t>
   </si>
   <si>
-    <t>0-6</t>
-  </si>
-  <si>
-    <t>0-7</t>
-  </si>
-  <si>
-    <t>0-8</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>0-11</t>
-  </si>
-  <si>
-    <t>0-12</t>
-  </si>
-  <si>
-    <t>0-13</t>
-  </si>
-  <si>
-    <t>0-14</t>
-  </si>
-  <si>
-    <t>0-15</t>
-  </si>
-  <si>
-    <t>0-16</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
-    <t>0-17</t>
+    <t>Alex</t>
   </si>
   <si>
-    <t>0-18</t>
+    <t>Douglas</t>
   </si>
   <si>
-    <t>0-19</t>
+    <t>Jenny</t>
   </si>
   <si>
-    <t>1-5</t>
+    <t>Petra</t>
   </si>
   <si>
-    <t>0-20</t>
+    <t>4-1</t>
   </si>
   <si>
-    <t>0-21</t>
+    <t>3-3</t>
   </si>
   <si>
-    <t>0-22</t>
+    <t>4-0</t>
   </si>
   <si>
-    <t>1-6</t>
+    <t>0-0</t>
   </si>
   <si>
-    <t>0-23</t>
-  </si>
-  <si>
-    <t>0-24</t>
-  </si>
-  <si>
-    <t>0-25</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>0-26</t>
-  </si>
-  <si>
-    <t>0-27</t>
-  </si>
-  <si>
-    <t>0-28</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>0-29</t>
-  </si>
-  <si>
-    <t>0-30</t>
-  </si>
-  <si>
-    <t>0-31</t>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>0-32</t>
-  </si>
-  <si>
-    <t>0-33</t>
-  </si>
-  <si>
-    <t>0-34</t>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>0-35</t>
-  </si>
-  <si>
-    <t>0-36</t>
-  </si>
-  <si>
-    <t>0-37</t>
-  </si>
-  <si>
-    <t>1-11</t>
+    <t>2-4</t>
   </si>
 </sst>
 </file>
@@ -405,11 +315,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -462,7 +379,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +426,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -960,33 +883,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -998,96 +922,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1095,10 +1019,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1031,7 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,69 +1040,119 @@
     <xf numFmtId="20" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1493,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O823"/>
+  <dimension ref="A1:AA823"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1506,14 +1480,19 @@
     <col min="5" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="92"/>
+    <col min="24" max="24" width="14.42578125" style="92"/>
+    <col min="27" max="27" width="14.42578125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
@@ -1548,23 +1527,67 @@
         <f>CONCATENATE(J1, "_Odds")</f>
         <v>Niklas_Odds</v>
       </c>
-      <c r="L1" s="75" t="str">
+      <c r="L1" s="71" t="str">
         <f>CONCATENATE(J1, "_Resultat")</f>
         <v>Niklas_Resultat</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="63" t="str">
+        <f>CONCATENATE(M1, "_Odds")</f>
+        <v>Alex_Odds</v>
+      </c>
+      <c r="O1" s="76" t="str">
+        <f>CONCATENATE(M1, "_Resultat")</f>
+        <v>Alex_Resultat</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="45" t="str">
+        <f>CONCATENATE(P1, "_Odds")</f>
+        <v>Douglas_Odds</v>
+      </c>
+      <c r="R1" s="71" t="str">
+        <f>CONCATENATE(P1, "_Resultat")</f>
+        <v>Douglas_Resultat</v>
+      </c>
+      <c r="S1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="66" t="str">
-        <f>CONCATENATE(M1, "_Odds")</f>
+      <c r="T1" s="63" t="str">
+        <f>CONCATENATE(S1, "_Odds")</f>
         <v>Patrik_Odds</v>
       </c>
-      <c r="O1" s="67" t="str">
-        <f>CONCATENATE(M1, "_Resultat")</f>
+      <c r="U1" s="76" t="str">
+        <f>CONCATENATE(S1, "_Resultat")</f>
         <v>Patrik_Resultat</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="V1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="45" t="str">
+        <f>CONCATENATE(V1, "_Odds")</f>
+        <v>Jenny_Odds</v>
+      </c>
+      <c r="X1" s="93" t="str">
+        <f>CONCATENATE(V1, "_Resultat")</f>
+        <v>Jenny_Resultat</v>
+      </c>
+      <c r="Y1" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="63" t="str">
+        <f>CONCATENATE(Y1, "_Odds")</f>
+        <v>Petra_Odds</v>
+      </c>
+      <c r="AA1" s="76" t="str">
+        <f>CONCATENATE(Y1, "_Resultat")</f>
+        <v>Petra_Resultat</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1624,7 @@
         <f t="shared" ref="K2:K49" si="1">_xlfn.IFS(J2=1,$E2,J2="x",$F2,J2=2,$G2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="70" t="s">
         <v>68</v>
       </c>
       <c r="M2" s="22">
@@ -1611,11 +1634,51 @@
         <f t="shared" ref="N2:N49" si="2">_xlfn.IFS(M2=1,$E2,M2="x",$F2,M2=2,$G2)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75">
+      <c r="O2" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17">
+        <f t="shared" ref="Q2:Q49" si="3">_xlfn.IFS(P2=1,$E2,P2="x",$F2,P2=2,$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <f t="shared" ref="T2:T49" si="4">_xlfn.IFS(S2=1,$E2,S2="x",$F2,S2=2,$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17">
+        <f t="shared" ref="W2:W49" si="5">_xlfn.IFS(V2=1,$E2,V2="x",$F2,V2=2,$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="22">
+        <f t="shared" ref="Z2:Z49" si="6">_xlfn.IFS(Y2=1,$E2,Y2="x",$F2,Y2=2,$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA2" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75">
       <c r="A3" s="57" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1705,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3" si="3">MIN(E3:G3)</f>
+        <f t="shared" ref="I3" si="7">MIN(E3:G3)</f>
         <v>1</v>
       </c>
       <c r="J3" s="18">
@@ -1652,21 +1715,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="65" t="s">
         <v>69</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="N3" s="22">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U3" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="18">
+        <v>2</v>
+      </c>
+      <c r="W3" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:27" ht="15.75">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -1689,11 +1792,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="30">
-        <f t="shared" ref="H4:H49" si="4">MAX(E4:G4)</f>
+        <f t="shared" ref="H4:H49" si="8">MAX(E4:G4)</f>
         <v>2.5</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" ref="I4:I49" si="5">MIN(E4:G4)</f>
+        <f t="shared" ref="I4:I49" si="9">MIN(E4:G4)</f>
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -1703,21 +1806,61 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>58</v>
+      <c r="M4" s="23">
+        <v>1</v>
       </c>
       <c r="N4" s="22">
         <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="O4" s="76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75">
+      <c r="R4" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="18">
+        <v>2</v>
+      </c>
+      <c r="W4" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="22">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="AA4" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
@@ -1740,11 +1883,11 @@
         <v>1.6</v>
       </c>
       <c r="H5" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J5" s="18">
@@ -1754,21 +1897,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="23">
-        <v>2</v>
+      <c r="M5" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N5" s="22">
         <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="23">
+        <v>2</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="U5" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="17">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="X5" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1791,11 +1974,11 @@
         <v>13.4</v>
       </c>
       <c r="H6" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.4</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J6" s="18">
@@ -1805,7 +1988,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="65" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="23">
@@ -1815,11 +1998,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="23">
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1842,11 +2065,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J7" s="18">
@@ -1856,7 +2079,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="65" t="s">
         <v>73</v>
       </c>
       <c r="M7" s="23">
@@ -1866,11 +2089,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O7" s="76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="23">
+        <v>2</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" s="18">
+        <v>2</v>
+      </c>
+      <c r="W7" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA7" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -1893,11 +2156,11 @@
         <v>9</v>
       </c>
       <c r="H8" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J8" s="18">
@@ -1907,21 +2170,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M8" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9</v>
+      </c>
+      <c r="O8" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="23">
+        <v>1</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="18">
+        <v>2</v>
+      </c>
+      <c r="W8" s="17">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="X8" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1944,11 +2247,11 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J9" s="18">
@@ -1958,21 +2261,61 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="65" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75">
+      <c r="S9" s="23">
+        <v>2</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="U9" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="18">
+        <v>1</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA9" s="77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75">
       <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
@@ -1982,7 +2325,7 @@
       <c r="C10" s="59">
         <v>43268</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="60">
         <v>0.55208333333333404</v>
       </c>
       <c r="E10" s="51">
@@ -1995,11 +2338,11 @@
         <v>7.1</v>
       </c>
       <c r="H10" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J10" s="18">
@@ -2009,7 +2352,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="65" t="s">
         <v>76</v>
       </c>
       <c r="M10" s="23">
@@ -2019,11 +2362,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O10" s="76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75">
+      <c r="O10" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="23">
+        <v>1</v>
+      </c>
+      <c r="T10" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="18">
+        <v>1</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75">
       <c r="A11" s="57" t="s">
         <v>25</v>
       </c>
@@ -2033,7 +2416,7 @@
       <c r="C11" s="59">
         <v>43268</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="60">
         <v>0.5625</v>
       </c>
       <c r="E11" s="51">
@@ -2046,11 +2429,11 @@
         <v>1</v>
       </c>
       <c r="H11" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J11" s="18">
@@ -2060,21 +2443,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="23">
-        <v>1</v>
+      <c r="M11" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="R11" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="23">
+        <v>1</v>
+      </c>
+      <c r="T11" s="22">
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="O11" s="76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75">
+      <c r="U11" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="X11" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="AA11" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75">
       <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
@@ -2084,7 +2507,7 @@
       <c r="C12" s="59">
         <v>43268</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="60">
         <v>0.57291666666666696</v>
       </c>
       <c r="E12" s="51">
@@ -2097,11 +2520,11 @@
         <v>5.2</v>
       </c>
       <c r="H12" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -2111,7 +2534,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="65" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="23">
@@ -2121,11 +2544,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12" s="76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="23">
+        <v>1</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="18">
+        <v>1</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2148,11 +2611,11 @@
         <v>2</v>
       </c>
       <c r="H13" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J13" s="18">
@@ -2162,21 +2625,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>58</v>
+      <c r="M13" s="23">
+        <v>1</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="O13" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="R13" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="U13" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="X13" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -2199,11 +2702,11 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H14" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18.600000000000001</v>
       </c>
       <c r="I14" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J14" s="18">
@@ -2213,21 +2716,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="65" t="s">
         <v>68</v>
       </c>
       <c r="M14" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O14" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="23">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="18">
+        <v>1</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2250,11 +2793,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J15" s="18" t="s">
@@ -2264,21 +2807,61 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>58</v>
+      <c r="M15" s="23">
+        <v>2</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="4"/>
         <v>3.4</v>
       </c>
-      <c r="O15" s="76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75">
+      <c r="U15" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="18">
+        <v>2</v>
+      </c>
+      <c r="W15" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75">
       <c r="A16" s="57" t="s">
         <v>39</v>
       </c>
@@ -2288,7 +2871,7 @@
       <c r="C16" s="59">
         <v>43270</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="60">
         <v>0.61458333333333404</v>
       </c>
       <c r="E16" s="51">
@@ -2301,11 +2884,11 @@
         <v>1.4</v>
       </c>
       <c r="H16" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="I16" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J16" s="18">
@@ -2315,7 +2898,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M16" s="23">
@@ -2325,11 +2908,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75">
+      <c r="O16" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="23">
+        <v>1</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA16" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75">
       <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
@@ -2339,7 +2962,7 @@
       <c r="C17" s="59">
         <v>43270</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="60">
         <v>0.625000000000001</v>
       </c>
       <c r="E17" s="51">
@@ -2352,11 +2975,11 @@
         <v>3.4</v>
       </c>
       <c r="H17" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.4</v>
       </c>
       <c r="I17" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J17" s="18" t="s">
@@ -2366,7 +2989,7 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="65" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="23" t="s">
@@ -2376,62 +2999,142 @@
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O17" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="O17" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R17" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U17" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X17" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="91" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="85">
         <v>43270</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="86">
         <v>0.63541666666666796</v>
       </c>
-      <c r="E18" s="51">
-        <v>1</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="E18" s="87">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88">
         <v>1.6</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="88">
         <v>1.9</v>
       </c>
-      <c r="H18" s="30">
-        <f t="shared" si="4"/>
+      <c r="H18" s="88">
+        <f t="shared" si="8"/>
         <v>1.9</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="88">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="88">
+        <v>1</v>
+      </c>
+      <c r="K18" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="88">
+        <v>2</v>
+      </c>
+      <c r="N18" s="89">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="O18" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="89">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="R18" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="89">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="U18" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="V18" s="88">
+        <v>1</v>
+      </c>
+      <c r="W18" s="89">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="69" t="s">
+      <c r="X18" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="22">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+      <c r="Y18" s="88">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="89">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="AA18" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -2454,11 +3157,11 @@
         <v>15.4</v>
       </c>
       <c r="H19" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.4</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J19" s="18">
@@ -2468,21 +3171,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>58</v>
+      <c r="M19" s="23">
+        <v>1</v>
       </c>
       <c r="N19" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="O19" s="76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+      <c r="R19" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="4"/>
+        <v>5.3</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -2505,11 +3248,11 @@
         <v>4</v>
       </c>
       <c r="H20" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I20" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J20" s="18">
@@ -2519,7 +3262,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M20" s="23">
@@ -2529,11 +3272,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O20" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="23">
+        <v>1</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="V20" s="18">
+        <v>1</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -2556,11 +3339,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.2</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J21" s="18">
@@ -2570,7 +3353,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="65" t="s">
         <v>79</v>
       </c>
       <c r="M21" s="23">
@@ -2580,11 +3363,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O21" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="23">
+        <v>2</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21" s="18">
+        <v>2</v>
+      </c>
+      <c r="W21" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y21" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
@@ -2594,7 +3417,7 @@
       <c r="C22" s="59">
         <v>43272</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="60">
         <v>0.67708333333333504</v>
       </c>
       <c r="E22" s="51">
@@ -2607,11 +3430,11 @@
         <v>5.7</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J22" s="18">
@@ -2621,21 +3444,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="65" t="s">
         <v>72</v>
       </c>
       <c r="M22" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+        <v>5.7</v>
+      </c>
+      <c r="O22" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S22" s="23">
+        <v>1</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="X22" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y22" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
@@ -2645,7 +3508,7 @@
       <c r="C23" s="59">
         <v>43272</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="60">
         <v>0.687500000000002</v>
       </c>
       <c r="E23" s="51">
@@ -2658,11 +3521,11 @@
         <v>3.2</v>
       </c>
       <c r="H23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J23" s="18">
@@ -2672,21 +3535,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="23" t="s">
-        <v>58</v>
+      <c r="M23" s="23">
+        <v>1</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="22">
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O23" s="76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="U23" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V23" s="18">
+        <v>1</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
@@ -2696,7 +3599,7 @@
       <c r="C24" s="59">
         <v>43272</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="60">
         <v>0.69791666666666796</v>
       </c>
       <c r="E24" s="51">
@@ -2709,11 +3612,11 @@
         <v>1.3</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -2723,21 +3626,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="23">
-        <v>2</v>
+      <c r="M24" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N24" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="R24" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="23">
+        <v>2</v>
+      </c>
+      <c r="T24" s="22">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="O24" s="76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+      <c r="U24" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="V24" s="18">
+        <v>1</v>
+      </c>
+      <c r="W24" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="X24" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y24" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA24" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -2760,11 +3703,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H25" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="I25" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J25" s="18">
@@ -2774,21 +3717,61 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="23">
-        <v>1</v>
+      <c r="M25" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N25" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="R25" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" s="23">
+        <v>1</v>
+      </c>
+      <c r="T25" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="V25" s="18">
+        <v>2</v>
+      </c>
+      <c r="W25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y25" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA25" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2811,11 +3794,11 @@
         <v>12.9</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.9</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J26" s="18">
@@ -2825,21 +3808,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="M26" s="23">
-        <v>1</v>
+      <c r="M26" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N26" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+        <v>5.3</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="S26" s="23">
+        <v>1</v>
+      </c>
+      <c r="T26" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" s="18">
+        <v>1</v>
+      </c>
+      <c r="W26" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X26" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -2862,11 +3885,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J27" s="18">
@@ -2876,21 +3899,61 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="65" t="s">
         <v>72</v>
       </c>
       <c r="M27" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O27" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="R27" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" s="23">
+        <v>2</v>
+      </c>
+      <c r="T27" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="18">
+        <v>1</v>
+      </c>
+      <c r="W27" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X27" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA27" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
@@ -2900,7 +3963,7 @@
       <c r="C28" s="59">
         <v>43274</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="60">
         <v>0.73958333333333504</v>
       </c>
       <c r="E28" s="51">
@@ -2913,11 +3976,11 @@
         <v>5.7</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -2927,21 +3990,61 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="23">
-        <v>1</v>
+      <c r="M28" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+        <v>3.4</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="23">
+        <v>1</v>
+      </c>
+      <c r="T28" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V28" s="18">
+        <v>1</v>
+      </c>
+      <c r="W28" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X28" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="57" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +4054,7 @@
       <c r="C29" s="59">
         <v>43274</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="60">
         <v>0.750000000000002</v>
       </c>
       <c r="E29" s="51">
@@ -2964,11 +4067,11 @@
         <v>1</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.6</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
@@ -2978,7 +4081,7 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="65" t="s">
         <v>71</v>
       </c>
       <c r="M29" s="23">
@@ -2988,11 +4091,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O29" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="23">
+        <v>2</v>
+      </c>
+      <c r="T29" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="V29" s="18">
+        <v>1</v>
+      </c>
+      <c r="W29" s="17">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="X29" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y29" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="57" t="s">
         <v>42</v>
       </c>
@@ -3002,7 +4145,7 @@
       <c r="C30" s="59">
         <v>43274</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="60">
         <v>0.76041666666666896</v>
       </c>
       <c r="E30" s="51">
@@ -3015,11 +4158,11 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H30" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="I30" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J30" s="18">
@@ -3029,7 +4172,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="23">
@@ -3039,11 +4182,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O30" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="23">
+        <v>1</v>
+      </c>
+      <c r="T30" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" s="18">
+        <v>1</v>
+      </c>
+      <c r="W30" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X30" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y30" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -3066,11 +4249,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.100000000000001</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J31" s="18" t="s">
@@ -3080,21 +4263,61 @@
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M31" s="23">
-        <v>1</v>
+      <c r="M31" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N31" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+        <v>5.7</v>
+      </c>
+      <c r="O31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="23">
+        <v>1</v>
+      </c>
+      <c r="T31" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="17">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+      <c r="X31" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y31" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -3117,11 +4340,11 @@
         <v>1</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J32" s="18">
@@ -3131,7 +4354,7 @@
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="65" t="s">
         <v>72</v>
       </c>
       <c r="M32" s="23">
@@ -3141,11 +4364,51 @@
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O32" s="76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O32" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="R32" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="S32" s="23">
+        <v>1</v>
+      </c>
+      <c r="T32" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="U32" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="18">
+        <v>2</v>
+      </c>
+      <c r="W32" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y32" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA32" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -3168,11 +4431,11 @@
         <v>1</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J33" s="18" t="s">
@@ -3182,72 +4445,152 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="L33" s="69" t="s">
+      <c r="L33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="23">
-        <v>2</v>
+      <c r="M33" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N33" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A34" s="57" t="s">
+        <v>1.4</v>
+      </c>
+      <c r="O33" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="R33" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="23">
+        <v>2</v>
+      </c>
+      <c r="T33" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="17">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="X33" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="22">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA33" s="77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="91" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="85">
         <v>43276</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="86">
         <v>0.80208333333333603</v>
       </c>
-      <c r="E34" s="51">
-        <v>1</v>
-      </c>
-      <c r="F34" s="28">
+      <c r="E34" s="87">
+        <v>1</v>
+      </c>
+      <c r="F34" s="88">
         <v>1.3</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="88">
         <v>1.4</v>
       </c>
-      <c r="H34" s="30">
-        <f t="shared" si="4"/>
+      <c r="H34" s="88">
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="88">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="88">
+        <v>1</v>
+      </c>
+      <c r="K34" s="89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" s="88">
+        <v>1</v>
+      </c>
+      <c r="N34" s="89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" s="88">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="89">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="R34" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="88">
+        <v>1</v>
+      </c>
+      <c r="T34" s="89">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="V34" s="88">
+        <v>1</v>
+      </c>
+      <c r="W34" s="89">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J34" s="18">
-        <v>1</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L34" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="M34" s="23">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O34" s="76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+      <c r="X34" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y34" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="89">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>10</v>
       </c>
@@ -3257,7 +4600,7 @@
       <c r="C35" s="59">
         <v>43276</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="60">
         <v>0.812500000000002</v>
       </c>
       <c r="E35" s="51">
@@ -3270,11 +4613,11 @@
         <v>1</v>
       </c>
       <c r="H35" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9</v>
       </c>
       <c r="I35" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
@@ -3284,21 +4627,61 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="23">
-        <v>2</v>
+      <c r="M35" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N35" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+        <v>2.1</v>
+      </c>
+      <c r="O35" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S35" s="23">
+        <v>2</v>
+      </c>
+      <c r="T35" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U35" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="X35" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y35" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="61" t="s">
         <v>14</v>
       </c>
@@ -3308,7 +4691,7 @@
       <c r="C36" s="59">
         <v>43276</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="60">
         <v>0.82291666666666896</v>
       </c>
       <c r="E36" s="51">
@@ -3321,11 +4704,11 @@
         <v>1</v>
       </c>
       <c r="H36" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J36" s="18">
@@ -3335,7 +4718,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="65" t="s">
         <v>69</v>
       </c>
       <c r="M36" s="23">
@@ -3345,11 +4728,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36" s="76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O36" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="S36" s="23">
+        <v>2</v>
+      </c>
+      <c r="T36" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U36" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="V36" s="18">
+        <v>2</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y36" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +4782,7 @@
       <c r="C37" s="59">
         <v>43276</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="60">
         <v>0.83333333333333603</v>
       </c>
       <c r="E37" s="51">
@@ -3372,11 +4795,11 @@
         <v>7.6</v>
       </c>
       <c r="H37" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
       <c r="I37" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J37" s="18">
@@ -3386,7 +4809,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M37" s="23">
@@ -3396,11 +4819,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O37" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O37" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="S37" s="23">
+        <v>1</v>
+      </c>
+      <c r="T37" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U37" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="V37" s="18">
+        <v>1</v>
+      </c>
+      <c r="W37" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y37" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -3423,11 +4886,11 @@
         <v>1</v>
       </c>
       <c r="H38" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6</v>
       </c>
       <c r="I38" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J38" s="18" t="s">
@@ -3437,21 +4900,61 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="23">
-        <v>2</v>
+      <c r="M38" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N38" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O38" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R38" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S38" s="23">
+        <v>2</v>
+      </c>
+      <c r="T38" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U38" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="V38" s="18">
+        <v>2</v>
+      </c>
+      <c r="W38" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y38" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -3474,11 +4977,11 @@
         <v>1</v>
       </c>
       <c r="H39" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="I39" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J39" s="18" t="s">
@@ -3488,21 +4991,61 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="23" t="s">
-        <v>58</v>
+      <c r="M39" s="23">
+        <v>2</v>
       </c>
       <c r="N39" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="O39" s="76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+      <c r="R39" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="U39" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="X39" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y39" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -3525,11 +5068,11 @@
         <v>1</v>
       </c>
       <c r="H40" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
       <c r="I40" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J40" s="18">
@@ -3539,7 +5082,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="65" t="s">
         <v>73</v>
       </c>
       <c r="M40" s="23">
@@ -3549,11 +5092,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40" s="76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O40" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="S40" s="23">
+        <v>2</v>
+      </c>
+      <c r="T40" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="V40" s="18">
+        <v>2</v>
+      </c>
+      <c r="W40" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X40" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y40" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -3576,11 +5159,11 @@
         <v>1.2</v>
       </c>
       <c r="H41" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="I41" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J41" s="18">
@@ -3590,21 +5173,61 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>58</v>
+      <c r="M41" s="23">
+        <v>2</v>
       </c>
       <c r="N41" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+        <v>1.2</v>
+      </c>
+      <c r="O41" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="R41" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X41" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y41" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA41" s="77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +5237,7 @@
       <c r="C42" s="59">
         <v>43278</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="60">
         <v>0.88541666666666996</v>
       </c>
       <c r="E42" s="51">
@@ -3627,11 +5250,11 @@
         <v>1</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J42" s="18">
@@ -3641,7 +5264,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="L42" s="65" t="s">
         <v>81</v>
       </c>
       <c r="M42" s="23">
@@ -3651,11 +5274,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42" s="76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O42" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S42" s="23">
+        <v>2</v>
+      </c>
+      <c r="T42" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U42" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42" s="18">
+        <v>2</v>
+      </c>
+      <c r="W42" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X42" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y42" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1">
       <c r="A43" s="57" t="s">
         <v>48</v>
       </c>
@@ -3665,7 +5328,7 @@
       <c r="C43" s="59">
         <v>43278</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="60">
         <v>0.89583333333333603</v>
       </c>
       <c r="E43" s="51">
@@ -3678,11 +5341,11 @@
         <v>2.4</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J43" s="18" t="s">
@@ -3692,21 +5355,61 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L43" s="69" t="s">
+      <c r="L43" s="65" t="s">
         <v>70</v>
       </c>
       <c r="M43" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+        <v>2.4</v>
+      </c>
+      <c r="O43" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="R43" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="S43" s="23">
+        <v>1</v>
+      </c>
+      <c r="T43" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V43" s="18">
+        <v>2</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="X43" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y43" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA43" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1">
       <c r="A44" s="57" t="s">
         <v>46</v>
       </c>
@@ -3716,7 +5419,7 @@
       <c r="C44" s="59">
         <v>43278</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="60">
         <v>0.906250000000003</v>
       </c>
       <c r="E44" s="51">
@@ -3729,11 +5432,11 @@
         <v>1</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I44" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J44" s="18">
@@ -3743,7 +5446,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L44" s="69" t="s">
+      <c r="L44" s="65" t="s">
         <v>81</v>
       </c>
       <c r="M44" s="23">
@@ -3753,11 +5456,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O44" s="76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O44" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S44" s="23">
+        <v>2</v>
+      </c>
+      <c r="T44" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="V44" s="18">
+        <v>2</v>
+      </c>
+      <c r="W44" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y44" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA44" s="72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1">
       <c r="A45" s="57" t="s">
         <v>45</v>
       </c>
@@ -3767,7 +5510,7 @@
       <c r="C45" s="59">
         <v>43278</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="60">
         <v>0.91666666666666996</v>
       </c>
       <c r="E45" s="51">
@@ -3780,11 +5523,11 @@
         <v>1.2</v>
       </c>
       <c r="H45" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="I45" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J45" s="18">
@@ -3794,21 +5537,61 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L45" s="69" t="s">
+      <c r="L45" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M45" s="23" t="s">
-        <v>58</v>
+      <c r="M45" s="23">
+        <v>2</v>
       </c>
       <c r="N45" s="22">
         <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="O45" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S45" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="22">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="O45" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+      <c r="U45" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="V45" s="18">
+        <v>2</v>
+      </c>
+      <c r="W45" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="X45" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -3831,11 +5614,11 @@
         <v>1</v>
       </c>
       <c r="H46" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="I46" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J46" s="18">
@@ -3845,7 +5628,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="65" t="s">
         <v>81</v>
       </c>
       <c r="M46" s="23" t="s">
@@ -3855,11 +5638,51 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="O46" s="76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O46" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="S46" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="22">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="V46" s="18">
+        <v>2</v>
+      </c>
+      <c r="W46" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X46" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y46" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="22">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA46" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -3882,11 +5705,11 @@
         <v>1</v>
       </c>
       <c r="H47" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="I47" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J47" s="18">
@@ -3896,21 +5719,61 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="L47" s="69" t="s">
+      <c r="L47" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M47" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+        <v>1.6</v>
+      </c>
+      <c r="O47" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="R47" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S47" s="23">
+        <v>2</v>
+      </c>
+      <c r="T47" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="V47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="X47" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y47" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="22">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA47" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -3933,11 +5796,11 @@
         <v>1</v>
       </c>
       <c r="H48" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="I48" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J48" s="18" t="s">
@@ -3947,7 +5810,7 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="L48" s="65" t="s">
         <v>71</v>
       </c>
       <c r="M48" s="23">
@@ -3957,11 +5820,51 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O48" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O48" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="S48" s="23">
+        <v>2</v>
+      </c>
+      <c r="T48" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U48" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="V48" s="18">
+        <v>1</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X48" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y48" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z48" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA48" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
@@ -3984,11 +5887,11 @@
         <v>1</v>
       </c>
       <c r="H49" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9</v>
       </c>
       <c r="I49" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J49" s="19" t="s">
@@ -3998,7 +5901,7 @@
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="L49" s="70" t="s">
+      <c r="L49" s="66" t="s">
         <v>71</v>
       </c>
       <c r="M49" s="24" t="s">
@@ -4008,11 +5911,51 @@
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="O49" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O49" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="R49" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="S49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="22">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="U49" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="V49" s="19">
+        <v>1</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="X49" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y49" s="24">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA49" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -4031,17 +5974,49 @@
         <f>SUM(K2:K49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="L50" s="71"/>
+      <c r="L50" s="67"/>
       <c r="M50" s="36" t="s">
         <v>60</v>
       </c>
       <c r="N50" s="25">
         <f>SUM(N2:N49)</f>
+        <v>102.90000000000003</v>
+      </c>
+      <c r="O50" s="78"/>
+      <c r="P50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="20">
+        <f>SUM(Q2:Q49)</f>
+        <v>62.800000000000004</v>
+      </c>
+      <c r="R50" s="67"/>
+      <c r="S50" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50" s="25">
+        <f>SUM(T2:T49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="O50" s="63"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+      <c r="U50" s="78"/>
+      <c r="V50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" s="20">
+        <f>SUM(W2:W49)</f>
+        <v>74.700000000000017</v>
+      </c>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z50" s="25">
+        <f>SUM(Z2:Z49)</f>
+        <v>54.499999999999993</v>
+      </c>
+      <c r="AA50" s="78"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1">
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -4054,17 +6029,49 @@
         <f>COUNTIF(K2:K49,1)</f>
         <v>27</v>
       </c>
-      <c r="L51" s="72"/>
+      <c r="L51" s="68"/>
       <c r="M51" s="41" t="s">
         <v>62</v>
       </c>
       <c r="N51" s="40">
         <f>COUNTIF(N2:N49,1)</f>
+        <v>23</v>
+      </c>
+      <c r="O51" s="79"/>
+      <c r="P51" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="38">
+        <f>COUNTIF(Q2:Q49,1)</f>
+        <v>29</v>
+      </c>
+      <c r="R51" s="68"/>
+      <c r="S51" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="T51" s="40">
+        <f>COUNTIF(T2:T49,1)</f>
         <v>31</v>
       </c>
-      <c r="O51" s="64"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="U51" s="79"/>
+      <c r="V51" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="W51" s="38">
+        <f>COUNTIF(W2:W49,1)</f>
+        <v>28</v>
+      </c>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z51" s="40">
+        <f>COUNTIF(Z2:Z49,1)</f>
+        <v>33</v>
+      </c>
+      <c r="AA51" s="79"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="J52" s="32" t="s">
         <v>61</v>
       </c>
@@ -4072,28 +6079,60 @@
         <f>1-(-$I$50+K50)/($H$50-$I$50)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="L52" s="73"/>
+      <c r="L52" s="69"/>
       <c r="M52" s="37" t="s">
         <v>61</v>
       </c>
       <c r="N52" s="26">
         <f>1-(-$I$50+N50)/($H$50-$I$50)</f>
+        <v>0.72425916624811637</v>
+      </c>
+      <c r="O52" s="80"/>
+      <c r="P52" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q52" s="21">
+        <f>1-(-$I$50+Q50)/($H$50-$I$50)</f>
+        <v>0.92566549472626813</v>
+      </c>
+      <c r="R52" s="69"/>
+      <c r="S52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="T52" s="26">
+        <f>1-(-$I$50+T50)/($H$50-$I$50)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="O52" s="65"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="W52" s="21">
+        <f>1-(-$I$50+W50)/($H$50-$I$50)</f>
+        <v>0.86589653440482162</v>
+      </c>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z52" s="26">
+        <f>1-(-$I$50+Z50)/($H$50-$I$50)</f>
+        <v>0.96735308890005023</v>
+      </c>
+      <c r="AA52" s="80"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4873,14 +6912,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="78"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="96">
   <si>
     <t>Resultat</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>2-4</t>
+  </si>
+  <si>
+    <t>Philip</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,6 +1146,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1467,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA823"/>
+  <dimension ref="A1:AD823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1483,16 +1486,17 @@
     <col min="12" max="12" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="79" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="92"/>
-    <col min="24" max="24" width="14.42578125" style="92"/>
-    <col min="27" max="27" width="14.42578125" style="92"/>
+    <col min="21" max="21" width="14.42578125" style="90"/>
+    <col min="24" max="24" width="14.42578125" style="90"/>
+    <col min="27" max="27" width="14.42578125" style="90"/>
+    <col min="30" max="30" width="14.42578125" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
@@ -1538,7 +1542,7 @@
         <f>CONCATENATE(M1, "_Odds")</f>
         <v>Alex_Odds</v>
       </c>
-      <c r="O1" s="76" t="str">
+      <c r="O1" s="74" t="str">
         <f>CONCATENATE(M1, "_Resultat")</f>
         <v>Alex_Resultat</v>
       </c>
@@ -1560,7 +1564,7 @@
         <f>CONCATENATE(S1, "_Odds")</f>
         <v>Patrik_Odds</v>
       </c>
-      <c r="U1" s="76" t="str">
+      <c r="U1" s="74" t="str">
         <f>CONCATENATE(S1, "_Resultat")</f>
         <v>Patrik_Resultat</v>
       </c>
@@ -1571,7 +1575,7 @@
         <f>CONCATENATE(V1, "_Odds")</f>
         <v>Jenny_Odds</v>
       </c>
-      <c r="X1" s="93" t="str">
+      <c r="X1" s="91" t="str">
         <f>CONCATENATE(V1, "_Resultat")</f>
         <v>Jenny_Resultat</v>
       </c>
@@ -1582,12 +1586,23 @@
         <f>CONCATENATE(Y1, "_Odds")</f>
         <v>Petra_Odds</v>
       </c>
-      <c r="AA1" s="76" t="str">
+      <c r="AA1" s="74" t="str">
         <f>CONCATENATE(Y1, "_Resultat")</f>
         <v>Petra_Resultat</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="45" t="str">
+        <f>CONCATENATE(AB1, "_Odds")</f>
+        <v>Philip_Odds</v>
+      </c>
+      <c r="AD1" s="91" t="str">
+        <f>CONCATENATE(AB1, "_Resultat")</f>
+        <v>Philip_Resultat</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1649,7 @@
         <f t="shared" ref="N2:N49" si="2">_xlfn.IFS(M2=1,$E2,M2="x",$F2,M2=2,$G2)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="80" t="s">
         <v>74</v>
       </c>
       <c r="P2" s="17">
@@ -1677,8 +1692,18 @@
       <c r="AA2" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75">
+      <c r="AB2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="17">
+        <f t="shared" ref="AC2:AC49" si="7">_xlfn.IFS(AB2=1,$E2,AB2="x",$F2,AB2=2,$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="AD2" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75">
       <c r="A3" s="57" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3" si="7">MIN(E3:G3)</f>
+        <f t="shared" ref="I3" si="8">MIN(E3:G3)</f>
         <v>1</v>
       </c>
       <c r="J3" s="18">
@@ -1768,8 +1793,18 @@
       <c r="AA3" s="72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75">
+      <c r="AB3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -1792,11 +1827,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="30">
-        <f t="shared" ref="H4:H49" si="8">MAX(E4:G4)</f>
+        <f t="shared" ref="H4:H49" si="9">MAX(E4:G4)</f>
         <v>2.5</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" ref="I4:I49" si="9">MIN(E4:G4)</f>
+        <f t="shared" ref="I4:I49" si="10">MIN(E4:G4)</f>
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -1859,8 +1894,18 @@
       <c r="AA4" s="72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75">
+      <c r="AB4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="17">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD4" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
@@ -1883,11 +1928,11 @@
         <v>1.6</v>
       </c>
       <c r="H5" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J5" s="18">
@@ -1907,7 +1952,7 @@
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="75" t="s">
         <v>91</v>
       </c>
       <c r="P5" s="18">
@@ -1927,7 +1972,7 @@
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="75" t="s">
         <v>70</v>
       </c>
       <c r="V5" s="18" t="s">
@@ -1947,11 +1992,21 @@
         <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
-      <c r="AA5" s="77" t="s">
+      <c r="AA5" s="75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="17">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="AD5" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +2017,7 @@
         <v>43267</v>
       </c>
       <c r="D6" s="56">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="51">
         <v>1</v>
@@ -1974,11 +2029,11 @@
         <v>13.4</v>
       </c>
       <c r="H6" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.4</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J6" s="18">
@@ -1998,7 +2053,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="O6" s="73" t="s">
         <v>90</v>
       </c>
       <c r="P6" s="18">
@@ -2041,8 +2096,18 @@
       <c r="AA6" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +2118,7 @@
         <v>43267</v>
       </c>
       <c r="D7" s="56">
-        <v>0.52083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="51">
         <v>1.3</v>
@@ -2065,11 +2130,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J7" s="18">
@@ -2132,8 +2197,18 @@
       <c r="AA7" s="72" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2219,7 @@
         <v>43267</v>
       </c>
       <c r="D8" s="56">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="E8" s="51">
         <v>1</v>
@@ -2156,11 +2231,11 @@
         <v>9</v>
       </c>
       <c r="H8" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J8" s="18">
@@ -2223,8 +2298,18 @@
       <c r="AA8" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="17">
+        <f t="shared" si="7"/>
+        <v>3.7</v>
+      </c>
+      <c r="AD8" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2320,7 @@
         <v>43267</v>
       </c>
       <c r="D9" s="56">
-        <v>0.54166666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="E9" s="51">
         <v>1.5</v>
@@ -2247,11 +2332,11 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J9" s="18">
@@ -2271,7 +2356,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O9" s="77" t="s">
+      <c r="O9" s="75" t="s">
         <v>76</v>
       </c>
       <c r="P9" s="18" t="s">
@@ -2291,7 +2376,7 @@
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="U9" s="77" t="s">
+      <c r="U9" s="75" t="s">
         <v>73</v>
       </c>
       <c r="V9" s="18">
@@ -2311,11 +2396,21 @@
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="AA9" s="77" t="s">
+      <c r="AA9" s="75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75">
+      <c r="AB9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="17">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD9" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75">
       <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
@@ -2326,7 +2421,7 @@
         <v>43268</v>
       </c>
       <c r="D10" s="60">
-        <v>0.55208333333333404</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E10" s="51">
         <v>1</v>
@@ -2338,11 +2433,11 @@
         <v>7.1</v>
       </c>
       <c r="H10" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J10" s="18">
@@ -2405,8 +2500,18 @@
       <c r="AA10" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75">
+      <c r="AB10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75">
       <c r="A11" s="57" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +2522,7 @@
         <v>43268</v>
       </c>
       <c r="D11" s="60">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E11" s="51">
         <v>2.4</v>
@@ -2429,11 +2534,11 @@
         <v>1</v>
       </c>
       <c r="H11" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J11" s="18">
@@ -2496,8 +2601,18 @@
       <c r="AA11" s="72" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75">
+      <c r="AB11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75">
       <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2623,7 @@
         <v>43268</v>
       </c>
       <c r="D12" s="60">
-        <v>0.57291666666666696</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E12" s="51">
         <v>1</v>
@@ -2520,11 +2635,11 @@
         <v>5.2</v>
       </c>
       <c r="H12" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -2587,8 +2702,18 @@
       <c r="AA12" s="72" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2611,11 +2736,11 @@
         <v>2</v>
       </c>
       <c r="H13" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J13" s="18">
@@ -2635,7 +2760,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13" s="77" t="s">
+      <c r="O13" s="75" t="s">
         <v>83</v>
       </c>
       <c r="P13" s="18" t="s">
@@ -2655,7 +2780,7 @@
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U13" s="77" t="s">
+      <c r="U13" s="75" t="s">
         <v>93</v>
       </c>
       <c r="V13" s="18" t="s">
@@ -2675,11 +2800,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="77" t="s">
+      <c r="AA13" s="75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -2690,7 +2825,7 @@
         <v>43269</v>
       </c>
       <c r="D14" s="56">
-        <v>0.593750000000001</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E14" s="51">
         <v>1</v>
@@ -2702,11 +2837,11 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H14" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.600000000000001</v>
       </c>
       <c r="I14" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J14" s="18">
@@ -2769,8 +2904,18 @@
       <c r="AA14" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2781,7 +2926,7 @@
         <v>43269</v>
       </c>
       <c r="D15" s="56">
-        <v>0.60416666666666696</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E15" s="51">
         <v>7.1</v>
@@ -2793,11 +2938,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J15" s="18" t="s">
@@ -2860,8 +3005,18 @@
       <c r="AA15" s="72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75">
+      <c r="AB15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75">
       <c r="A16" s="57" t="s">
         <v>39</v>
       </c>
@@ -2872,7 +3027,7 @@
         <v>43270</v>
       </c>
       <c r="D16" s="60">
-        <v>0.61458333333333404</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="51">
         <v>1</v>
@@ -2884,11 +3039,11 @@
         <v>1.4</v>
       </c>
       <c r="H16" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="I16" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J16" s="18">
@@ -2951,8 +3106,18 @@
       <c r="AA16" s="72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75">
+      <c r="AB16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75">
       <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
@@ -2963,7 +3128,7 @@
         <v>43270</v>
       </c>
       <c r="D17" s="60">
-        <v>0.625000000000001</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E17" s="51">
         <v>1</v>
@@ -2975,11 +3140,11 @@
         <v>3.4</v>
       </c>
       <c r="H17" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
       <c r="I17" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J17" s="18" t="s">
@@ -2999,7 +3164,7 @@
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O17" s="77" t="s">
+      <c r="O17" s="75" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="18" t="s">
@@ -3019,7 +3184,7 @@
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U17" s="77" t="s">
+      <c r="U17" s="75" t="s">
         <v>70</v>
       </c>
       <c r="V17" s="18" t="s">
@@ -3039,102 +3204,122 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA17" s="77" t="s">
+      <c r="AA17" s="75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="91" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="83" t="s">
+      <c r="AB17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="17">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD17" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="89" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="83">
         <v>43270</v>
       </c>
-      <c r="D18" s="86">
-        <v>0.63541666666666796</v>
-      </c>
-      <c r="E18" s="87">
-        <v>1</v>
-      </c>
-      <c r="F18" s="88">
+      <c r="D18" s="84">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="86">
         <v>1.6</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="86">
         <v>1.9</v>
       </c>
-      <c r="H18" s="88">
-        <f t="shared" si="8"/>
+      <c r="H18" s="86">
+        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="I18" s="88">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="88">
-        <v>1</v>
-      </c>
-      <c r="K18" s="89">
+      <c r="I18" s="86">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="86">
+        <v>1</v>
+      </c>
+      <c r="K18" s="87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="90" t="s">
+      <c r="L18" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="88">
-        <v>2</v>
-      </c>
-      <c r="N18" s="89">
+      <c r="M18" s="86">
+        <v>2</v>
+      </c>
+      <c r="N18" s="87">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="O18" s="90" t="s">
+      <c r="O18" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="88">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="89">
+      <c r="P18" s="86">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="87">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="88" t="s">
+      <c r="S18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="89">
+      <c r="T18" s="87">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U18" s="90" t="s">
+      <c r="U18" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="V18" s="88">
-        <v>1</v>
-      </c>
-      <c r="W18" s="89">
+      <c r="V18" s="86">
+        <v>1</v>
+      </c>
+      <c r="W18" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X18" s="90" t="s">
+      <c r="X18" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Y18" s="88">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="89">
+      <c r="Y18" s="86">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="87">
         <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
-      <c r="AA18" s="90" t="s">
+      <c r="AA18" s="88" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB18" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC18" s="87">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD18" s="88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3330,7 @@
         <v>43271</v>
       </c>
       <c r="D19" s="56">
-        <v>0.64583333333333504</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="51">
         <v>1</v>
@@ -3157,11 +3342,11 @@
         <v>15.4</v>
       </c>
       <c r="H19" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.4</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J19" s="18">
@@ -3224,8 +3409,18 @@
       <c r="AA19" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3431,7 @@
         <v>43271</v>
       </c>
       <c r="D20" s="56">
-        <v>0.656250000000001</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E20" s="51">
         <v>1</v>
@@ -3248,11 +3443,11 @@
         <v>4</v>
       </c>
       <c r="H20" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I20" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J20" s="18">
@@ -3315,8 +3510,18 @@
       <c r="AA20" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -3327,7 +3532,7 @@
         <v>43271</v>
       </c>
       <c r="D21" s="56">
-        <v>0.66666666666666796</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="51">
         <v>17.2</v>
@@ -3339,11 +3544,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.2</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J21" s="18">
@@ -3363,7 +3568,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="75" t="s">
         <v>85</v>
       </c>
       <c r="P21" s="18">
@@ -3383,7 +3588,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U21" s="77" t="s">
+      <c r="U21" s="75" t="s">
         <v>79</v>
       </c>
       <c r="V21" s="18">
@@ -3403,11 +3608,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA21" s="77" t="s">
+      <c r="AA21" s="75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB21" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1">
       <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
@@ -3418,7 +3633,7 @@
         <v>43272</v>
       </c>
       <c r="D22" s="60">
-        <v>0.67708333333333504</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E22" s="51">
         <v>1</v>
@@ -3430,11 +3645,11 @@
         <v>5.7</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J22" s="18">
@@ -3497,8 +3712,18 @@
       <c r="AA22" s="72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1">
       <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
@@ -3509,7 +3734,7 @@
         <v>43272</v>
       </c>
       <c r="D23" s="60">
-        <v>0.687500000000002</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="51">
         <v>1</v>
@@ -3521,11 +3746,11 @@
         <v>3.2</v>
       </c>
       <c r="H23" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J23" s="18">
@@ -3588,8 +3813,18 @@
       <c r="AA23" s="72" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" s="17">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD23" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1">
       <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
@@ -3600,7 +3835,7 @@
         <v>43272</v>
       </c>
       <c r="D24" s="60">
-        <v>0.69791666666666796</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E24" s="51">
         <v>1.2</v>
@@ -3612,11 +3847,11 @@
         <v>1.3</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -3679,8 +3914,18 @@
       <c r="AA24" s="72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="17">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AD24" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3936,7 @@
         <v>43273</v>
       </c>
       <c r="D25" s="56">
-        <v>0.70833333333333504</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E25" s="51">
         <v>1</v>
@@ -3703,11 +3948,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H25" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="I25" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J25" s="18">
@@ -3727,7 +3972,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O25" s="77" t="s">
+      <c r="O25" s="75" t="s">
         <v>93</v>
       </c>
       <c r="P25" s="18" t="s">
@@ -3747,7 +3992,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U25" s="77" t="s">
+      <c r="U25" s="75" t="s">
         <v>70</v>
       </c>
       <c r="V25" s="18">
@@ -3767,11 +4012,21 @@
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA25" s="77" t="s">
+      <c r="AA25" s="75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB25" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD25" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +4037,7 @@
         <v>43273</v>
       </c>
       <c r="D26" s="56">
-        <v>0.718750000000002</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E26" s="51">
         <v>1</v>
@@ -3794,11 +4049,11 @@
         <v>12.9</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.9</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J26" s="18">
@@ -3861,8 +4116,18 @@
       <c r="AA26" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -3873,7 +4138,7 @@
         <v>43273</v>
       </c>
       <c r="D27" s="56">
-        <v>0.72916666666666896</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E27" s="51">
         <v>1.1000000000000001</v>
@@ -3885,11 +4150,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J27" s="18">
@@ -3952,8 +4217,18 @@
       <c r="AA27" s="72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
@@ -3964,7 +4239,7 @@
         <v>43274</v>
       </c>
       <c r="D28" s="60">
-        <v>0.73958333333333504</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E28" s="51">
         <v>1</v>
@@ -3976,11 +4251,11 @@
         <v>5.7</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -4043,8 +4318,18 @@
       <c r="AA28" s="72" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC28" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="AD28" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1">
       <c r="A29" s="57" t="s">
         <v>32</v>
       </c>
@@ -4055,7 +4340,7 @@
         <v>43274</v>
       </c>
       <c r="D29" s="60">
-        <v>0.750000000000002</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E29" s="51">
         <v>2.6</v>
@@ -4067,11 +4352,11 @@
         <v>1</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
@@ -4091,7 +4376,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="O29" s="75" t="s">
         <v>73</v>
       </c>
       <c r="P29" s="18">
@@ -4111,7 +4396,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U29" s="77" t="s">
+      <c r="U29" s="75" t="s">
         <v>77</v>
       </c>
       <c r="V29" s="18">
@@ -4131,11 +4416,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA29" s="77" t="s">
+      <c r="AA29" s="75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB29" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1">
       <c r="A30" s="57" t="s">
         <v>42</v>
       </c>
@@ -4146,7 +4441,7 @@
         <v>43274</v>
       </c>
       <c r="D30" s="60">
-        <v>0.76041666666666896</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E30" s="51">
         <v>1</v>
@@ -4158,11 +4453,11 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H30" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="I30" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J30" s="18">
@@ -4225,8 +4520,18 @@
       <c r="AA30" s="72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4237,7 +4542,7 @@
         <v>43275</v>
       </c>
       <c r="D31" s="56">
-        <v>0.77083333333333603</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E31" s="51">
         <v>1</v>
@@ -4249,11 +4554,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.100000000000001</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J31" s="18" t="s">
@@ -4316,8 +4621,18 @@
       <c r="AA31" s="72" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD31" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -4328,7 +4643,7 @@
         <v>43275</v>
       </c>
       <c r="D32" s="56">
-        <v>0.781250000000002</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E32" s="51">
         <v>1.3</v>
@@ -4340,11 +4655,11 @@
         <v>1</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J32" s="18">
@@ -4407,8 +4722,18 @@
       <c r="AA32" s="72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD32" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -4419,7 +4744,7 @@
         <v>43275</v>
       </c>
       <c r="D33" s="56">
-        <v>0.79166666666666896</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E33" s="51">
         <v>1.5</v>
@@ -4431,11 +4756,11 @@
         <v>1</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J33" s="18" t="s">
@@ -4455,7 +4780,7 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="O33" s="77" t="s">
+      <c r="O33" s="75" t="s">
         <v>71</v>
       </c>
       <c r="P33" s="18" t="s">
@@ -4475,7 +4800,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U33" s="77" t="s">
+      <c r="U33" s="75" t="s">
         <v>77</v>
       </c>
       <c r="V33" s="18" t="s">
@@ -4495,102 +4820,122 @@
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AA33" s="77" t="s">
+      <c r="AA33" s="75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" s="91" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="83" t="s">
+      <c r="AB33" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="89" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="83">
         <v>43276</v>
       </c>
-      <c r="D34" s="86">
-        <v>0.80208333333333603</v>
-      </c>
-      <c r="E34" s="87">
-        <v>1</v>
-      </c>
-      <c r="F34" s="88">
+      <c r="D34" s="84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E34" s="85">
+        <v>1</v>
+      </c>
+      <c r="F34" s="86">
         <v>1.3</v>
       </c>
-      <c r="G34" s="88">
+      <c r="G34" s="86">
         <v>1.4</v>
       </c>
-      <c r="H34" s="88">
-        <f t="shared" si="8"/>
+      <c r="H34" s="86">
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I34" s="88">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="88">
-        <v>1</v>
-      </c>
-      <c r="K34" s="89">
+      <c r="I34" s="86">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="86">
+        <v>1</v>
+      </c>
+      <c r="K34" s="87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="90" t="s">
+      <c r="L34" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="M34" s="88">
-        <v>1</v>
-      </c>
-      <c r="N34" s="89">
+      <c r="M34" s="86">
+        <v>1</v>
+      </c>
+      <c r="N34" s="87">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O34" s="90" t="s">
+      <c r="O34" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="P34" s="88">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="89">
+      <c r="P34" s="86">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="87">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="R34" s="90" t="s">
+      <c r="R34" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="S34" s="88">
-        <v>1</v>
-      </c>
-      <c r="T34" s="89">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U34" s="90" t="s">
+      <c r="S34" s="86">
+        <v>1</v>
+      </c>
+      <c r="T34" s="87">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="V34" s="88">
-        <v>1</v>
-      </c>
-      <c r="W34" s="89">
+      <c r="V34" s="86">
+        <v>1</v>
+      </c>
+      <c r="W34" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X34" s="90" t="s">
+      <c r="X34" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Y34" s="88">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="89">
+      <c r="Y34" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="90" t="s">
+      <c r="AA34" s="88" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB34" s="86">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="87">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>10</v>
       </c>
@@ -4601,7 +4946,7 @@
         <v>43276</v>
       </c>
       <c r="D35" s="60">
-        <v>0.812500000000002</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E35" s="51">
         <v>2.9</v>
@@ -4613,11 +4958,11 @@
         <v>1</v>
       </c>
       <c r="H35" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9</v>
       </c>
       <c r="I35" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J35" s="18" t="s">
@@ -4680,8 +5025,18 @@
       <c r="AA35" s="72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB35" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD35" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" customHeight="1">
       <c r="A36" s="61" t="s">
         <v>14</v>
       </c>
@@ -4692,7 +5047,7 @@
         <v>43276</v>
       </c>
       <c r="D36" s="60">
-        <v>0.82291666666666896</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E36" s="51">
         <v>7.5</v>
@@ -4704,11 +5059,11 @@
         <v>1</v>
       </c>
       <c r="H36" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J36" s="18">
@@ -4771,8 +5126,18 @@
       <c r="AA36" s="72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB36" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" customHeight="1">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +5148,7 @@
         <v>43276</v>
       </c>
       <c r="D37" s="60">
-        <v>0.83333333333333603</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E37" s="51">
         <v>1</v>
@@ -4795,11 +5160,11 @@
         <v>7.6</v>
       </c>
       <c r="H37" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6</v>
       </c>
       <c r="I37" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J37" s="18">
@@ -4819,7 +5184,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="75" t="s">
         <v>92</v>
       </c>
       <c r="P37" s="18">
@@ -4839,7 +5204,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U37" s="77" t="s">
+      <c r="U37" s="75" t="s">
         <v>68</v>
       </c>
       <c r="V37" s="18">
@@ -4859,11 +5224,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA37" s="77" t="s">
+      <c r="AA37" s="75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -4874,7 +5249,7 @@
         <v>43277</v>
       </c>
       <c r="D38" s="56">
-        <v>0.843750000000003</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E38" s="51">
         <v>3.6</v>
@@ -4886,11 +5261,11 @@
         <v>1</v>
       </c>
       <c r="H38" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
       <c r="I38" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J38" s="18" t="s">
@@ -4953,8 +5328,18 @@
       <c r="AA38" s="72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB38" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -4965,7 +5350,7 @@
         <v>43277</v>
       </c>
       <c r="D39" s="56">
-        <v>0.85416666666666896</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E39" s="51">
         <v>1.6</v>
@@ -4977,11 +5362,11 @@
         <v>1</v>
       </c>
       <c r="H39" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="I39" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J39" s="18" t="s">
@@ -5044,8 +5429,18 @@
       <c r="AA39" s="72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" s="17">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD39" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -5056,7 +5451,7 @@
         <v>43277</v>
       </c>
       <c r="D40" s="56">
-        <v>0.86458333333333603</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E40" s="51">
         <v>5.3</v>
@@ -5068,11 +5463,11 @@
         <v>1</v>
       </c>
       <c r="H40" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
       <c r="I40" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J40" s="18">
@@ -5135,8 +5530,18 @@
       <c r="AA40" s="72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB40" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -5147,7 +5552,7 @@
         <v>43277</v>
       </c>
       <c r="D41" s="56">
-        <v>0.875000000000003</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E41" s="51">
         <v>1.4</v>
@@ -5159,11 +5564,11 @@
         <v>1.2</v>
       </c>
       <c r="H41" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="I41" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J41" s="18">
@@ -5183,7 +5588,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O41" s="77" t="s">
+      <c r="O41" s="75" t="s">
         <v>81</v>
       </c>
       <c r="P41" s="18">
@@ -5203,7 +5608,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U41" s="77" t="s">
+      <c r="U41" s="75" t="s">
         <v>93</v>
       </c>
       <c r="V41" s="18" t="s">
@@ -5223,11 +5628,21 @@
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AA41" s="77" t="s">
+      <c r="AA41" s="75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB41" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="17">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD41" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>47</v>
       </c>
@@ -5238,7 +5653,7 @@
         <v>43278</v>
       </c>
       <c r="D42" s="60">
-        <v>0.88541666666666996</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E42" s="51">
         <v>6.9</v>
@@ -5250,11 +5665,11 @@
         <v>1</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.9</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J42" s="18">
@@ -5317,8 +5732,18 @@
       <c r="AA42" s="72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB42" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD42" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" customHeight="1">
       <c r="A43" s="57" t="s">
         <v>48</v>
       </c>
@@ -5329,7 +5754,7 @@
         <v>43278</v>
       </c>
       <c r="D43" s="60">
-        <v>0.89583333333333603</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E43" s="51">
         <v>1</v>
@@ -5341,11 +5766,11 @@
         <v>2.4</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J43" s="18" t="s">
@@ -5395,7 +5820,7 @@
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="X43" s="97" t="s">
+      <c r="X43" s="95" t="s">
         <v>69</v>
       </c>
       <c r="Y43" s="23">
@@ -5408,8 +5833,18 @@
       <c r="AA43" s="72" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB43" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD43" s="95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" customHeight="1">
       <c r="A44" s="57" t="s">
         <v>46</v>
       </c>
@@ -5420,7 +5855,7 @@
         <v>43278</v>
       </c>
       <c r="D44" s="60">
-        <v>0.906250000000003</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E44" s="51">
         <v>10</v>
@@ -5432,11 +5867,11 @@
         <v>1</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I44" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J44" s="18">
@@ -5499,8 +5934,18 @@
       <c r="AA44" s="72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB44" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD44" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" customHeight="1">
       <c r="A45" s="57" t="s">
         <v>45</v>
       </c>
@@ -5511,7 +5956,7 @@
         <v>43278</v>
       </c>
       <c r="D45" s="60">
-        <v>0.91666666666666996</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E45" s="51">
         <v>1</v>
@@ -5523,11 +5968,11 @@
         <v>1.2</v>
       </c>
       <c r="H45" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="I45" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J45" s="18">
@@ -5547,7 +5992,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O45" s="77" t="s">
+      <c r="O45" s="75" t="s">
         <v>73</v>
       </c>
       <c r="P45" s="18">
@@ -5567,7 +6012,7 @@
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="U45" s="77" t="s">
+      <c r="U45" s="75" t="s">
         <v>70</v>
       </c>
       <c r="V45" s="18">
@@ -5587,11 +6032,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA45" s="77" t="s">
+      <c r="AA45" s="75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB45" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="17">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AD45" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -5602,7 +6057,7 @@
         <v>43279</v>
       </c>
       <c r="D46" s="56">
-        <v>0.92708333333333703</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E46" s="51">
         <v>1.2</v>
@@ -5614,11 +6069,11 @@
         <v>1</v>
       </c>
       <c r="H46" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="I46" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J46" s="18">
@@ -5681,8 +6136,18 @@
       <c r="AA46" s="72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB46" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -5693,7 +6158,7 @@
         <v>43279</v>
       </c>
       <c r="D47" s="56">
-        <v>0.937500000000003</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E47" s="51">
         <v>1.6</v>
@@ -5705,11 +6170,11 @@
         <v>1</v>
       </c>
       <c r="H47" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="I47" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J47" s="18">
@@ -5772,8 +6237,18 @@
       <c r="AA47" s="72" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB47" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="17">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD47" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -5784,7 +6259,7 @@
         <v>43279</v>
       </c>
       <c r="D48" s="56">
-        <v>0.94791666666666996</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E48" s="51">
         <v>2.2999999999999998</v>
@@ -5796,11 +6271,11 @@
         <v>1</v>
       </c>
       <c r="H48" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="I48" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J48" s="18" t="s">
@@ -5863,8 +6338,18 @@
       <c r="AA48" s="72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="AB48" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD48" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
@@ -5875,7 +6360,7 @@
         <v>43279</v>
       </c>
       <c r="D49" s="56">
-        <v>0.95833333333333703</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E49" s="51">
         <v>1.9</v>
@@ -5887,11 +6372,11 @@
         <v>1</v>
       </c>
       <c r="H49" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
       <c r="I49" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J49" s="19" t="s">
@@ -5911,7 +6396,7 @@
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="O49" s="77" t="s">
+      <c r="O49" s="75" t="s">
         <v>93</v>
       </c>
       <c r="P49" s="19" t="s">
@@ -5931,7 +6416,7 @@
         <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
-      <c r="U49" s="77" t="s">
+      <c r="U49" s="75" t="s">
         <v>71</v>
       </c>
       <c r="V49" s="19">
@@ -5951,11 +6436,21 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA49" s="77" t="s">
+      <c r="AA49" s="75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="AB49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="17">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="AD49" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -5982,7 +6477,7 @@
         <f>SUM(N2:N49)</f>
         <v>102.90000000000003</v>
       </c>
-      <c r="O50" s="78"/>
+      <c r="O50" s="76"/>
       <c r="P50" s="31" t="s">
         <v>60</v>
       </c>
@@ -5998,7 +6493,7 @@
         <f>SUM(T2:T49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="U50" s="78"/>
+      <c r="U50" s="76"/>
       <c r="V50" s="31" t="s">
         <v>60</v>
       </c>
@@ -6006,7 +6501,7 @@
         <f>SUM(W2:W49)</f>
         <v>74.700000000000017</v>
       </c>
-      <c r="X50" s="94"/>
+      <c r="X50" s="92"/>
       <c r="Y50" s="36" t="s">
         <v>60</v>
       </c>
@@ -6014,9 +6509,17 @@
         <f>SUM(Z2:Z49)</f>
         <v>54.499999999999993</v>
       </c>
-      <c r="AA50" s="78"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AA50" s="76"/>
+      <c r="AB50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC50" s="20">
+        <f>SUM(AC2:AC49)</f>
+        <v>61.699999999999996</v>
+      </c>
+      <c r="AD50" s="92"/>
+    </row>
+    <row r="51" spans="1:30" ht="15.75" customHeight="1">
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -6037,7 +6540,7 @@
         <f>COUNTIF(N2:N49,1)</f>
         <v>23</v>
       </c>
-      <c r="O51" s="79"/>
+      <c r="O51" s="77"/>
       <c r="P51" s="39" t="s">
         <v>62</v>
       </c>
@@ -6053,7 +6556,7 @@
         <f>COUNTIF(T2:T49,1)</f>
         <v>31</v>
       </c>
-      <c r="U51" s="79"/>
+      <c r="U51" s="77"/>
       <c r="V51" s="39" t="s">
         <v>62</v>
       </c>
@@ -6061,7 +6564,7 @@
         <f>COUNTIF(W2:W49,1)</f>
         <v>28</v>
       </c>
-      <c r="X51" s="95"/>
+      <c r="X51" s="93"/>
       <c r="Y51" s="41" t="s">
         <v>62</v>
       </c>
@@ -6069,9 +6572,17 @@
         <f>COUNTIF(Z2:Z49,1)</f>
         <v>33</v>
       </c>
-      <c r="AA51" s="79"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="AA51" s="77"/>
+      <c r="AB51" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC51" s="38">
+        <f>COUNTIF(AC2:AC49,1)</f>
+        <v>32</v>
+      </c>
+      <c r="AD51" s="93"/>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
       <c r="J52" s="32" t="s">
         <v>61</v>
       </c>
@@ -6087,7 +6598,7 @@
         <f>1-(-$I$50+N50)/($H$50-$I$50)</f>
         <v>0.72425916624811637</v>
       </c>
-      <c r="O52" s="80"/>
+      <c r="O52" s="78"/>
       <c r="P52" s="32" t="s">
         <v>61</v>
       </c>
@@ -6103,7 +6614,7 @@
         <f>1-(-$I$50+T50)/($H$50-$I$50)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="U52" s="80"/>
+      <c r="U52" s="78"/>
       <c r="V52" s="32" t="s">
         <v>61</v>
       </c>
@@ -6111,7 +6622,7 @@
         <f>1-(-$I$50+W50)/($H$50-$I$50)</f>
         <v>0.86589653440482162</v>
       </c>
-      <c r="X52" s="96"/>
+      <c r="X52" s="94"/>
       <c r="Y52" s="37" t="s">
         <v>61</v>
       </c>
@@ -6119,20 +6630,28 @@
         <f>1-(-$I$50+Z50)/($H$50-$I$50)</f>
         <v>0.96735308890005023</v>
       </c>
-      <c r="AA52" s="80"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1"/>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC52" s="21">
+        <f>1-(-$I$50+AC50)/($H$50-$I$50)</f>
+        <v>0.93119035660472127</v>
+      </c>
+      <c r="AD52" s="94"/>
+    </row>
+    <row r="53" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -6912,14 +7431,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="74"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="97">
   <si>
     <t>Resultat</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Philip</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,6 +1153,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1470,33 +1488,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD823"/>
+  <dimension ref="A1:AE823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="90"/>
-    <col min="24" max="24" width="14.42578125" style="90"/>
-    <col min="27" max="27" width="14.42578125" style="90"/>
-    <col min="30" max="30" width="14.42578125" style="90"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="79" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="90"/>
+    <col min="25" max="25" width="14.42578125" style="90"/>
+    <col min="28" max="28" width="14.42578125" style="90"/>
+    <col min="31" max="31" width="14.42578125" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
@@ -1506,103 +1526,106 @@
       <c r="C1" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="15">
-        <v>1</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="15">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15">
-        <v>2</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="15">
+        <v>2</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="45" t="str">
-        <f>CONCATENATE(J1, "_Odds")</f>
+      <c r="L1" s="45" t="str">
+        <f>CONCATENATE(K1, "_Odds")</f>
         <v>Niklas_Odds</v>
       </c>
-      <c r="L1" s="71" t="str">
-        <f>CONCATENATE(J1, "_Resultat")</f>
+      <c r="M1" s="71" t="str">
+        <f>CONCATENATE(K1, "_Resultat")</f>
         <v>Niklas_Resultat</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="63" t="str">
-        <f>CONCATENATE(M1, "_Odds")</f>
+      <c r="O1" s="63" t="str">
+        <f>CONCATENATE(N1, "_Odds")</f>
         <v>Alex_Odds</v>
       </c>
-      <c r="O1" s="74" t="str">
-        <f>CONCATENATE(M1, "_Resultat")</f>
+      <c r="P1" s="74" t="str">
+        <f>CONCATENATE(N1, "_Resultat")</f>
         <v>Alex_Resultat</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="45" t="str">
-        <f>CONCATENATE(P1, "_Odds")</f>
+      <c r="R1" s="45" t="str">
+        <f>CONCATENATE(Q1, "_Odds")</f>
         <v>Douglas_Odds</v>
       </c>
-      <c r="R1" s="71" t="str">
-        <f>CONCATENATE(P1, "_Resultat")</f>
+      <c r="S1" s="71" t="str">
+        <f>CONCATENATE(Q1, "_Resultat")</f>
         <v>Douglas_Resultat</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="T1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="63" t="str">
-        <f>CONCATENATE(S1, "_Odds")</f>
+      <c r="U1" s="63" t="str">
+        <f>CONCATENATE(T1, "_Odds")</f>
         <v>Patrik_Odds</v>
       </c>
-      <c r="U1" s="74" t="str">
-        <f>CONCATENATE(S1, "_Resultat")</f>
+      <c r="V1" s="74" t="str">
+        <f>CONCATENATE(T1, "_Resultat")</f>
         <v>Patrik_Resultat</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="W1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="45" t="str">
-        <f>CONCATENATE(V1, "_Odds")</f>
+      <c r="X1" s="45" t="str">
+        <f>CONCATENATE(W1, "_Odds")</f>
         <v>Jenny_Odds</v>
       </c>
-      <c r="X1" s="91" t="str">
-        <f>CONCATENATE(V1, "_Resultat")</f>
+      <c r="Y1" s="91" t="str">
+        <f>CONCATENATE(W1, "_Resultat")</f>
         <v>Jenny_Resultat</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Z1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="63" t="str">
-        <f>CONCATENATE(Y1, "_Odds")</f>
+      <c r="AA1" s="63" t="str">
+        <f>CONCATENATE(Z1, "_Odds")</f>
         <v>Petra_Odds</v>
       </c>
-      <c r="AA1" s="74" t="str">
-        <f>CONCATENATE(Y1, "_Resultat")</f>
+      <c r="AB1" s="74" t="str">
+        <f>CONCATENATE(Z1, "_Resultat")</f>
         <v>Petra_Resultat</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC1" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="45" t="str">
-        <f>CONCATENATE(AB1, "_Odds")</f>
+      <c r="AD1" s="45" t="str">
+        <f>CONCATENATE(AC1, "_Odds")</f>
         <v>Philip_Odds</v>
       </c>
-      <c r="AD1" s="91" t="str">
-        <f>CONCATENATE(AB1, "_Resultat")</f>
+      <c r="AE1" s="91" t="str">
+        <f>CONCATENATE(AC1, "_Resultat")</f>
         <v>Philip_Resultat</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1612,98 +1635,101 @@
       <c r="C2" s="53">
         <v>43265</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="99">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E2" s="50">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="F2" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27">
         <v>3.2</v>
       </c>
-      <c r="G2" s="27">
+      <c r="H2" s="27">
         <v>7.4</v>
       </c>
-      <c r="H2" s="29">
-        <f t="shared" ref="H2:H3" si="0">MAX(E2:G2)</f>
+      <c r="I2" s="29">
+        <f t="shared" ref="I2:I3" si="0">MAX(F2:H2)</f>
         <v>7.4</v>
       </c>
-      <c r="I2" s="29">
-        <f>MIN(E2:G2)</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="J2" s="29">
+        <f>MIN(F2:H2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="17">
-        <f t="shared" ref="K2:K49" si="1">_xlfn.IFS(J2=1,$E2,J2="x",$F2,J2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17">
+        <f t="shared" ref="L2:L49" si="1">_xlfn.IFS(K2=1,$F2,K2="x",$G2,K2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
       <c r="N2" s="22">
-        <f t="shared" ref="N2:N49" si="2">_xlfn.IFS(M2=1,$E2,M2="x",$F2,M2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="22">
+        <f t="shared" ref="O2:O49" si="2">_xlfn.IFS(N2=1,$F2,N2="x",$G2,N2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="17">
-        <v>1</v>
-      </c>
       <c r="Q2" s="17">
-        <f t="shared" ref="Q2:Q49" si="3">_xlfn.IFS(P2=1,$E2,P2="x",$F2,P2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17">
+        <f t="shared" ref="R2:R49" si="3">_xlfn.IFS(Q2=1,$F2,Q2="x",$G2,Q2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="22">
-        <v>1</v>
-      </c>
       <c r="T2" s="22">
-        <f t="shared" ref="T2:T49" si="4">_xlfn.IFS(S2=1,$E2,S2="x",$F2,S2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <f t="shared" ref="U2:U49" si="4">_xlfn.IFS(T2=1,$F2,T2="x",$G2,T2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="17">
-        <v>1</v>
-      </c>
       <c r="W2" s="17">
-        <f t="shared" ref="W2:W49" si="5">_xlfn.IFS(V2=1,$E2,V2="x",$F2,V2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="X2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="17">
+        <f t="shared" ref="X2:X49" si="5">_xlfn.IFS(W2=1,$F2,W2="x",$G2,W2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="22">
-        <v>1</v>
-      </c>
       <c r="Z2" s="22">
-        <f t="shared" ref="Z2:Z49" si="6">_xlfn.IFS(Y2=1,$E2,Y2="x",$F2,Y2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="22">
+        <f t="shared" ref="AA2:AA49" si="6">_xlfn.IFS(Z2=1,$F2,Z2="x",$G2,Z2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AB2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="17">
-        <v>1</v>
-      </c>
       <c r="AC2" s="17">
-        <f t="shared" ref="AC2:AC49" si="7">_xlfn.IFS(AB2=1,$E2,AB2="x",$F2,AB2=2,$G2)</f>
-        <v>1</v>
-      </c>
-      <c r="AD2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="17">
+        <f t="shared" ref="AD2:AD49" si="7">_xlfn.IFS(AC2=1,$F2,AC2="x",$G2,AC2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75">
+    <row r="3" spans="1:31" ht="15.75">
       <c r="A3" s="57" t="s">
         <v>11</v>
       </c>
@@ -1713,98 +1739,101 @@
       <c r="C3" s="59">
         <v>43266</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="100">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="51">
+      <c r="F3" s="51">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F3" s="28">
+      <c r="G3" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G3" s="28">
-        <v>1</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
+        <v>1</v>
+      </c>
+      <c r="I3" s="30">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="I3" s="30">
-        <f t="shared" ref="I3" si="8">MIN(E3:G3)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>2</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="J3" s="30">
+        <f t="shared" ref="J3" si="8">MIN(F3:H3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="M3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="22">
+      <c r="O3" s="22">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="P3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="17">
         <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="R3" s="65" t="s">
+      <c r="S3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="22">
+      <c r="U3" s="22">
         <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="V3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="18">
-        <v>2</v>
-      </c>
-      <c r="W3" s="17">
+      <c r="W3" s="18">
+        <v>2</v>
+      </c>
+      <c r="X3" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X3" s="65" t="s">
+      <c r="Y3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA3" s="72" t="s">
+      <c r="AB3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD3" s="65" t="s">
+      <c r="AE3" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75">
+    <row r="4" spans="1:31" ht="15.75">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -1814,98 +1843,101 @@
       <c r="C4" s="59">
         <v>43266</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="100">
+        <v>3</v>
+      </c>
+      <c r="E4" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E4" s="51">
+      <c r="F4" s="51">
         <v>2.5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="G4" s="28">
         <v>1.8</v>
       </c>
-      <c r="G4" s="28">
-        <v>1</v>
-      </c>
-      <c r="H4" s="30">
-        <f t="shared" ref="H4:H49" si="9">MAX(E4:G4)</f>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" ref="I4:I49" si="9">MAX(F4:H4)</f>
         <v>2.5</v>
       </c>
-      <c r="I4" s="30">
-        <f t="shared" ref="I4:I49" si="10">MIN(E4:G4)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="30">
+        <f t="shared" ref="J4:J49" si="10">MIN(F4:H4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="M4" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="23">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
+        <v>1</v>
+      </c>
+      <c r="O4" s="22">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="P4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="R4" s="17">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="S4" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="22">
+      <c r="U4" s="22">
         <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="U4" s="72" t="s">
+      <c r="V4" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="18">
-        <v>2</v>
-      </c>
-      <c r="W4" s="17">
+      <c r="W4" s="18">
+        <v>2</v>
+      </c>
+      <c r="X4" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X4" s="65" t="s">
+      <c r="Y4" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Z4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="AA4" s="22">
         <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AB4" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="17">
+      <c r="AC4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="17">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="AD4" s="65" t="s">
+      <c r="AE4" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75">
+    <row r="5" spans="1:31" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
@@ -1915,98 +1947,101 @@
       <c r="C5" s="59">
         <v>43266</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="100">
+        <v>4</v>
+      </c>
+      <c r="E5" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E5" s="51">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="F5" s="51">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
         <v>1.3</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="28">
         <v>1.6</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I5" s="30">
         <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
-      <c r="I5" s="30">
+      <c r="J5" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="M5" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="22">
+      <c r="O5" s="22">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="P5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="P5" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="18">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="S5" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="23">
-        <v>2</v>
-      </c>
-      <c r="T5" s="22">
+      <c r="T5" s="23">
+        <v>2</v>
+      </c>
+      <c r="U5" s="22">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="V5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="17">
+      <c r="X5" s="17">
         <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="X5" s="65" t="s">
+      <c r="Y5" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="22">
         <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
-      <c r="AA5" s="75" t="s">
+      <c r="AB5" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AD5" s="17">
         <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
-      <c r="AD5" s="65" t="s">
+      <c r="AE5" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2016,98 +2051,101 @@
       <c r="C6" s="52">
         <v>43267</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="101">
+        <v>5</v>
+      </c>
+      <c r="E6" s="56">
         <v>0.5</v>
       </c>
-      <c r="E6" s="51">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
         <v>5.5</v>
       </c>
-      <c r="G6" s="28">
+      <c r="H6" s="28">
         <v>13.4</v>
       </c>
-      <c r="H6" s="30">
+      <c r="I6" s="30">
         <f t="shared" si="9"/>
         <v>13.4</v>
       </c>
-      <c r="I6" s="30">
+      <c r="J6" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="M6" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="23">
-        <v>1</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
+        <v>1</v>
+      </c>
+      <c r="O6" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="P6" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="S6" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="23">
-        <v>1</v>
-      </c>
-      <c r="T6" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="72" t="s">
+      <c r="T6" s="23">
+        <v>1</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="18">
-        <v>1</v>
-      </c>
-      <c r="W6" s="17">
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X6" s="65" t="s">
+      <c r="Y6" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="Y6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="72" t="s">
+      <c r="AB6" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="17">
+      <c r="AC6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="65" t="s">
+      <c r="AE6" s="65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2117,98 +2155,101 @@
       <c r="C7" s="52">
         <v>43267</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="101">
+        <v>6</v>
+      </c>
+      <c r="E7" s="56">
         <v>0.75</v>
       </c>
-      <c r="E7" s="51">
+      <c r="F7" s="51">
         <v>1.3</v>
       </c>
-      <c r="F7" s="28">
+      <c r="G7" s="28">
         <v>1.3</v>
       </c>
-      <c r="G7" s="28">
-        <v>1</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="I7" s="30">
+      <c r="J7" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J7" s="18">
-        <v>2</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="M7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="23">
-        <v>2</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="N7" s="23">
+        <v>2</v>
+      </c>
+      <c r="O7" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O7" s="72" t="s">
+      <c r="P7" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="18">
+        <v>2</v>
+      </c>
+      <c r="R7" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="S7" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="23">
-        <v>2</v>
-      </c>
-      <c r="T7" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="72" t="s">
+      <c r="T7" s="23">
+        <v>2</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="V7" s="18">
-        <v>2</v>
-      </c>
-      <c r="W7" s="17">
+      <c r="W7" s="18">
+        <v>2</v>
+      </c>
+      <c r="X7" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="Y7" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="22">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="AA7" s="72" t="s">
+      <c r="AB7" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AB7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="65" t="s">
+      <c r="AE7" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2218,98 +2259,101 @@
       <c r="C8" s="52">
         <v>43267</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="101">
+        <v>7</v>
+      </c>
+      <c r="E8" s="56">
         <v>0.625</v>
       </c>
-      <c r="E8" s="51">
-        <v>1</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="F8" s="51">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
         <v>3.7</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <v>9</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="30">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="I8" s="30">
+      <c r="J8" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="M8" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="23">
-        <v>2</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="N8" s="23">
+        <v>2</v>
+      </c>
+      <c r="O8" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O8" s="72" t="s">
+      <c r="P8" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="S8" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="23">
-        <v>1</v>
-      </c>
-      <c r="T8" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="72" t="s">
+      <c r="T8" s="23">
+        <v>1</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="18">
-        <v>2</v>
-      </c>
-      <c r="W8" s="17">
+      <c r="W8" s="18">
+        <v>2</v>
+      </c>
+      <c r="X8" s="17">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="X8" s="65" t="s">
+      <c r="Y8" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="72" t="s">
+      <c r="AB8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB8" s="18" t="s">
+      <c r="AC8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AD8" s="17">
         <f t="shared" si="7"/>
         <v>3.7</v>
       </c>
-      <c r="AD8" s="65" t="s">
+      <c r="AE8" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2319,98 +2363,101 @@
       <c r="C9" s="52">
         <v>43267</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="101">
+        <v>8</v>
+      </c>
+      <c r="E9" s="56">
         <v>0.875</v>
       </c>
-      <c r="E9" s="51">
+      <c r="F9" s="51">
         <v>1.5</v>
       </c>
-      <c r="F9" s="28">
-        <v>1</v>
-      </c>
       <c r="G9" s="28">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28">
         <v>1.5</v>
       </c>
-      <c r="H9" s="30">
+      <c r="I9" s="30">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="30">
+      <c r="J9" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="M9" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="23">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
+      <c r="N9" s="23">
+        <v>1</v>
+      </c>
+      <c r="O9" s="22">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="P9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="Q9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="R9" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="S9" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="23">
-        <v>2</v>
-      </c>
-      <c r="T9" s="22">
+      <c r="T9" s="23">
+        <v>2</v>
+      </c>
+      <c r="U9" s="22">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="U9" s="75" t="s">
+      <c r="V9" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="18">
-        <v>1</v>
-      </c>
-      <c r="W9" s="17">
+      <c r="W9" s="18">
+        <v>1</v>
+      </c>
+      <c r="X9" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="X9" s="65" t="s">
+      <c r="Y9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="Y9" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="22">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="AA9" s="75" t="s">
+      <c r="AB9" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AB9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="17">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="AD9" s="65" t="s">
+      <c r="AE9" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75">
+    <row r="10" spans="1:31" ht="15.75">
       <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
@@ -2420,98 +2467,101 @@
       <c r="C10" s="59">
         <v>43268</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="100">
+        <v>9</v>
+      </c>
+      <c r="E10" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E10" s="51">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="F10" s="51">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
         <v>3.4</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>7.1</v>
       </c>
-      <c r="H10" s="30">
+      <c r="I10" s="30">
         <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
-      <c r="I10" s="30">
+      <c r="J10" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="M10" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="23">
-        <v>1</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="N10" s="23">
+        <v>1</v>
+      </c>
+      <c r="O10" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O10" s="72" t="s">
+      <c r="P10" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="18">
+        <v>1</v>
+      </c>
+      <c r="R10" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="S10" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="23">
-        <v>1</v>
-      </c>
-      <c r="T10" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="72" t="s">
+      <c r="T10" s="23">
+        <v>1</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="18">
-        <v>1</v>
-      </c>
-      <c r="W10" s="17">
+      <c r="W10" s="18">
+        <v>1</v>
+      </c>
+      <c r="X10" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X10" s="65" t="s">
+      <c r="Y10" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="Y10" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA10" s="72" t="s">
+      <c r="AB10" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="65" t="s">
+      <c r="AE10" s="65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75">
+    <row r="11" spans="1:31" ht="15.75">
       <c r="A11" s="57" t="s">
         <v>25</v>
       </c>
@@ -2521,98 +2571,101 @@
       <c r="C11" s="59">
         <v>43268</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="100">
+        <v>10</v>
+      </c>
+      <c r="E11" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E11" s="51">
+      <c r="F11" s="51">
         <v>2.4</v>
       </c>
-      <c r="F11" s="28">
+      <c r="G11" s="28">
         <v>1.7</v>
       </c>
-      <c r="G11" s="28">
-        <v>1</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
         <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="J11" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J11" s="18">
-        <v>2</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="M11" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="22">
+      <c r="O11" s="22">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="O11" s="72" t="s">
+      <c r="P11" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="Q11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="R11" s="17">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="R11" s="65" t="s">
+      <c r="S11" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="23">
-        <v>1</v>
-      </c>
-      <c r="T11" s="22">
+      <c r="T11" s="23">
+        <v>1</v>
+      </c>
+      <c r="U11" s="22">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="U11" s="72" t="s">
+      <c r="V11" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="W11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="17">
+      <c r="X11" s="17">
         <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
-      <c r="X11" s="65" t="s">
+      <c r="Y11" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Z11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="AA11" s="22">
         <f t="shared" si="6"/>
         <v>1.7</v>
       </c>
-      <c r="AA11" s="72" t="s">
+      <c r="AB11" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AB11" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD11" s="65" t="s">
+      <c r="AE11" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75">
+    <row r="12" spans="1:31" ht="15.75">
       <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
@@ -2622,98 +2675,101 @@
       <c r="C12" s="59">
         <v>43268</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="100">
+        <v>11</v>
+      </c>
+      <c r="E12" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E12" s="51">
-        <v>1</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="F12" s="51">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
         <v>3</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <v>5.2</v>
       </c>
-      <c r="H12" s="30">
+      <c r="I12" s="30">
         <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="J12" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="M12" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="23">
-        <v>1</v>
-      </c>
-      <c r="N12" s="22">
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="P12" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="18">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R12" s="65" t="s">
+      <c r="S12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="S12" s="23">
-        <v>1</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="72" t="s">
+      <c r="T12" s="23">
+        <v>1</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="V12" s="18">
-        <v>1</v>
-      </c>
-      <c r="W12" s="17">
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X12" s="65" t="s">
+      <c r="Y12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="Y12" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="72" t="s">
+      <c r="AB12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AB12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD12" s="65" t="s">
+      <c r="AE12" s="65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2723,98 +2779,101 @@
       <c r="C13" s="52">
         <v>43269</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="101">
+        <v>12</v>
+      </c>
+      <c r="E13" s="56">
         <v>0.58333333333333404</v>
       </c>
-      <c r="E13" s="51">
-        <v>1</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="F13" s="51">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
         <v>1.6</v>
       </c>
-      <c r="G13" s="28">
-        <v>2</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="H13" s="28">
+        <v>2</v>
+      </c>
+      <c r="I13" s="30">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I13" s="30">
+      <c r="J13" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="M13" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="23">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
+      <c r="N13" s="23">
+        <v>1</v>
+      </c>
+      <c r="O13" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="P13" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="Q13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="R13" s="17">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="R13" s="65" t="s">
+      <c r="S13" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="T13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="22">
+      <c r="U13" s="22">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U13" s="75" t="s">
+      <c r="V13" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="W13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W13" s="17">
+      <c r="X13" s="17">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="X13" s="65" t="s">
+      <c r="Y13" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="75" t="s">
+      <c r="AB13" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD13" s="65" t="s">
+      <c r="AE13" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -2824,98 +2883,101 @@
       <c r="C14" s="52">
         <v>43269</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="101">
+        <v>13</v>
+      </c>
+      <c r="E14" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E14" s="51">
-        <v>1</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="F14" s="51">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
         <v>6.7</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14" s="28">
         <v>18.600000000000001</v>
       </c>
-      <c r="H14" s="30">
+      <c r="I14" s="30">
         <f t="shared" si="9"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="I14" s="30">
+      <c r="J14" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J14" s="18">
-        <v>1</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="M14" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="23">
-        <v>2</v>
-      </c>
-      <c r="N14" s="22">
+      <c r="N14" s="23">
+        <v>2</v>
+      </c>
+      <c r="O14" s="22">
         <f t="shared" si="2"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="O14" s="72" t="s">
+      <c r="P14" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="18">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R14" s="65" t="s">
+      <c r="S14" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="23">
-        <v>1</v>
-      </c>
-      <c r="T14" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="72" t="s">
+      <c r="T14" s="23">
+        <v>1</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="V14" s="18">
-        <v>1</v>
-      </c>
-      <c r="W14" s="17">
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X14" s="65" t="s">
+      <c r="Y14" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="Y14" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA14" s="72" t="s">
+      <c r="AB14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB14" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="17">
+      <c r="AC14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD14" s="65" t="s">
+      <c r="AE14" s="65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2925,98 +2987,101 @@
       <c r="C15" s="52">
         <v>43269</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="101">
+        <v>14</v>
+      </c>
+      <c r="E15" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E15" s="51">
+      <c r="F15" s="51">
         <v>7.1</v>
       </c>
-      <c r="F15" s="28">
+      <c r="G15" s="28">
         <v>3.4</v>
       </c>
-      <c r="G15" s="28">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
         <f t="shared" si="9"/>
         <v>7.1</v>
       </c>
-      <c r="I15" s="30">
+      <c r="J15" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="M15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="23">
-        <v>2</v>
-      </c>
-      <c r="N15" s="22">
+      <c r="N15" s="23">
+        <v>2</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O15" s="72" t="s">
+      <c r="P15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="18">
+        <v>2</v>
+      </c>
+      <c r="R15" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R15" s="65" t="s">
+      <c r="S15" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="T15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="22">
+      <c r="U15" s="22">
         <f t="shared" si="4"/>
         <v>3.4</v>
       </c>
-      <c r="U15" s="72" t="s">
+      <c r="V15" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="V15" s="18">
-        <v>2</v>
-      </c>
-      <c r="W15" s="17">
+      <c r="W15" s="18">
+        <v>2</v>
+      </c>
+      <c r="X15" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X15" s="65" t="s">
+      <c r="Y15" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA15" s="72" t="s">
+      <c r="AB15" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="AB15" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="17">
+      <c r="AC15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="65" t="s">
+      <c r="AE15" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75">
+    <row r="16" spans="1:31" ht="15.75">
       <c r="A16" s="57" t="s">
         <v>39</v>
       </c>
@@ -3026,98 +3091,101 @@
       <c r="C16" s="59">
         <v>43270</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="100">
+        <v>15</v>
+      </c>
+      <c r="E16" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E16" s="51">
-        <v>1</v>
-      </c>
-      <c r="F16" s="28">
-        <v>1.4</v>
+      <c r="F16" s="51">
+        <v>1</v>
       </c>
       <c r="G16" s="28">
         <v>1.4</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="I16" s="30">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I16" s="30">
+      <c r="J16" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J16" s="18">
-        <v>1</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="M16" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="23">
-        <v>1</v>
-      </c>
-      <c r="N16" s="22">
+      <c r="N16" s="23">
+        <v>1</v>
+      </c>
+      <c r="O16" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="P16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="18">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R16" s="65" t="s">
+      <c r="S16" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="23">
-        <v>1</v>
-      </c>
-      <c r="T16" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="72" t="s">
+      <c r="T16" s="23">
+        <v>1</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="V16" s="18">
-        <v>1</v>
-      </c>
-      <c r="W16" s="17">
+      <c r="W16" s="18">
+        <v>1</v>
+      </c>
+      <c r="X16" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X16" s="65" t="s">
+      <c r="Y16" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="Y16" s="23" t="s">
+      <c r="Z16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z16" s="22">
+      <c r="AA16" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AA16" s="72" t="s">
+      <c r="AB16" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AB16" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="17">
+      <c r="AC16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="65" t="s">
+      <c r="AE16" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75">
+    <row r="17" spans="1:31" ht="15.75">
       <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
@@ -3127,98 +3195,101 @@
       <c r="C17" s="59">
         <v>43270</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="100">
+        <v>16</v>
+      </c>
+      <c r="E17" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E17" s="51">
-        <v>1</v>
-      </c>
-      <c r="F17" s="28">
+      <c r="F17" s="51">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G17" s="28">
+      <c r="H17" s="28">
         <v>3.4</v>
       </c>
-      <c r="H17" s="30">
+      <c r="I17" s="30">
         <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
-      <c r="I17" s="30">
+      <c r="J17" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="M17" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="N17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="22">
+      <c r="O17" s="22">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O17" s="75" t="s">
+      <c r="P17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="Q17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="R17" s="17">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="R17" s="65" t="s">
+      <c r="S17" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="T17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="22">
+      <c r="U17" s="22">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U17" s="75" t="s">
+      <c r="V17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="W17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="17">
+      <c r="X17" s="17">
         <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="X17" s="65" t="s">
+      <c r="Y17" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Y17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA17" s="75" t="s">
+      <c r="AB17" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB17" s="18" t="s">
+      <c r="AC17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="17">
+      <c r="AD17" s="17">
         <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD17" s="65" t="s">
+      <c r="AE17" s="65" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="89" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:31" s="89" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="81" t="s">
         <v>9</v>
       </c>
@@ -3228,98 +3299,101 @@
       <c r="C18" s="83">
         <v>43270</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="102">
+        <v>17</v>
+      </c>
+      <c r="E18" s="84">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E18" s="85">
-        <v>1</v>
-      </c>
-      <c r="F18" s="86">
+      <c r="F18" s="85">
+        <v>1</v>
+      </c>
+      <c r="G18" s="86">
         <v>1.6</v>
       </c>
-      <c r="G18" s="86">
+      <c r="H18" s="86">
         <v>1.9</v>
       </c>
-      <c r="H18" s="86">
+      <c r="I18" s="86">
         <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="I18" s="86">
+      <c r="J18" s="86">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J18" s="86">
-        <v>1</v>
-      </c>
-      <c r="K18" s="87">
+      <c r="K18" s="86">
+        <v>1</v>
+      </c>
+      <c r="L18" s="87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="88" t="s">
+      <c r="M18" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="86">
-        <v>2</v>
-      </c>
-      <c r="N18" s="87">
+      <c r="N18" s="86">
+        <v>2</v>
+      </c>
+      <c r="O18" s="87">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="O18" s="88" t="s">
+      <c r="P18" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="86">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="87">
+      <c r="Q18" s="86">
+        <v>2</v>
+      </c>
+      <c r="R18" s="87">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="R18" s="88" t="s">
+      <c r="S18" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="86" t="s">
+      <c r="T18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="87">
+      <c r="U18" s="87">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="U18" s="88" t="s">
+      <c r="V18" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="V18" s="86">
-        <v>1</v>
-      </c>
-      <c r="W18" s="87">
+      <c r="W18" s="86">
+        <v>1</v>
+      </c>
+      <c r="X18" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X18" s="88" t="s">
+      <c r="Y18" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Y18" s="86">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="87">
+      <c r="Z18" s="86">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="87">
         <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
-      <c r="AA18" s="88" t="s">
+      <c r="AB18" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="AB18" s="86" t="s">
+      <c r="AC18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="87">
+      <c r="AD18" s="87">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
-      <c r="AD18" s="88" t="s">
+      <c r="AE18" s="88" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1">
+    <row r="19" spans="1:31" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3329,98 +3403,101 @@
       <c r="C19" s="52">
         <v>43271</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="101">
+        <v>18</v>
+      </c>
+      <c r="E19" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E19" s="51">
-        <v>1</v>
-      </c>
-      <c r="F19" s="28">
+      <c r="F19" s="51">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28">
         <v>5.3</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H19" s="28">
         <v>15.4</v>
       </c>
-      <c r="H19" s="30">
+      <c r="I19" s="30">
         <f t="shared" si="9"/>
         <v>15.4</v>
       </c>
-      <c r="I19" s="30">
+      <c r="J19" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J19" s="18">
-        <v>1</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="M19" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="23">
-        <v>1</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="N19" s="23">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="72" t="s">
+      <c r="P19" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="Q19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="R19" s="17">
         <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="R19" s="65" t="s">
+      <c r="S19" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="T19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="22">
+      <c r="U19" s="22">
         <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
-      <c r="U19" s="72" t="s">
+      <c r="V19" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="18">
-        <v>1</v>
-      </c>
-      <c r="W19" s="17">
+      <c r="W19" s="18">
+        <v>1</v>
+      </c>
+      <c r="X19" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X19" s="65" t="s">
+      <c r="Y19" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="Y19" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="22">
+      <c r="Z19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA19" s="72" t="s">
+      <c r="AB19" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB19" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="17">
+      <c r="AC19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD19" s="65" t="s">
+      <c r="AE19" s="65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -3430,98 +3507,101 @@
       <c r="C20" s="52">
         <v>43271</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="101">
+        <v>19</v>
+      </c>
+      <c r="E20" s="56">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E20" s="51">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28">
+      <c r="F20" s="51">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G20" s="28">
+      <c r="H20" s="28">
         <v>4</v>
       </c>
-      <c r="H20" s="30">
+      <c r="I20" s="30">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="I20" s="30">
+      <c r="J20" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J20" s="18">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="M20" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="23">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="N20" s="23">
+        <v>1</v>
+      </c>
+      <c r="O20" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="72" t="s">
+      <c r="P20" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="P20" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="18">
+        <v>1</v>
+      </c>
+      <c r="R20" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R20" s="65" t="s">
+      <c r="S20" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S20" s="23">
-        <v>1</v>
-      </c>
-      <c r="T20" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="72" t="s">
+      <c r="T20" s="23">
+        <v>1</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="V20" s="18">
-        <v>1</v>
-      </c>
-      <c r="W20" s="17">
+      <c r="W20" s="18">
+        <v>1</v>
+      </c>
+      <c r="X20" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X20" s="65" t="s">
+      <c r="Y20" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="22">
+      <c r="Z20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA20" s="72" t="s">
+      <c r="AB20" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB20" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="17">
+      <c r="AC20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD20" s="65" t="s">
+      <c r="AE20" s="65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -3531,98 +3611,101 @@
       <c r="C21" s="52">
         <v>43271</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="101">
+        <v>20</v>
+      </c>
+      <c r="E21" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E21" s="51">
+      <c r="F21" s="51">
         <v>17.2</v>
       </c>
-      <c r="F21" s="28">
+      <c r="G21" s="28">
         <v>5.5</v>
       </c>
-      <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
+        <v>1</v>
+      </c>
+      <c r="I21" s="30">
         <f t="shared" si="9"/>
         <v>17.2</v>
       </c>
-      <c r="I21" s="30">
+      <c r="J21" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J21" s="18">
-        <v>2</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="K21" s="18">
+        <v>2</v>
+      </c>
+      <c r="L21" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="M21" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="23">
-        <v>2</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="N21" s="23">
+        <v>2</v>
+      </c>
+      <c r="O21" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="P21" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="18">
+        <v>2</v>
+      </c>
+      <c r="R21" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R21" s="65" t="s">
+      <c r="S21" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="S21" s="23">
-        <v>2</v>
-      </c>
-      <c r="T21" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="75" t="s">
+      <c r="T21" s="23">
+        <v>2</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="V21" s="18">
-        <v>2</v>
-      </c>
-      <c r="W21" s="17">
+      <c r="W21" s="18">
+        <v>2</v>
+      </c>
+      <c r="X21" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X21" s="65" t="s">
+      <c r="Y21" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="Y21" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="22">
+      <c r="Z21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA21" s="75" t="s">
+      <c r="AB21" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="AB21" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD21" s="65" t="s">
+      <c r="AE21" s="65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1">
       <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
@@ -3632,98 +3715,101 @@
       <c r="C22" s="59">
         <v>43272</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="100">
+        <v>21</v>
+      </c>
+      <c r="E22" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E22" s="51">
-        <v>1</v>
-      </c>
-      <c r="F22" s="28">
+      <c r="F22" s="51">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28">
         <v>3.4</v>
       </c>
-      <c r="G22" s="28">
+      <c r="H22" s="28">
         <v>5.7</v>
       </c>
-      <c r="H22" s="30">
+      <c r="I22" s="30">
         <f t="shared" si="9"/>
         <v>5.7</v>
       </c>
-      <c r="I22" s="30">
+      <c r="J22" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J22" s="18">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="K22" s="18">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="M22" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="23">
-        <v>2</v>
-      </c>
-      <c r="N22" s="22">
+      <c r="N22" s="23">
+        <v>2</v>
+      </c>
+      <c r="O22" s="22">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="O22" s="72" t="s">
+      <c r="P22" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="18">
+        <v>1</v>
+      </c>
+      <c r="R22" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R22" s="65" t="s">
+      <c r="S22" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="23">
-        <v>1</v>
-      </c>
-      <c r="T22" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="72" t="s">
+      <c r="T22" s="23">
+        <v>1</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="W22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="17">
+      <c r="X22" s="17">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="X22" s="65" t="s">
+      <c r="Y22" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="Y22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA22" s="72" t="s">
+      <c r="AB22" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="AB22" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="17">
+      <c r="AC22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD22" s="65" t="s">
+      <c r="AE22" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1">
       <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
@@ -3733,98 +3819,101 @@
       <c r="C23" s="59">
         <v>43272</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="100">
+        <v>22</v>
+      </c>
+      <c r="E23" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E23" s="51">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="F23" s="51">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G23" s="28">
+      <c r="H23" s="28">
         <v>3.2</v>
       </c>
-      <c r="H23" s="30">
+      <c r="I23" s="30">
         <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
-      <c r="I23" s="30">
+      <c r="J23" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J23" s="18">
-        <v>1</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="M23" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="22">
+      <c r="N23" s="23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23" s="72" t="s">
+      <c r="P23" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="18">
+        <v>1</v>
+      </c>
+      <c r="R23" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R23" s="65" t="s">
+      <c r="S23" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="T23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="22">
+      <c r="U23" s="22">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U23" s="72" t="s">
+      <c r="V23" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V23" s="18">
-        <v>1</v>
-      </c>
-      <c r="W23" s="17">
+      <c r="W23" s="18">
+        <v>1</v>
+      </c>
+      <c r="X23" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X23" s="65" t="s">
+      <c r="Y23" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="Y23" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="22">
+      <c r="Z23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA23" s="72" t="s">
+      <c r="AB23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AB23" s="18" t="s">
+      <c r="AC23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="17">
+      <c r="AD23" s="17">
         <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD23" s="65" t="s">
+      <c r="AE23" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
@@ -3834,98 +3923,101 @@
       <c r="C24" s="59">
         <v>43272</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="100">
+        <v>23</v>
+      </c>
+      <c r="E24" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E24" s="51">
+      <c r="F24" s="51">
         <v>1.2</v>
       </c>
-      <c r="F24" s="28">
-        <v>1</v>
-      </c>
       <c r="G24" s="28">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28">
         <v>1.3</v>
       </c>
-      <c r="H24" s="30">
+      <c r="I24" s="30">
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="I24" s="30">
+      <c r="J24" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="M24" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="N24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="22">
+      <c r="O24" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O24" s="72" t="s">
+      <c r="P24" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="18">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="R24" s="65" t="s">
+      <c r="S24" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S24" s="23">
-        <v>2</v>
-      </c>
-      <c r="T24" s="22">
+      <c r="T24" s="23">
+        <v>2</v>
+      </c>
+      <c r="U24" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="U24" s="72" t="s">
+      <c r="V24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="V24" s="18">
-        <v>1</v>
-      </c>
-      <c r="W24" s="17">
+      <c r="W24" s="18">
+        <v>1</v>
+      </c>
+      <c r="X24" s="17">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="X24" s="65" t="s">
+      <c r="Y24" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="Y24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="22">
+      <c r="Z24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AA24" s="72" t="s">
+      <c r="AB24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="AB24" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="17">
+      <c r="AC24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="17">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="AD24" s="65" t="s">
+      <c r="AE24" s="65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -3935,98 +4027,101 @@
       <c r="C25" s="52">
         <v>43273</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="101">
+        <v>24</v>
+      </c>
+      <c r="E25" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E25" s="51">
-        <v>1</v>
-      </c>
-      <c r="F25" s="28">
+      <c r="F25" s="51">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28">
         <v>1.2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="H25" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H25" s="30">
+      <c r="I25" s="30">
         <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
-      <c r="I25" s="30">
+      <c r="J25" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J25" s="18">
-        <v>2</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="K25" s="18">
+        <v>2</v>
+      </c>
+      <c r="L25" s="17">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="M25" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="N25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="22">
+      <c r="O25" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="P25" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="Q25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="R25" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="R25" s="65" t="s">
+      <c r="S25" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="23">
-        <v>1</v>
-      </c>
-      <c r="T25" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="75" t="s">
+      <c r="T25" s="23">
+        <v>1</v>
+      </c>
+      <c r="U25" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="V25" s="18">
-        <v>2</v>
-      </c>
-      <c r="W25" s="17">
+      <c r="W25" s="18">
+        <v>2</v>
+      </c>
+      <c r="X25" s="17">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="X25" s="65" t="s">
+      <c r="Y25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="Y25" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="22">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA25" s="75" t="s">
+      <c r="AB25" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AB25" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="17">
+      <c r="AC25" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="17">
         <f t="shared" si="7"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD25" s="65" t="s">
+      <c r="AE25" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -4036,98 +4131,101 @@
       <c r="C26" s="52">
         <v>43273</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="101">
+        <v>25</v>
+      </c>
+      <c r="E26" s="56">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E26" s="51">
-        <v>1</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="F26" s="51">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28">
         <v>5.3</v>
       </c>
-      <c r="G26" s="28">
+      <c r="H26" s="28">
         <v>12.9</v>
       </c>
-      <c r="H26" s="30">
+      <c r="I26" s="30">
         <f t="shared" si="9"/>
         <v>12.9</v>
       </c>
-      <c r="I26" s="30">
+      <c r="J26" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J26" s="18">
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="M26" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="N26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N26" s="22">
+      <c r="O26" s="22">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="O26" s="72" t="s">
+      <c r="P26" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="P26" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="18">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R26" s="65" t="s">
+      <c r="S26" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="S26" s="23">
-        <v>1</v>
-      </c>
-      <c r="T26" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="72" t="s">
+      <c r="T26" s="23">
+        <v>1</v>
+      </c>
+      <c r="U26" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="V26" s="18">
-        <v>1</v>
-      </c>
-      <c r="W26" s="17">
+      <c r="W26" s="18">
+        <v>1</v>
+      </c>
+      <c r="X26" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X26" s="65" t="s">
+      <c r="Y26" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="Y26" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA26" s="72" t="s">
+      <c r="AB26" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB26" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="17">
+      <c r="AC26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD26" s="65" t="s">
+      <c r="AE26" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -4137,98 +4235,101 @@
       <c r="C27" s="52">
         <v>43273</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="101">
+        <v>26</v>
+      </c>
+      <c r="E27" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E27" s="51">
+      <c r="F27" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F27" s="28">
+      <c r="G27" s="28">
         <v>1.2</v>
       </c>
-      <c r="G27" s="28">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30">
+      <c r="H27" s="28">
+        <v>1</v>
+      </c>
+      <c r="I27" s="30">
         <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
-      <c r="I27" s="30">
+      <c r="J27" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="17">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="M27" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="23">
-        <v>1</v>
-      </c>
-      <c r="N27" s="22">
+      <c r="N27" s="23">
+        <v>1</v>
+      </c>
+      <c r="O27" s="22">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="O27" s="72" t="s">
+      <c r="P27" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="Q27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="R27" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="R27" s="65" t="s">
+      <c r="S27" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S27" s="23">
-        <v>2</v>
-      </c>
-      <c r="T27" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="72" t="s">
+      <c r="T27" s="23">
+        <v>2</v>
+      </c>
+      <c r="U27" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="V27" s="18">
-        <v>1</v>
-      </c>
-      <c r="W27" s="17">
+      <c r="W27" s="18">
+        <v>1</v>
+      </c>
+      <c r="X27" s="17">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="X27" s="65" t="s">
+      <c r="Y27" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y27" s="23" t="s">
+      <c r="Z27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z27" s="22">
+      <c r="AA27" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AA27" s="72" t="s">
+      <c r="AB27" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AB27" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="17">
+      <c r="AC27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD27" s="65" t="s">
+      <c r="AE27" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
@@ -4238,98 +4339,101 @@
       <c r="C28" s="59">
         <v>43274</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="100">
+        <v>27</v>
+      </c>
+      <c r="E28" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E28" s="51">
-        <v>1</v>
-      </c>
-      <c r="F28" s="28">
+      <c r="F28" s="51">
+        <v>1</v>
+      </c>
+      <c r="G28" s="28">
         <v>3.4</v>
       </c>
-      <c r="G28" s="28">
+      <c r="H28" s="28">
         <v>5.7</v>
       </c>
-      <c r="H28" s="30">
+      <c r="I28" s="30">
         <f t="shared" si="9"/>
         <v>5.7</v>
       </c>
-      <c r="I28" s="30">
+      <c r="J28" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="K28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="M28" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="N28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="22">
+      <c r="O28" s="22">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="P28" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="18">
+        <v>1</v>
+      </c>
+      <c r="R28" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="S28" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="S28" s="23">
-        <v>1</v>
-      </c>
-      <c r="T28" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U28" s="72" t="s">
+      <c r="T28" s="23">
+        <v>1</v>
+      </c>
+      <c r="U28" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="V28" s="18">
-        <v>1</v>
-      </c>
-      <c r="W28" s="17">
+      <c r="W28" s="18">
+        <v>1</v>
+      </c>
+      <c r="X28" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X28" s="65" t="s">
+      <c r="Y28" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="Y28" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="22">
+      <c r="Z28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA28" s="72" t="s">
+      <c r="AB28" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AB28" s="18" t="s">
+      <c r="AC28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC28" s="17">
+      <c r="AD28" s="17">
         <f t="shared" si="7"/>
         <v>3.4</v>
       </c>
-      <c r="AD28" s="65" t="s">
+      <c r="AE28" s="65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="57" t="s">
         <v>32</v>
       </c>
@@ -4339,98 +4443,101 @@
       <c r="C29" s="59">
         <v>43274</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="100">
+        <v>28</v>
+      </c>
+      <c r="E29" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E29" s="51">
+      <c r="F29" s="51">
         <v>2.6</v>
       </c>
-      <c r="F29" s="28">
+      <c r="G29" s="28">
         <v>1.9</v>
       </c>
-      <c r="G29" s="28">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
         <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
-      <c r="I29" s="30">
+      <c r="J29" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="K29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="M29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="23">
-        <v>2</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="N29" s="23">
+        <v>2</v>
+      </c>
+      <c r="O29" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29" s="75" t="s">
+      <c r="P29" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="P29" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="18">
+        <v>2</v>
+      </c>
+      <c r="R29" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R29" s="65" t="s">
+      <c r="S29" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S29" s="23">
-        <v>2</v>
-      </c>
-      <c r="T29" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="75" t="s">
+      <c r="T29" s="23">
+        <v>2</v>
+      </c>
+      <c r="U29" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="V29" s="18">
-        <v>1</v>
-      </c>
-      <c r="W29" s="17">
+      <c r="W29" s="18">
+        <v>1</v>
+      </c>
+      <c r="X29" s="17">
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="X29" s="65" t="s">
+      <c r="Y29" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="Y29" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="22">
+      <c r="Z29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA29" s="75" t="s">
+      <c r="AB29" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AB29" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="17">
+      <c r="AC29" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD29" s="65" t="s">
+      <c r="AE29" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="57" t="s">
         <v>42</v>
       </c>
@@ -4440,98 +4547,101 @@
       <c r="C30" s="59">
         <v>43274</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="100">
+        <v>29</v>
+      </c>
+      <c r="E30" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E30" s="51">
-        <v>1</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="F30" s="51">
+        <v>1</v>
+      </c>
+      <c r="G30" s="28">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G30" s="28">
+      <c r="H30" s="28">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H30" s="30">
+      <c r="I30" s="30">
         <f t="shared" si="9"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="I30" s="30">
+      <c r="J30" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J30" s="18">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="K30" s="18">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="M30" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="23">
-        <v>1</v>
-      </c>
-      <c r="N30" s="22">
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="72" t="s">
+      <c r="P30" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="P30" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="18">
+        <v>1</v>
+      </c>
+      <c r="R30" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R30" s="65" t="s">
+      <c r="S30" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="23">
-        <v>1</v>
-      </c>
-      <c r="T30" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U30" s="72" t="s">
+      <c r="T30" s="23">
+        <v>1</v>
+      </c>
+      <c r="U30" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="V30" s="18">
-        <v>1</v>
-      </c>
-      <c r="W30" s="17">
+      <c r="W30" s="18">
+        <v>1</v>
+      </c>
+      <c r="X30" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X30" s="65" t="s">
+      <c r="Y30" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="Y30" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA30" s="72" t="s">
+      <c r="AB30" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AB30" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="17">
+      <c r="AC30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD30" s="65" t="s">
+      <c r="AE30" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4541,98 +4651,101 @@
       <c r="C31" s="52">
         <v>43275</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="101">
+        <v>30</v>
+      </c>
+      <c r="E31" s="56">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E31" s="51">
-        <v>1</v>
-      </c>
-      <c r="F31" s="28">
+      <c r="F31" s="51">
+        <v>1</v>
+      </c>
+      <c r="G31" s="28">
         <v>5.7</v>
       </c>
-      <c r="G31" s="28">
+      <c r="H31" s="28">
         <v>16.100000000000001</v>
       </c>
-      <c r="H31" s="30">
+      <c r="I31" s="30">
         <f t="shared" si="9"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="I31" s="30">
+      <c r="J31" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="K31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="M31" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="N31" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="22">
+      <c r="O31" s="22">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="O31" s="72" t="s">
+      <c r="P31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="18">
+        <v>1</v>
+      </c>
+      <c r="R31" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R31" s="65" t="s">
+      <c r="S31" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="S31" s="23">
-        <v>1</v>
-      </c>
-      <c r="T31" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U31" s="72" t="s">
+      <c r="T31" s="23">
+        <v>1</v>
+      </c>
+      <c r="U31" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V31" s="18" t="s">
+      <c r="W31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W31" s="17">
+      <c r="X31" s="17">
         <f t="shared" si="5"/>
         <v>5.7</v>
       </c>
-      <c r="X31" s="65" t="s">
+      <c r="Y31" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Y31" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="22">
+      <c r="Z31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA31" s="72" t="s">
+      <c r="AB31" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AB31" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="17">
+      <c r="AC31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD31" s="65" t="s">
+      <c r="AE31" s="65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -4642,98 +4755,101 @@
       <c r="C32" s="52">
         <v>43275</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="101">
+        <v>31</v>
+      </c>
+      <c r="E32" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E32" s="51">
+      <c r="F32" s="51">
         <v>1.3</v>
       </c>
-      <c r="F32" s="28">
+      <c r="G32" s="28">
         <v>1.4</v>
       </c>
-      <c r="G32" s="28">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30">
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="30">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I32" s="30">
+      <c r="J32" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J32" s="18">
-        <v>1</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="K32" s="18">
+        <v>1</v>
+      </c>
+      <c r="L32" s="17">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="M32" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="23">
-        <v>1</v>
-      </c>
-      <c r="N32" s="22">
+      <c r="N32" s="23">
+        <v>1</v>
+      </c>
+      <c r="O32" s="22">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="O32" s="72" t="s">
+      <c r="P32" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="P32" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="18">
+        <v>1</v>
+      </c>
+      <c r="R32" s="17">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
-      <c r="R32" s="65" t="s">
+      <c r="S32" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S32" s="23">
-        <v>1</v>
-      </c>
-      <c r="T32" s="22">
+      <c r="T32" s="23">
+        <v>1</v>
+      </c>
+      <c r="U32" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="U32" s="72" t="s">
+      <c r="V32" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="V32" s="18">
-        <v>2</v>
-      </c>
-      <c r="W32" s="17">
+      <c r="W32" s="18">
+        <v>2</v>
+      </c>
+      <c r="X32" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X32" s="65" t="s">
+      <c r="Y32" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="Y32" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="22">
+      <c r="Z32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="22">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="AA32" s="72" t="s">
+      <c r="AB32" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="AB32" s="18" t="s">
+      <c r="AC32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="17">
+      <c r="AD32" s="17">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
-      <c r="AD32" s="65" t="s">
+      <c r="AE32" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1">
+    <row r="33" spans="1:31" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -4743,98 +4859,101 @@
       <c r="C33" s="52">
         <v>43275</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="101">
+        <v>32</v>
+      </c>
+      <c r="E33" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E33" s="51">
+      <c r="F33" s="51">
         <v>1.5</v>
       </c>
-      <c r="F33" s="28">
+      <c r="G33" s="28">
         <v>1.4</v>
       </c>
-      <c r="G33" s="28">
-        <v>1</v>
-      </c>
-      <c r="H33" s="30">
+      <c r="H33" s="28">
+        <v>1</v>
+      </c>
+      <c r="I33" s="30">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="I33" s="30">
+      <c r="J33" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="K33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="17">
+      <c r="L33" s="17">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="L33" s="65" t="s">
+      <c r="M33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="N33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N33" s="22">
+      <c r="O33" s="22">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="O33" s="75" t="s">
+      <c r="P33" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="Q33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="R33" s="17">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="R33" s="65" t="s">
+      <c r="S33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S33" s="23">
-        <v>2</v>
-      </c>
-      <c r="T33" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="75" t="s">
+      <c r="T33" s="23">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V33" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="V33" s="18" t="s">
+      <c r="W33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W33" s="17">
+      <c r="X33" s="17">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="X33" s="65" t="s">
+      <c r="Y33" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="Y33" s="23" t="s">
+      <c r="Z33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z33" s="22">
+      <c r="AA33" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AA33" s="75" t="s">
+      <c r="AB33" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="AB33" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="17">
+      <c r="AC33" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD33" s="65" t="s">
+      <c r="AE33" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="89" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:31" s="89" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="81" t="s">
         <v>12</v>
       </c>
@@ -4844,98 +4963,101 @@
       <c r="C34" s="83">
         <v>43276</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="102">
+        <v>33</v>
+      </c>
+      <c r="E34" s="84">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E34" s="85">
-        <v>1</v>
-      </c>
-      <c r="F34" s="86">
+      <c r="F34" s="85">
+        <v>1</v>
+      </c>
+      <c r="G34" s="86">
         <v>1.3</v>
       </c>
-      <c r="G34" s="86">
+      <c r="H34" s="86">
         <v>1.4</v>
       </c>
-      <c r="H34" s="86">
+      <c r="I34" s="86">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I34" s="86">
+      <c r="J34" s="86">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J34" s="86">
-        <v>1</v>
-      </c>
-      <c r="K34" s="87">
+      <c r="K34" s="86">
+        <v>1</v>
+      </c>
+      <c r="L34" s="87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="88" t="s">
+      <c r="M34" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="M34" s="86">
-        <v>1</v>
-      </c>
-      <c r="N34" s="87">
+      <c r="N34" s="86">
+        <v>1</v>
+      </c>
+      <c r="O34" s="87">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O34" s="88" t="s">
+      <c r="P34" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="P34" s="86">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="87">
+      <c r="Q34" s="86">
+        <v>2</v>
+      </c>
+      <c r="R34" s="87">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="R34" s="88" t="s">
+      <c r="S34" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="S34" s="86">
-        <v>1</v>
-      </c>
-      <c r="T34" s="87">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U34" s="88" t="s">
+      <c r="T34" s="86">
+        <v>1</v>
+      </c>
+      <c r="U34" s="87">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="V34" s="86">
-        <v>1</v>
-      </c>
-      <c r="W34" s="87">
+      <c r="W34" s="86">
+        <v>1</v>
+      </c>
+      <c r="X34" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X34" s="88" t="s">
+      <c r="Y34" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Y34" s="86">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="87">
+      <c r="Z34" s="86">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="88" t="s">
+      <c r="AB34" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="AB34" s="86">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="87">
+      <c r="AC34" s="86">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="87">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD34" s="88" t="s">
+      <c r="AE34" s="88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1">
+    <row r="35" spans="1:31" ht="15.75" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>10</v>
       </c>
@@ -4945,98 +5067,101 @@
       <c r="C35" s="59">
         <v>43276</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="100">
+        <v>34</v>
+      </c>
+      <c r="E35" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E35" s="51">
+      <c r="F35" s="51">
         <v>2.9</v>
       </c>
-      <c r="F35" s="28">
+      <c r="G35" s="28">
         <v>2.1</v>
       </c>
-      <c r="G35" s="28">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30">
+      <c r="H35" s="28">
+        <v>1</v>
+      </c>
+      <c r="I35" s="30">
         <f t="shared" si="9"/>
         <v>2.9</v>
       </c>
-      <c r="I35" s="30">
+      <c r="J35" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K35" s="17">
+      <c r="L35" s="17">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="L35" s="65" t="s">
+      <c r="M35" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="N35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="22">
+      <c r="O35" s="22">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="O35" s="72" t="s">
+      <c r="P35" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="P35" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="18">
+        <v>2</v>
+      </c>
+      <c r="R35" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R35" s="65" t="s">
+      <c r="S35" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S35" s="23">
-        <v>2</v>
-      </c>
-      <c r="T35" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U35" s="72" t="s">
+      <c r="T35" s="23">
+        <v>2</v>
+      </c>
+      <c r="U35" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="V35" s="18" t="s">
+      <c r="W35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W35" s="17">
+      <c r="X35" s="17">
         <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
-      <c r="X35" s="65" t="s">
+      <c r="Y35" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Y35" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="22">
+      <c r="Z35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA35" s="72" t="s">
+      <c r="AB35" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="AB35" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC35" s="17">
+      <c r="AC35" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD35" s="65" t="s">
+      <c r="AE35" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1">
+    <row r="36" spans="1:31" ht="15.75" customHeight="1">
       <c r="A36" s="61" t="s">
         <v>14</v>
       </c>
@@ -5046,98 +5171,101 @@
       <c r="C36" s="59">
         <v>43276</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="100">
+        <v>35</v>
+      </c>
+      <c r="E36" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E36" s="51">
+      <c r="F36" s="51">
         <v>7.5</v>
       </c>
-      <c r="F36" s="28">
+      <c r="G36" s="28">
         <v>3.6</v>
       </c>
-      <c r="G36" s="28">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="H36" s="28">
+        <v>1</v>
+      </c>
+      <c r="I36" s="30">
         <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
-      <c r="I36" s="30">
+      <c r="J36" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J36" s="18">
-        <v>2</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="K36" s="18">
+        <v>2</v>
+      </c>
+      <c r="L36" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="M36" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="23">
-        <v>2</v>
-      </c>
-      <c r="N36" s="22">
+      <c r="N36" s="23">
+        <v>2</v>
+      </c>
+      <c r="O36" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36" s="72" t="s">
+      <c r="P36" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="18">
+        <v>2</v>
+      </c>
+      <c r="R36" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R36" s="65" t="s">
+      <c r="S36" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="S36" s="23">
-        <v>2</v>
-      </c>
-      <c r="T36" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U36" s="72" t="s">
+      <c r="T36" s="23">
+        <v>2</v>
+      </c>
+      <c r="U36" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="V36" s="18">
-        <v>2</v>
-      </c>
-      <c r="W36" s="17">
+      <c r="W36" s="18">
+        <v>2</v>
+      </c>
+      <c r="X36" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X36" s="65" t="s">
+      <c r="Y36" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="Y36" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="22">
+      <c r="Z36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA36" s="72" t="s">
+      <c r="AB36" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="17">
+      <c r="AC36" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD36" s="65" t="s">
+      <c r="AE36" s="65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1">
+    <row r="37" spans="1:31" ht="15.75" customHeight="1">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -5147,98 +5275,101 @@
       <c r="C37" s="59">
         <v>43276</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="100">
+        <v>36</v>
+      </c>
+      <c r="E37" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E37" s="51">
-        <v>1</v>
-      </c>
-      <c r="F37" s="28">
+      <c r="F37" s="51">
+        <v>1</v>
+      </c>
+      <c r="G37" s="28">
         <v>3.7</v>
       </c>
-      <c r="G37" s="28">
+      <c r="H37" s="28">
         <v>7.6</v>
       </c>
-      <c r="H37" s="30">
+      <c r="I37" s="30">
         <f t="shared" si="9"/>
         <v>7.6</v>
       </c>
-      <c r="I37" s="30">
+      <c r="J37" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="65" t="s">
+      <c r="M37" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="23">
-        <v>1</v>
-      </c>
-      <c r="N37" s="22">
+      <c r="N37" s="23">
+        <v>1</v>
+      </c>
+      <c r="O37" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O37" s="75" t="s">
+      <c r="P37" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P37" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="18">
+        <v>1</v>
+      </c>
+      <c r="R37" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R37" s="65" t="s">
+      <c r="S37" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S37" s="23">
-        <v>1</v>
-      </c>
-      <c r="T37" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U37" s="75" t="s">
+      <c r="T37" s="23">
+        <v>1</v>
+      </c>
+      <c r="U37" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V37" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="V37" s="18">
-        <v>1</v>
-      </c>
-      <c r="W37" s="17">
+      <c r="W37" s="18">
+        <v>1</v>
+      </c>
+      <c r="X37" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X37" s="65" t="s">
+      <c r="Y37" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y37" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="22">
+      <c r="Z37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA37" s="75" t="s">
+      <c r="AB37" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="AB37" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="17">
+      <c r="AC37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD37" s="65" t="s">
+      <c r="AE37" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1">
+    <row r="38" spans="1:31" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -5248,98 +5379,101 @@
       <c r="C38" s="52">
         <v>43277</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="101">
+        <v>37</v>
+      </c>
+      <c r="E38" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="51">
+      <c r="F38" s="51">
         <v>3.6</v>
       </c>
-      <c r="F38" s="28">
+      <c r="G38" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G38" s="28">
-        <v>1</v>
-      </c>
-      <c r="H38" s="30">
+      <c r="H38" s="28">
+        <v>1</v>
+      </c>
+      <c r="I38" s="30">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="I38" s="30">
+      <c r="J38" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="17">
+      <c r="L38" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="M38" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="N38" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="22">
+      <c r="O38" s="22">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O38" s="72" t="s">
+      <c r="P38" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="18">
+        <v>2</v>
+      </c>
+      <c r="R38" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R38" s="65" t="s">
+      <c r="S38" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S38" s="23">
-        <v>2</v>
-      </c>
-      <c r="T38" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U38" s="72" t="s">
+      <c r="T38" s="23">
+        <v>2</v>
+      </c>
+      <c r="U38" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="V38" s="18">
-        <v>2</v>
-      </c>
-      <c r="W38" s="17">
+      <c r="W38" s="18">
+        <v>2</v>
+      </c>
+      <c r="X38" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X38" s="65" t="s">
+      <c r="Y38" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Y38" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z38" s="22">
+      <c r="Z38" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA38" s="72" t="s">
+      <c r="AB38" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="AB38" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="17">
+      <c r="AC38" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD38" s="65" t="s">
+      <c r="AE38" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1">
+    <row r="39" spans="1:31" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -5349,98 +5483,101 @@
       <c r="C39" s="52">
         <v>43277</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="101">
+        <v>38</v>
+      </c>
+      <c r="E39" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E39" s="51">
+      <c r="F39" s="51">
         <v>1.6</v>
       </c>
-      <c r="F39" s="28">
+      <c r="G39" s="28">
         <v>1.5</v>
       </c>
-      <c r="G39" s="28">
-        <v>1</v>
-      </c>
-      <c r="H39" s="30">
+      <c r="H39" s="28">
+        <v>1</v>
+      </c>
+      <c r="I39" s="30">
         <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
-      <c r="I39" s="30">
+      <c r="J39" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="17">
+      <c r="L39" s="17">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L39" s="65" t="s">
+      <c r="M39" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="23">
-        <v>2</v>
-      </c>
-      <c r="N39" s="22">
+      <c r="N39" s="23">
+        <v>2</v>
+      </c>
+      <c r="O39" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O39" s="72" t="s">
+      <c r="P39" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="P39" s="18" t="s">
+      <c r="Q39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="R39" s="17">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="R39" s="65" t="s">
+      <c r="S39" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S39" s="23" t="s">
+      <c r="T39" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="22">
+      <c r="U39" s="22">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="U39" s="72" t="s">
+      <c r="V39" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="V39" s="18" t="s">
+      <c r="W39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W39" s="17">
+      <c r="X39" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="X39" s="65" t="s">
+      <c r="Y39" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Y39" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="22">
+      <c r="Z39" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA39" s="72" t="s">
+      <c r="AB39" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="AB39" s="18" t="s">
+      <c r="AC39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="17">
+      <c r="AD39" s="17">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="AD39" s="65" t="s">
+      <c r="AE39" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1">
+    <row r="40" spans="1:31" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -5450,98 +5587,101 @@
       <c r="C40" s="52">
         <v>43277</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="101">
+        <v>39</v>
+      </c>
+      <c r="E40" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E40" s="51">
+      <c r="F40" s="51">
         <v>5.3</v>
       </c>
-      <c r="F40" s="28">
+      <c r="G40" s="28">
         <v>3.2</v>
       </c>
-      <c r="G40" s="28">
-        <v>1</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="H40" s="28">
+        <v>1</v>
+      </c>
+      <c r="I40" s="30">
         <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
-      <c r="I40" s="30">
+      <c r="J40" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J40" s="18">
-        <v>2</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="K40" s="18">
+        <v>2</v>
+      </c>
+      <c r="L40" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L40" s="65" t="s">
+      <c r="M40" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="23">
-        <v>2</v>
-      </c>
-      <c r="N40" s="22">
+      <c r="N40" s="23">
+        <v>2</v>
+      </c>
+      <c r="O40" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="P40" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="P40" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="18">
+        <v>2</v>
+      </c>
+      <c r="R40" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R40" s="65" t="s">
+      <c r="S40" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="S40" s="23">
-        <v>2</v>
-      </c>
-      <c r="T40" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U40" s="72" t="s">
+      <c r="T40" s="23">
+        <v>2</v>
+      </c>
+      <c r="U40" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="V40" s="18">
-        <v>2</v>
-      </c>
-      <c r="W40" s="17">
+      <c r="W40" s="18">
+        <v>2</v>
+      </c>
+      <c r="X40" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X40" s="65" t="s">
+      <c r="Y40" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="Y40" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="22">
+      <c r="Z40" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA40" s="72" t="s">
+      <c r="AB40" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AB40" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="17">
+      <c r="AC40" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD40" s="65" t="s">
+      <c r="AE40" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -5551,98 +5691,101 @@
       <c r="C41" s="52">
         <v>43277</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="101">
+        <v>40</v>
+      </c>
+      <c r="E41" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E41" s="51">
+      <c r="F41" s="51">
         <v>1.4</v>
       </c>
-      <c r="F41" s="28">
-        <v>1</v>
-      </c>
       <c r="G41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="28">
         <v>1.2</v>
       </c>
-      <c r="H41" s="30">
+      <c r="I41" s="30">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I41" s="30">
+      <c r="J41" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J41" s="18">
-        <v>2</v>
-      </c>
-      <c r="K41" s="17">
+      <c r="K41" s="18">
+        <v>2</v>
+      </c>
+      <c r="L41" s="17">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L41" s="65" t="s">
+      <c r="M41" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="23">
-        <v>2</v>
-      </c>
-      <c r="N41" s="22">
+      <c r="N41" s="23">
+        <v>2</v>
+      </c>
+      <c r="O41" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O41" s="75" t="s">
+      <c r="P41" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="P41" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="18">
+        <v>2</v>
+      </c>
+      <c r="R41" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="R41" s="65" t="s">
+      <c r="S41" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="T41" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T41" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="75" t="s">
+      <c r="U41" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="V41" s="18" t="s">
+      <c r="W41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="17">
+      <c r="X41" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X41" s="65" t="s">
+      <c r="Y41" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="Y41" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="22">
+      <c r="Z41" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AA41" s="75" t="s">
+      <c r="AB41" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="17">
+      <c r="AC41" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="17">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
-      <c r="AD41" s="65" t="s">
+      <c r="AE41" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>47</v>
       </c>
@@ -5652,98 +5795,101 @@
       <c r="C42" s="59">
         <v>43278</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="100">
+        <v>41</v>
+      </c>
+      <c r="E42" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E42" s="51">
+      <c r="F42" s="51">
         <v>6.9</v>
       </c>
-      <c r="F42" s="28">
+      <c r="G42" s="28">
         <v>3.6</v>
       </c>
-      <c r="G42" s="28">
-        <v>1</v>
-      </c>
-      <c r="H42" s="30">
+      <c r="H42" s="28">
+        <v>1</v>
+      </c>
+      <c r="I42" s="30">
         <f t="shared" si="9"/>
         <v>6.9</v>
       </c>
-      <c r="I42" s="30">
+      <c r="J42" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J42" s="18">
-        <v>2</v>
-      </c>
-      <c r="K42" s="17">
+      <c r="K42" s="18">
+        <v>2</v>
+      </c>
+      <c r="L42" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L42" s="65" t="s">
+      <c r="M42" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="M42" s="23">
-        <v>2</v>
-      </c>
-      <c r="N42" s="22">
+      <c r="N42" s="23">
+        <v>2</v>
+      </c>
+      <c r="O42" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42" s="72" t="s">
+      <c r="P42" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="P42" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="18">
+        <v>2</v>
+      </c>
+      <c r="R42" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R42" s="65" t="s">
+      <c r="S42" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="23">
-        <v>2</v>
-      </c>
-      <c r="T42" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U42" s="72" t="s">
+      <c r="T42" s="23">
+        <v>2</v>
+      </c>
+      <c r="U42" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="V42" s="18">
-        <v>2</v>
-      </c>
-      <c r="W42" s="17">
+      <c r="W42" s="18">
+        <v>2</v>
+      </c>
+      <c r="X42" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X42" s="65" t="s">
+      <c r="Y42" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="Y42" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="22">
+      <c r="Z42" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA42" s="72" t="s">
+      <c r="AB42" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AB42" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="17">
+      <c r="AC42" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD42" s="65" t="s">
+      <c r="AE42" s="65" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1">
       <c r="A43" s="57" t="s">
         <v>48</v>
       </c>
@@ -5753,98 +5899,101 @@
       <c r="C43" s="59">
         <v>43278</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="100">
+        <v>42</v>
+      </c>
+      <c r="E43" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E43" s="51">
-        <v>1</v>
-      </c>
-      <c r="F43" s="28">
+      <c r="F43" s="51">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28">
         <v>1.8</v>
       </c>
-      <c r="G43" s="28">
+      <c r="H43" s="28">
         <v>2.4</v>
       </c>
-      <c r="H43" s="30">
+      <c r="I43" s="30">
         <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="I43" s="30">
+      <c r="J43" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="K43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="17">
+      <c r="L43" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="L43" s="65" t="s">
+      <c r="M43" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M43" s="23">
-        <v>2</v>
-      </c>
-      <c r="N43" s="22">
+      <c r="N43" s="23">
+        <v>2</v>
+      </c>
+      <c r="O43" s="22">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="O43" s="72" t="s">
+      <c r="P43" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="Q43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="R43" s="17">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="R43" s="65" t="s">
+      <c r="S43" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="S43" s="23">
-        <v>1</v>
-      </c>
-      <c r="T43" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U43" s="72" t="s">
+      <c r="T43" s="23">
+        <v>1</v>
+      </c>
+      <c r="U43" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="V43" s="18">
-        <v>2</v>
-      </c>
-      <c r="W43" s="17">
+      <c r="W43" s="18">
+        <v>2</v>
+      </c>
+      <c r="X43" s="17">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="X43" s="95" t="s">
+      <c r="Y43" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="Y43" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="22">
+      <c r="Z43" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA43" s="72" t="s">
+      <c r="AB43" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AB43" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="17">
+      <c r="AC43" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD43" s="95" t="s">
+      <c r="AE43" s="95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1">
+    <row r="44" spans="1:31" ht="15.75" customHeight="1">
       <c r="A44" s="57" t="s">
         <v>46</v>
       </c>
@@ -5854,98 +6003,101 @@
       <c r="C44" s="59">
         <v>43278</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="100">
+        <v>43</v>
+      </c>
+      <c r="E44" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E44" s="51">
+      <c r="F44" s="51">
         <v>10</v>
       </c>
-      <c r="F44" s="28">
+      <c r="G44" s="28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G44" s="28">
-        <v>1</v>
-      </c>
-      <c r="H44" s="30">
+      <c r="H44" s="28">
+        <v>1</v>
+      </c>
+      <c r="I44" s="30">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="I44" s="30">
+      <c r="J44" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J44" s="18">
-        <v>2</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="K44" s="18">
+        <v>2</v>
+      </c>
+      <c r="L44" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L44" s="65" t="s">
+      <c r="M44" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="23">
-        <v>2</v>
-      </c>
-      <c r="N44" s="22">
+      <c r="N44" s="23">
+        <v>2</v>
+      </c>
+      <c r="O44" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O44" s="72" t="s">
+      <c r="P44" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="P44" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="18">
+        <v>2</v>
+      </c>
+      <c r="R44" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R44" s="65" t="s">
+      <c r="S44" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S44" s="23">
-        <v>2</v>
-      </c>
-      <c r="T44" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U44" s="72" t="s">
+      <c r="T44" s="23">
+        <v>2</v>
+      </c>
+      <c r="U44" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="V44" s="18">
-        <v>2</v>
-      </c>
-      <c r="W44" s="17">
+      <c r="W44" s="18">
+        <v>2</v>
+      </c>
+      <c r="X44" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X44" s="65" t="s">
+      <c r="Y44" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="Y44" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="22">
+      <c r="Z44" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA44" s="72" t="s">
+      <c r="AB44" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AB44" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="17">
+      <c r="AC44" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD44" s="65" t="s">
+      <c r="AE44" s="65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1">
+    <row r="45" spans="1:31" ht="15.75" customHeight="1">
       <c r="A45" s="57" t="s">
         <v>45</v>
       </c>
@@ -5955,98 +6107,101 @@
       <c r="C45" s="59">
         <v>43278</v>
       </c>
-      <c r="D45" s="60">
+      <c r="D45" s="100">
+        <v>44</v>
+      </c>
+      <c r="E45" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="51">
-        <v>1</v>
-      </c>
-      <c r="F45" s="28">
+      <c r="F45" s="51">
+        <v>1</v>
+      </c>
+      <c r="G45" s="28">
         <v>1.3</v>
       </c>
-      <c r="G45" s="28">
+      <c r="H45" s="28">
         <v>1.2</v>
       </c>
-      <c r="H45" s="30">
+      <c r="I45" s="30">
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="I45" s="30">
+      <c r="J45" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J45" s="18">
-        <v>2</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="K45" s="18">
+        <v>2</v>
+      </c>
+      <c r="L45" s="17">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L45" s="65" t="s">
+      <c r="M45" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M45" s="23">
-        <v>2</v>
-      </c>
-      <c r="N45" s="22">
+      <c r="N45" s="23">
+        <v>2</v>
+      </c>
+      <c r="O45" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="O45" s="75" t="s">
+      <c r="P45" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="P45" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="18">
+        <v>1</v>
+      </c>
+      <c r="R45" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R45" s="65" t="s">
+      <c r="S45" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="S45" s="23" t="s">
+      <c r="T45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T45" s="22">
+      <c r="U45" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="U45" s="75" t="s">
+      <c r="V45" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="V45" s="18">
-        <v>2</v>
-      </c>
-      <c r="W45" s="17">
+      <c r="W45" s="18">
+        <v>2</v>
+      </c>
+      <c r="X45" s="17">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="X45" s="65" t="s">
+      <c r="Y45" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Y45" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="22">
+      <c r="Z45" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA45" s="75" t="s">
+      <c r="AB45" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB45" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC45" s="17">
+      <c r="AC45" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="17">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="AD45" s="65" t="s">
+      <c r="AE45" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1">
+    <row r="46" spans="1:31" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -6056,98 +6211,101 @@
       <c r="C46" s="52">
         <v>43279</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="101">
+        <v>45</v>
+      </c>
+      <c r="E46" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E46" s="51">
+      <c r="F46" s="51">
         <v>1.2</v>
       </c>
-      <c r="F46" s="28">
+      <c r="G46" s="28">
         <v>1.4</v>
       </c>
-      <c r="G46" s="28">
-        <v>1</v>
-      </c>
-      <c r="H46" s="30">
+      <c r="H46" s="28">
+        <v>1</v>
+      </c>
+      <c r="I46" s="30">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="I46" s="30">
+      <c r="J46" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J46" s="18">
-        <v>2</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="K46" s="18">
+        <v>2</v>
+      </c>
+      <c r="L46" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L46" s="65" t="s">
+      <c r="M46" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="N46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N46" s="22">
+      <c r="O46" s="22">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="O46" s="72" t="s">
+      <c r="P46" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="P46" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="18">
+        <v>2</v>
+      </c>
+      <c r="R46" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R46" s="65" t="s">
+      <c r="S46" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S46" s="23" t="s">
+      <c r="T46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T46" s="22">
+      <c r="U46" s="22">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="U46" s="72" t="s">
+      <c r="V46" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="18">
-        <v>2</v>
-      </c>
-      <c r="W46" s="17">
+      <c r="W46" s="18">
+        <v>2</v>
+      </c>
+      <c r="X46" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X46" s="65" t="s">
+      <c r="Y46" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="Y46" s="23" t="s">
+      <c r="Z46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z46" s="22">
+      <c r="AA46" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AA46" s="72" t="s">
+      <c r="AB46" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AB46" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC46" s="17">
+      <c r="AC46" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD46" s="65" t="s">
+      <c r="AE46" s="65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1">
+    <row r="47" spans="1:31" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -6157,98 +6315,101 @@
       <c r="C47" s="52">
         <v>43279</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="101">
+        <v>46</v>
+      </c>
+      <c r="E47" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E47" s="51">
+      <c r="F47" s="51">
         <v>1.6</v>
       </c>
-      <c r="F47" s="28">
+      <c r="G47" s="28">
         <v>1.5</v>
       </c>
-      <c r="G47" s="28">
-        <v>1</v>
-      </c>
-      <c r="H47" s="30">
+      <c r="H47" s="28">
+        <v>1</v>
+      </c>
+      <c r="I47" s="30">
         <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
-      <c r="I47" s="30">
+      <c r="J47" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J47" s="18">
-        <v>1</v>
-      </c>
-      <c r="K47" s="17">
+      <c r="K47" s="18">
+        <v>1</v>
+      </c>
+      <c r="L47" s="17">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="L47" s="65" t="s">
+      <c r="M47" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M47" s="23">
-        <v>1</v>
-      </c>
-      <c r="N47" s="22">
+      <c r="N47" s="23">
+        <v>1</v>
+      </c>
+      <c r="O47" s="22">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="O47" s="72" t="s">
+      <c r="P47" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="P47" s="18" t="s">
+      <c r="Q47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="R47" s="17">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="R47" s="65" t="s">
+      <c r="S47" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S47" s="23">
-        <v>2</v>
-      </c>
-      <c r="T47" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U47" s="72" t="s">
+      <c r="T47" s="23">
+        <v>2</v>
+      </c>
+      <c r="U47" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V47" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="V47" s="18" t="s">
+      <c r="W47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="17">
+      <c r="X47" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="X47" s="65" t="s">
+      <c r="Y47" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="Y47" s="23" t="s">
+      <c r="Z47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="22">
+      <c r="AA47" s="22">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="AA47" s="72" t="s">
+      <c r="AB47" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AB47" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="17">
+      <c r="AC47" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="17">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
-      <c r="AD47" s="65" t="s">
+      <c r="AE47" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1">
+    <row r="48" spans="1:31" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -6258,98 +6419,101 @@
       <c r="C48" s="52">
         <v>43279</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="101">
+        <v>47</v>
+      </c>
+      <c r="E48" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E48" s="51">
+      <c r="F48" s="51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F48" s="28">
+      <c r="G48" s="28">
         <v>1.9</v>
       </c>
-      <c r="G48" s="28">
-        <v>1</v>
-      </c>
-      <c r="H48" s="30">
+      <c r="H48" s="28">
+        <v>1</v>
+      </c>
+      <c r="I48" s="30">
         <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="I48" s="30">
+      <c r="J48" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="K48" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="17">
+      <c r="L48" s="17">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="M48" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="M48" s="23">
-        <v>2</v>
-      </c>
-      <c r="N48" s="22">
+      <c r="N48" s="23">
+        <v>2</v>
+      </c>
+      <c r="O48" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O48" s="72" t="s">
+      <c r="P48" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="18">
+        <v>2</v>
+      </c>
+      <c r="R48" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R48" s="65" t="s">
+      <c r="S48" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="S48" s="23">
-        <v>2</v>
-      </c>
-      <c r="T48" s="22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U48" s="72" t="s">
+      <c r="T48" s="23">
+        <v>2</v>
+      </c>
+      <c r="U48" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V48" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="V48" s="18">
-        <v>1</v>
-      </c>
-      <c r="W48" s="17">
+      <c r="W48" s="18">
+        <v>1</v>
+      </c>
+      <c r="X48" s="17">
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="X48" s="65" t="s">
+      <c r="Y48" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="Y48" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z48" s="22">
+      <c r="Z48" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA48" s="72" t="s">
+      <c r="AB48" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AB48" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC48" s="17">
+      <c r="AC48" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD48" s="65" t="s">
+      <c r="AE48" s="65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
@@ -6359,299 +6523,302 @@
       <c r="C49" s="52">
         <v>43279</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="101">
+        <v>48</v>
+      </c>
+      <c r="E49" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E49" s="51">
+      <c r="F49" s="51">
         <v>1.9</v>
       </c>
-      <c r="F49" s="28">
+      <c r="G49" s="28">
         <v>1.7</v>
       </c>
-      <c r="G49" s="28">
-        <v>1</v>
-      </c>
-      <c r="H49" s="30">
+      <c r="H49" s="28">
+        <v>1</v>
+      </c>
+      <c r="I49" s="30">
         <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="I49" s="30">
+      <c r="J49" s="30">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="K49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K49" s="17">
+      <c r="L49" s="17">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="L49" s="66" t="s">
+      <c r="M49" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="24" t="s">
+      <c r="N49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N49" s="22">
+      <c r="O49" s="22">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="O49" s="75" t="s">
+      <c r="P49" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="Q49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="R49" s="17">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="R49" s="66" t="s">
+      <c r="S49" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="S49" s="24" t="s">
+      <c r="T49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="22">
+      <c r="U49" s="22">
         <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
-      <c r="U49" s="75" t="s">
+      <c r="V49" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="V49" s="19">
-        <v>1</v>
-      </c>
-      <c r="W49" s="17">
+      <c r="W49" s="19">
+        <v>1</v>
+      </c>
+      <c r="X49" s="17">
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-      <c r="X49" s="66" t="s">
+      <c r="Y49" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="Y49" s="24">
-        <v>2</v>
-      </c>
-      <c r="Z49" s="22">
+      <c r="Z49" s="24">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA49" s="75" t="s">
+      <c r="AB49" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AB49" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="17">
+      <c r="AC49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="17">
         <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
-      <c r="AD49" s="66" t="s">
+      <c r="AE49" s="66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E50" s="13"/>
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="34">
-        <f>SUM(H2:H49)</f>
+      <c r="H50" s="13"/>
+      <c r="I50" s="34">
+        <f>SUM(I2:I49)</f>
         <v>247.10000000000002</v>
       </c>
-      <c r="I50" s="35">
-        <f>SUM(I2:I49)</f>
+      <c r="J50" s="35">
+        <f>SUM(J2:J49)</f>
         <v>48</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="K50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K50" s="20">
-        <f>SUM(K2:K49)</f>
+      <c r="L50" s="20">
+        <f>SUM(L2:L49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="L50" s="67"/>
-      <c r="M50" s="36" t="s">
+      <c r="M50" s="67"/>
+      <c r="N50" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="N50" s="25">
-        <f>SUM(N2:N49)</f>
+      <c r="O50" s="25">
+        <f>SUM(O2:O49)</f>
         <v>102.90000000000003</v>
       </c>
-      <c r="O50" s="76"/>
-      <c r="P50" s="31" t="s">
+      <c r="P50" s="76"/>
+      <c r="Q50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q50" s="20">
-        <f>SUM(Q2:Q49)</f>
+      <c r="R50" s="20">
+        <f>SUM(R2:R49)</f>
         <v>62.800000000000004</v>
       </c>
-      <c r="R50" s="67"/>
-      <c r="S50" s="36" t="s">
+      <c r="S50" s="67"/>
+      <c r="T50" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="T50" s="25">
-        <f>SUM(T2:T49)</f>
+      <c r="U50" s="25">
+        <f>SUM(U2:U49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="U50" s="76"/>
-      <c r="V50" s="31" t="s">
+      <c r="V50" s="76"/>
+      <c r="W50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="W50" s="20">
-        <f>SUM(W2:W49)</f>
+      <c r="X50" s="20">
+        <f>SUM(X2:X49)</f>
         <v>74.700000000000017</v>
       </c>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="36" t="s">
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="Z50" s="25">
-        <f>SUM(Z2:Z49)</f>
+      <c r="AA50" s="25">
+        <f>SUM(AA2:AA49)</f>
         <v>54.499999999999993</v>
       </c>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="31" t="s">
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AC50" s="20">
-        <f>SUM(AC2:AC49)</f>
+      <c r="AD50" s="20">
+        <f>SUM(AD2:AD49)</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="AD50" s="92"/>
-    </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1">
-      <c r="E51" s="14"/>
+      <c r="AE50" s="92"/>
+    </row>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="33"/>
+      <c r="K51" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="38">
-        <f>COUNTIF(K2:K49,1)</f>
+      <c r="L51" s="38">
+        <f>COUNTIF(L2:L49,1)</f>
         <v>27</v>
       </c>
-      <c r="L51" s="68"/>
-      <c r="M51" s="41" t="s">
+      <c r="M51" s="68"/>
+      <c r="N51" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="N51" s="40">
-        <f>COUNTIF(N2:N49,1)</f>
+      <c r="O51" s="40">
+        <f>COUNTIF(O2:O49,1)</f>
         <v>23</v>
       </c>
-      <c r="O51" s="77"/>
-      <c r="P51" s="39" t="s">
+      <c r="P51" s="77"/>
+      <c r="Q51" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="Q51" s="38">
-        <f>COUNTIF(Q2:Q49,1)</f>
+      <c r="R51" s="38">
+        <f>COUNTIF(R2:R49,1)</f>
         <v>29</v>
       </c>
-      <c r="R51" s="68"/>
-      <c r="S51" s="41" t="s">
+      <c r="S51" s="68"/>
+      <c r="T51" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="T51" s="40">
-        <f>COUNTIF(T2:T49,1)</f>
+      <c r="U51" s="40">
+        <f>COUNTIF(U2:U49,1)</f>
         <v>31</v>
       </c>
-      <c r="U51" s="77"/>
-      <c r="V51" s="39" t="s">
+      <c r="V51" s="77"/>
+      <c r="W51" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="W51" s="38">
-        <f>COUNTIF(W2:W49,1)</f>
+      <c r="X51" s="38">
+        <f>COUNTIF(X2:X49,1)</f>
         <v>28</v>
       </c>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="41" t="s">
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="Z51" s="40">
-        <f>COUNTIF(Z2:Z49,1)</f>
+      <c r="AA51" s="40">
+        <f>COUNTIF(AA2:AA49,1)</f>
         <v>33</v>
       </c>
-      <c r="AA51" s="77"/>
-      <c r="AB51" s="39" t="s">
+      <c r="AB51" s="77"/>
+      <c r="AC51" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AC51" s="38">
-        <f>COUNTIF(AC2:AC49,1)</f>
+      <c r="AD51" s="38">
+        <f>COUNTIF(AD2:AD49,1)</f>
         <v>32</v>
       </c>
-      <c r="AD51" s="93"/>
-    </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="J52" s="32" t="s">
+      <c r="AE51" s="93"/>
+    </row>
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="21">
-        <f>1-(-$I$50+K50)/($H$50-$I$50)</f>
+      <c r="L52" s="21">
+        <f>1-(-$J$50+L50)/($I$50-$J$50)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="L52" s="69"/>
-      <c r="M52" s="37" t="s">
+      <c r="M52" s="69"/>
+      <c r="N52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="N52" s="26">
-        <f>1-(-$I$50+N50)/($H$50-$I$50)</f>
+      <c r="O52" s="26">
+        <f>1-(-$J$50+O50)/($I$50-$J$50)</f>
         <v>0.72425916624811637</v>
       </c>
-      <c r="O52" s="78"/>
-      <c r="P52" s="32" t="s">
+      <c r="P52" s="78"/>
+      <c r="Q52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q52" s="21">
-        <f>1-(-$I$50+Q50)/($H$50-$I$50)</f>
+      <c r="R52" s="21">
+        <f>1-(-$J$50+R50)/($I$50-$J$50)</f>
         <v>0.92566549472626813</v>
       </c>
-      <c r="R52" s="69"/>
-      <c r="S52" s="37" t="s">
+      <c r="S52" s="69"/>
+      <c r="T52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T52" s="26">
-        <f>1-(-$I$50+T50)/($H$50-$I$50)</f>
+      <c r="U52" s="26">
+        <f>1-(-$J$50+U50)/($I$50-$J$50)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="U52" s="78"/>
-      <c r="V52" s="32" t="s">
+      <c r="V52" s="78"/>
+      <c r="W52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="W52" s="21">
-        <f>1-(-$I$50+W50)/($H$50-$I$50)</f>
+      <c r="X52" s="21">
+        <f>1-(-$J$50+X50)/($I$50-$J$50)</f>
         <v>0.86589653440482162</v>
       </c>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="37" t="s">
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Z52" s="26">
-        <f>1-(-$I$50+Z50)/($H$50-$I$50)</f>
+      <c r="AA52" s="26">
+        <f>1-(-$J$50+AA50)/($I$50-$J$50)</f>
         <v>0.96735308890005023</v>
       </c>
-      <c r="AA52" s="78"/>
-      <c r="AB52" s="32" t="s">
+      <c r="AB52" s="78"/>
+      <c r="AC52" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AC52" s="21">
-        <f>1-(-$I$50+AC50)/($H$50-$I$50)</f>
+      <c r="AD52" s="21">
+        <f>1-(-$J$50+AD50)/($I$50-$J$50)</f>
         <v>0.93119035660472127</v>
       </c>
-      <c r="AD52" s="94"/>
-    </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1"/>
+      <c r="AE52" s="94"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:31" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -7415,7 +7582,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H2:H49 I2:I49" formulaRange="1"/>
+    <ignoredError sqref="I2:I49 J2:J49" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="127">
   <si>
     <t>Resultat</t>
   </si>
@@ -313,6 +313,96 @@
   <si>
     <t>num</t>
   </si>
+  <si>
+    <t>Brasilen</t>
+  </si>
+  <si>
+    <t>Portgual</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>W 49</t>
+  </si>
+  <si>
+    <t>W 50</t>
+  </si>
+  <si>
+    <t>W 53</t>
+  </si>
+  <si>
+    <t>W 54</t>
+  </si>
+  <si>
+    <t>W 51</t>
+  </si>
+  <si>
+    <t>W 52</t>
+  </si>
+  <si>
+    <t>W 55</t>
+  </si>
+  <si>
+    <t>W 56</t>
+  </si>
+  <si>
+    <t>W 57</t>
+  </si>
+  <si>
+    <t>W 58</t>
+  </si>
+  <si>
+    <t>W 59</t>
+  </si>
+  <si>
+    <t>W 60</t>
+  </si>
+  <si>
+    <t>L 61</t>
+  </si>
+  <si>
+    <t>L 62</t>
+  </si>
+  <si>
+    <t>W 61</t>
+  </si>
+  <si>
+    <t>W 62</t>
+  </si>
 </sst>
 </file>
 
@@ -321,11 +411,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -384,8 +481,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +550,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -844,9 +965,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -859,9 +1004,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -874,9 +1017,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -888,35 +1029,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -928,96 +1229,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1025,10 +1323,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,7 +1335,7 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,136 +1344,290 @@
     <xf numFmtId="20" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="6" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="9" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7"/>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE823"/>
+  <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1504,32 +1956,35 @@
     <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
     <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="90"/>
-    <col min="25" max="25" width="14.42578125" style="90"/>
-    <col min="28" max="28" width="14.42578125" style="90"/>
-    <col min="31" max="31" width="14.42578125" style="90"/>
+    <col min="14" max="15" width="14.85546875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="75" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.42578125" customWidth="1"/>
+    <col min="28" max="30" width="14.42578125" style="86"/>
+    <col min="33" max="35" width="14.42578125" style="86"/>
+    <col min="38" max="40" width="14.42578125" style="86"/>
+    <col min="43" max="45" width="14.42578125" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="15">
@@ -1541,107 +1996,163 @@
       <c r="H1" s="15">
         <v>2</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="45" t="str">
+      <c r="L1" s="44" t="str">
         <f>CONCATENATE(K1, "_Odds")</f>
         <v>Niklas_Odds</v>
       </c>
-      <c r="M1" s="71" t="str">
+      <c r="M1" s="67" t="str">
         <f>CONCATENATE(K1, "_Resultat")</f>
         <v>Niklas_Resultat</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="15" t="str">
+        <f>CONCATENATE(K1, "_Hemma")</f>
+        <v>Niklas_Hemma</v>
+      </c>
+      <c r="O1" s="67" t="str">
+        <f>CONCATENATE(K1, "_Borta")</f>
+        <v>Niklas_Borta</v>
+      </c>
+      <c r="P1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="63" t="str">
-        <f>CONCATENATE(N1, "_Odds")</f>
+      <c r="Q1" s="62" t="str">
+        <f>CONCATENATE(P1, "_Odds")</f>
         <v>Alex_Odds</v>
       </c>
-      <c r="P1" s="74" t="str">
-        <f>CONCATENATE(N1, "_Resultat")</f>
+      <c r="R1" s="70" t="str">
+        <f>CONCATENATE(P1, "_Resultat")</f>
         <v>Alex_Resultat</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="S1" s="15" t="str">
+        <f>CONCATENATE(P1, "_Hemma")</f>
+        <v>Alex_Hemma</v>
+      </c>
+      <c r="T1" s="67" t="str">
+        <f>CONCATENATE(P1, "_Borta")</f>
+        <v>Alex_Borta</v>
+      </c>
+      <c r="U1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="45" t="str">
-        <f>CONCATENATE(Q1, "_Odds")</f>
+      <c r="V1" s="44" t="str">
+        <f>CONCATENATE(U1, "_Odds")</f>
         <v>Douglas_Odds</v>
       </c>
-      <c r="S1" s="71" t="str">
-        <f>CONCATENATE(Q1, "_Resultat")</f>
+      <c r="W1" s="67" t="str">
+        <f>CONCATENATE(U1, "_Resultat")</f>
         <v>Douglas_Resultat</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="X1" s="15" t="str">
+        <f>CONCATENATE(U1, "_Hemma")</f>
+        <v>Douglas_Hemma</v>
+      </c>
+      <c r="Y1" s="67" t="str">
+        <f>CONCATENATE(U1, "_Borta")</f>
+        <v>Douglas_Borta</v>
+      </c>
+      <c r="Z1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="63" t="str">
-        <f>CONCATENATE(T1, "_Odds")</f>
+      <c r="AA1" s="62" t="str">
+        <f>CONCATENATE(Z1, "_Odds")</f>
         <v>Patrik_Odds</v>
       </c>
-      <c r="V1" s="74" t="str">
-        <f>CONCATENATE(T1, "_Resultat")</f>
+      <c r="AB1" s="70" t="str">
+        <f>CONCATENATE(Z1, "_Resultat")</f>
         <v>Patrik_Resultat</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="AC1" s="15" t="str">
+        <f>CONCATENATE(Z1, "_Hemma")</f>
+        <v>Patrik_Hemma</v>
+      </c>
+      <c r="AD1" s="67" t="str">
+        <f>CONCATENATE(Z1, "_Borta")</f>
+        <v>Patrik_Borta</v>
+      </c>
+      <c r="AE1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="45" t="str">
-        <f>CONCATENATE(W1, "_Odds")</f>
+      <c r="AF1" s="44" t="str">
+        <f>CONCATENATE(AE1, "_Odds")</f>
         <v>Jenny_Odds</v>
       </c>
-      <c r="Y1" s="91" t="str">
-        <f>CONCATENATE(W1, "_Resultat")</f>
+      <c r="AG1" s="87" t="str">
+        <f>CONCATENATE(AE1, "_Resultat")</f>
         <v>Jenny_Resultat</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="AH1" s="15" t="str">
+        <f>CONCATENATE(AE1, "_Hemma")</f>
+        <v>Jenny_Hemma</v>
+      </c>
+      <c r="AI1" s="67" t="str">
+        <f>CONCATENATE(AE1, "_Borta")</f>
+        <v>Jenny_Borta</v>
+      </c>
+      <c r="AJ1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="63" t="str">
-        <f>CONCATENATE(Z1, "_Odds")</f>
+      <c r="AK1" s="62" t="str">
+        <f>CONCATENATE(AJ1, "_Odds")</f>
         <v>Petra_Odds</v>
       </c>
-      <c r="AB1" s="74" t="str">
-        <f>CONCATENATE(Z1, "_Resultat")</f>
+      <c r="AL1" s="70" t="str">
+        <f>CONCATENATE(AJ1, "_Resultat")</f>
         <v>Petra_Resultat</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AM1" s="15" t="str">
+        <f>CONCATENATE(AJ1, "_Hemma")</f>
+        <v>Petra_Hemma</v>
+      </c>
+      <c r="AN1" s="67" t="str">
+        <f>CONCATENATE(AJ1, "_Borta")</f>
+        <v>Petra_Borta</v>
+      </c>
+      <c r="AO1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="45" t="str">
-        <f>CONCATENATE(AC1, "_Odds")</f>
+      <c r="AP1" s="44" t="str">
+        <f>CONCATENATE(AO1, "_Odds")</f>
         <v>Philip_Odds</v>
       </c>
-      <c r="AE1" s="91" t="str">
-        <f>CONCATENATE(AC1, "_Resultat")</f>
+      <c r="AQ1" s="87" t="str">
+        <f>CONCATENATE(AO1, "_Resultat")</f>
         <v>Philip_Resultat</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AR1" s="15" t="str">
+        <f>CONCATENATE(AO1, "_Hemma")</f>
+        <v>Philip_Hemma</v>
+      </c>
+      <c r="AS1" s="67" t="str">
+        <f>CONCATENATE(AO1, "_Borta")</f>
+        <v>Philip_Borta</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>43265</v>
       </c>
-      <c r="D2" s="99">
-        <v>1</v>
-      </c>
-      <c r="E2" s="55">
+      <c r="D2" s="90">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="49">
         <v>1</v>
       </c>
       <c r="G2" s="27">
@@ -1665,87 +2176,101 @@
         <f t="shared" ref="L2:L49" si="1">_xlfn.IFS(K2=1,$F2,K2="x",$G2,K2=2,$H2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="22">
-        <v>1</v>
-      </c>
-      <c r="O2" s="22">
-        <f t="shared" ref="O2:O49" si="2">_xlfn.IFS(N2=1,$F2,N2="x",$G2,N2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="P2" s="80" t="s">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="22">
+        <f t="shared" ref="Q2:Q49" si="2">_xlfn.IFS(P2=1,$F2,P2="x",$G2,P2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="17">
-        <v>1</v>
-      </c>
-      <c r="R2" s="17">
-        <f t="shared" ref="R2:R49" si="3">_xlfn.IFS(Q2=1,$F2,Q2="x",$G2,Q2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="17">
+        <v>1</v>
+      </c>
+      <c r="V2" s="17">
+        <f t="shared" ref="V2:V49" si="3">_xlfn.IFS(U2=1,$F2,U2="x",$G2,U2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="22">
-        <v>1</v>
-      </c>
-      <c r="U2" s="22">
-        <f t="shared" ref="U2:U49" si="4">_xlfn.IFS(T2=1,$F2,T2="x",$G2,T2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="V2" s="72" t="s">
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="22">
+        <f t="shared" ref="AA2:AA49" si="4">_xlfn.IFS(Z2=1,$F2,Z2="x",$G2,Z2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AB2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="17">
-        <v>1</v>
-      </c>
-      <c r="X2" s="17">
-        <f t="shared" ref="X2:X49" si="5">_xlfn.IFS(W2=1,$F2,W2="x",$G2,W2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="Y2" s="70" t="s">
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="17">
+        <f t="shared" ref="AF2:AF49" si="5">_xlfn.IFS(AE2=1,$F2,AE2="x",$G2,AE2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="22">
-        <f t="shared" ref="AA2:AA49" si="6">_xlfn.IFS(Z2=1,$F2,Z2="x",$G2,Z2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB2" s="72" t="s">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="22">
+        <f t="shared" ref="AK2:AK49" si="6">_xlfn.IFS(AJ2=1,$F2,AJ2="x",$G2,AJ2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="17">
-        <f t="shared" ref="AD2:AD49" si="7">_xlfn.IFS(AC2=1,$F2,AC2="x",$G2,AC2=2,$H2)</f>
-        <v>1</v>
-      </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="17">
+        <f t="shared" ref="AP2:AP49" si="7">_xlfn.IFS(AO2=1,$F2,AO2="x",$G2,AO2=2,$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="15.75">
-      <c r="A3" s="57" t="s">
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+    </row>
+    <row r="3" spans="1:45" ht="15.75">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>43266</v>
       </c>
-      <c r="D3" s="100">
-        <v>2</v>
-      </c>
-      <c r="E3" s="60">
+      <c r="D3" s="91">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="50">
         <v>4.0999999999999996</v>
       </c>
       <c r="G3" s="28">
@@ -1769,87 +2294,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="22">
+      <c r="Q3" s="22">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="R3" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="17">
+      <c r="V3" s="17">
         <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="S3" s="65" t="s">
+      <c r="W3" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="22">
+      <c r="AA3" s="22">
         <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="V3" s="72" t="s">
+      <c r="AB3" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="18">
-        <v>2</v>
-      </c>
-      <c r="X3" s="17">
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="AG3" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="22">
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="72" t="s">
+      <c r="AL3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="17">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE3" s="65" t="s">
+      <c r="AQ3" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="15.75">
-      <c r="A4" s="57" t="s">
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+    </row>
+    <row r="4" spans="1:45" ht="15.75">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="58">
         <v>43266</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="91">
         <v>3</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <v>2.5</v>
       </c>
       <c r="G4" s="28">
@@ -1873,87 +2412,101 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="23">
-        <v>1</v>
-      </c>
-      <c r="O4" s="22">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="22">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="17">
+      <c r="V4" s="17">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="W4" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="22">
+      <c r="AA4" s="22">
         <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="AB4" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="18">
-        <v>2</v>
-      </c>
-      <c r="X4" s="17">
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y4" s="65" t="s">
+      <c r="AG4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AK4" s="22">
         <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
-      <c r="AB4" s="72" t="s">
+      <c r="AL4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="17">
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="17">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="AE4" s="65" t="s">
+      <c r="AQ4" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="15.75">
-      <c r="A5" s="57" t="s">
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+    </row>
+    <row r="5" spans="1:45" ht="15.75">
+      <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <v>43266</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="91">
         <v>4</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <v>1</v>
       </c>
       <c r="G5" s="28">
@@ -1977,87 +2530,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="22">
+      <c r="Q5" s="22">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="R5" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="18">
-        <v>2</v>
-      </c>
-      <c r="R5" s="17">
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="18">
+        <v>2</v>
+      </c>
+      <c r="V5" s="17">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="S5" s="65" t="s">
+      <c r="W5" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="23">
-        <v>2</v>
-      </c>
-      <c r="U5" s="22">
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="22">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="AB5" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="17">
+      <c r="AF5" s="17">
         <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="Y5" s="65" t="s">
+      <c r="AG5" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="22">
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="22">
         <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
-      <c r="AB5" s="75" t="s">
+      <c r="AL5" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AP5" s="17">
         <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
-      <c r="AE5" s="65" t="s">
+      <c r="AQ5" s="64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>43267</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="92">
         <v>5</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <v>0.5</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <v>1</v>
       </c>
       <c r="G6" s="28">
@@ -2081,87 +2648,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="23">
-        <v>1</v>
-      </c>
-      <c r="O6" s="22">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="R6" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="18">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17">
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S6" s="65" t="s">
+      <c r="W6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="23">
-        <v>1</v>
-      </c>
-      <c r="U6" s="22">
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V6" s="72" t="s">
+      <c r="AB6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="18">
-        <v>1</v>
-      </c>
-      <c r="X6" s="17">
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="65" t="s">
+      <c r="AG6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="Z6" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="22">
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB6" s="72" t="s">
+      <c r="AL6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="17">
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE6" s="65" t="s">
+      <c r="AQ6" s="64" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>43267</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="92">
         <v>6</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>0.75</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>1.3</v>
       </c>
       <c r="G7" s="28">
@@ -2185,87 +2766,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="23">
-        <v>2</v>
-      </c>
-      <c r="O7" s="22">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P7" s="72" t="s">
+      <c r="R7" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="18">
-        <v>2</v>
-      </c>
-      <c r="R7" s="17">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S7" s="65" t="s">
+      <c r="W7" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T7" s="23">
-        <v>2</v>
-      </c>
-      <c r="U7" s="22">
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V7" s="72" t="s">
+      <c r="AB7" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="W7" s="18">
-        <v>2</v>
-      </c>
-      <c r="X7" s="17">
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y7" s="65" t="s">
+      <c r="AG7" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z7" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="22">
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="22">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="AB7" s="72" t="s">
+      <c r="AL7" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="17">
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="65" t="s">
+      <c r="AQ7" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="51">
         <v>43267</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="92">
         <v>7</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>0.625</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <v>1</v>
       </c>
       <c r="G8" s="28">
@@ -2289,87 +2884,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="23">
-        <v>2</v>
-      </c>
-      <c r="O8" s="22">
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="P8" s="72" t="s">
+      <c r="R8" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="18">
-        <v>1</v>
-      </c>
-      <c r="R8" s="17">
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="18">
+        <v>1</v>
+      </c>
+      <c r="V8" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S8" s="65" t="s">
+      <c r="W8" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="23">
-        <v>1</v>
-      </c>
-      <c r="U8" s="22">
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V8" s="72" t="s">
+      <c r="AB8" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="18">
-        <v>2</v>
-      </c>
-      <c r="X8" s="17">
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="17">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="Y8" s="65" t="s">
+      <c r="AG8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z8" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="22">
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="72" t="s">
+      <c r="AL8" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC8" s="18" t="s">
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" s="17">
+      <c r="AP8" s="17">
         <f t="shared" si="7"/>
         <v>3.7</v>
       </c>
-      <c r="AE8" s="65" t="s">
+      <c r="AQ8" s="64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <v>43267</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="92">
         <v>8</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="55">
         <v>0.875</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <v>1.5</v>
       </c>
       <c r="G9" s="28">
@@ -2393,87 +3002,101 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="23">
-        <v>1</v>
-      </c>
-      <c r="O9" s="22">
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="22">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="R9" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="17">
+      <c r="V9" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="65" t="s">
+      <c r="W9" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="23">
-        <v>2</v>
-      </c>
-      <c r="U9" s="22">
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="22">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="V9" s="75" t="s">
+      <c r="AB9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="W9" s="18">
-        <v>1</v>
-      </c>
-      <c r="X9" s="17">
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Y9" s="65" t="s">
+      <c r="AG9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="22">
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="22">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="AB9" s="75" t="s">
+      <c r="AL9" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="17">
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="17">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="AE9" s="65" t="s">
+      <c r="AQ9" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="15.75">
-      <c r="A10" s="57" t="s">
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+    </row>
+    <row r="10" spans="1:45" ht="15.75">
+      <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="58">
         <v>43268</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="91">
         <v>9</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <v>1</v>
       </c>
       <c r="G10" s="28">
@@ -2497,87 +3120,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="23">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P10" s="72" t="s">
+      <c r="R10" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="18">
-        <v>1</v>
-      </c>
-      <c r="R10" s="17">
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="18">
+        <v>1</v>
+      </c>
+      <c r="V10" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S10" s="65" t="s">
+      <c r="W10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T10" s="23">
-        <v>1</v>
-      </c>
-      <c r="U10" s="22">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V10" s="72" t="s">
+      <c r="AB10" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="W10" s="18">
-        <v>1</v>
-      </c>
-      <c r="X10" s="17">
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="65" t="s">
+      <c r="AG10" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="Z10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="22">
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB10" s="72" t="s">
+      <c r="AL10" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="17">
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE10" s="65" t="s">
+      <c r="AQ10" s="64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="15.75">
-      <c r="A11" s="57" t="s">
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+    </row>
+    <row r="11" spans="1:45" ht="15.75">
+      <c r="A11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>43268</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="91">
         <v>10</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <v>2.4</v>
       </c>
       <c r="G11" s="28">
@@ -2601,87 +3238,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="22">
+      <c r="Q11" s="22">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="P11" s="72" t="s">
+      <c r="R11" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="17">
+      <c r="V11" s="17">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="S11" s="65" t="s">
+      <c r="W11" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="23">
-        <v>1</v>
-      </c>
-      <c r="U11" s="22">
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="22">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="V11" s="72" t="s">
+      <c r="AB11" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="17">
+      <c r="AF11" s="17">
         <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
-      <c r="Y11" s="65" t="s">
+      <c r="AG11" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="AK11" s="22">
         <f t="shared" si="6"/>
         <v>1.7</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AL11" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AC11" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="17">
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE11" s="65" t="s">
+      <c r="AQ11" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="15.75">
-      <c r="A12" s="57" t="s">
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.75">
+      <c r="A12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>43268</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="91">
         <v>11</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>1</v>
       </c>
       <c r="G12" s="28">
@@ -2705,87 +3356,101 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="23">
-        <v>1</v>
-      </c>
-      <c r="O12" s="22">
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="72" t="s">
+      <c r="R12" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="18">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17">
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S12" s="65" t="s">
+      <c r="W12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="23">
-        <v>1</v>
-      </c>
-      <c r="U12" s="22">
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V12" s="72" t="s">
+      <c r="AB12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="18">
-        <v>1</v>
-      </c>
-      <c r="X12" s="17">
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="65" t="s">
+      <c r="AG12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="Z12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="22">
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="72" t="s">
+      <c r="AL12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AC12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="17">
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="65" t="s">
+      <c r="AQ12" s="64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>43269</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="92">
         <v>12</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>0.58333333333333404</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <v>1</v>
       </c>
       <c r="G13" s="28">
@@ -2809,87 +3474,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="23">
-        <v>1</v>
-      </c>
-      <c r="O13" s="22">
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="R13" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="17">
+      <c r="V13" s="17">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="S13" s="65" t="s">
+      <c r="W13" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="22">
+      <c r="AA13" s="22">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="V13" s="75" t="s">
+      <c r="AB13" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="17">
+      <c r="AF13" s="17">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="Y13" s="65" t="s">
+      <c r="AG13" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="22">
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB13" s="75" t="s">
+      <c r="AL13" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="AC13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="17">
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE13" s="65" t="s">
+      <c r="AQ13" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>43269</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="92">
         <v>13</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>1</v>
       </c>
       <c r="G14" s="28">
@@ -2913,87 +3592,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="23">
-        <v>2</v>
-      </c>
-      <c r="O14" s="22">
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="22">
         <f t="shared" si="2"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="P14" s="72" t="s">
+      <c r="R14" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="18">
-        <v>1</v>
-      </c>
-      <c r="R14" s="17">
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S14" s="65" t="s">
+      <c r="W14" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="23">
-        <v>1</v>
-      </c>
-      <c r="U14" s="22">
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V14" s="72" t="s">
+      <c r="AB14" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="18">
-        <v>1</v>
-      </c>
-      <c r="X14" s="17">
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="65" t="s">
+      <c r="AG14" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="Z14" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="22">
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB14" s="72" t="s">
+      <c r="AL14" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC14" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="17">
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="65" t="s">
+      <c r="AQ14" s="64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>43269</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="92">
         <v>14</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>7.1</v>
       </c>
       <c r="G15" s="28">
@@ -3017,87 +3710,101 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="23">
-        <v>2</v>
-      </c>
-      <c r="O15" s="22">
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="72" t="s">
+      <c r="R15" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="18">
-        <v>2</v>
-      </c>
-      <c r="R15" s="17">
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="18">
+        <v>2</v>
+      </c>
+      <c r="V15" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S15" s="65" t="s">
+      <c r="W15" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="22">
+      <c r="AA15" s="22">
         <f t="shared" si="4"/>
         <v>3.4</v>
       </c>
-      <c r="V15" s="72" t="s">
+      <c r="AB15" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="18">
-        <v>2</v>
-      </c>
-      <c r="X15" s="17">
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="65" t="s">
+      <c r="AG15" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="22">
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB15" s="72" t="s">
+      <c r="AL15" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AC15" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="17">
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE15" s="65" t="s">
+      <c r="AQ15" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="15.75">
-      <c r="A16" s="57" t="s">
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+    </row>
+    <row r="16" spans="1:45" ht="15.75">
+      <c r="A16" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="58">
         <v>43270</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="91">
         <v>15</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <v>1</v>
       </c>
       <c r="G16" s="28">
@@ -3121,87 +3828,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="23">
-        <v>1</v>
-      </c>
-      <c r="O16" s="22">
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="72" t="s">
+      <c r="R16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="18">
-        <v>1</v>
-      </c>
-      <c r="R16" s="17">
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="W16" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="23">
-        <v>1</v>
-      </c>
-      <c r="U16" s="22">
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V16" s="72" t="s">
+      <c r="AB16" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="18">
-        <v>1</v>
-      </c>
-      <c r="X16" s="17">
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="65" t="s">
+      <c r="AG16" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA16" s="22">
+      <c r="AK16" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AB16" s="72" t="s">
+      <c r="AL16" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AC16" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="17">
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE16" s="65" t="s">
+      <c r="AQ16" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="15.75">
-      <c r="A17" s="57" t="s">
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+    </row>
+    <row r="17" spans="1:45" ht="15.75">
+      <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="58">
         <v>43270</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="91">
         <v>16</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="59">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>1</v>
       </c>
       <c r="G17" s="28">
@@ -3225,191 +3946,219 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="22">
+      <c r="Q17" s="22">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="P17" s="75" t="s">
+      <c r="R17" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17">
+      <c r="V17" s="17">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="S17" s="65" t="s">
+      <c r="W17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="22">
+      <c r="AA17" s="22">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="V17" s="75" t="s">
+      <c r="AB17" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="17">
+      <c r="AF17" s="17">
         <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="Y17" s="65" t="s">
+      <c r="AG17" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Z17" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="22">
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB17" s="75" t="s">
+      <c r="AL17" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="AC17" s="18" t="s">
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="17">
+      <c r="AP17" s="17">
         <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE17" s="65" t="s">
+      <c r="AQ17" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="81" t="s">
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+    </row>
+    <row r="18" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="79">
         <v>43270</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="93">
         <v>17</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F18" s="85">
-        <v>1</v>
-      </c>
-      <c r="G18" s="86">
+      <c r="F18" s="81">
+        <v>1</v>
+      </c>
+      <c r="G18" s="82">
         <v>1.6</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="82">
         <v>1.9</v>
       </c>
-      <c r="I18" s="86">
+      <c r="I18" s="82">
         <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="82">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K18" s="86">
-        <v>1</v>
-      </c>
-      <c r="L18" s="87">
+      <c r="K18" s="82">
+        <v>1</v>
+      </c>
+      <c r="L18" s="83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M18" s="88" t="s">
+      <c r="M18" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="86">
-        <v>2</v>
-      </c>
-      <c r="O18" s="87">
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="82">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="83">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="P18" s="88" t="s">
+      <c r="R18" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="86">
-        <v>2</v>
-      </c>
-      <c r="R18" s="87">
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="82">
+        <v>2</v>
+      </c>
+      <c r="V18" s="83">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="S18" s="88" t="s">
+      <c r="W18" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="T18" s="86" t="s">
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="87">
+      <c r="AA18" s="83">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="V18" s="88" t="s">
+      <c r="AB18" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="W18" s="86">
-        <v>1</v>
-      </c>
-      <c r="X18" s="87">
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="82">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="83">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="88" t="s">
+      <c r="AG18" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="Z18" s="86">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="87">
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="82">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="83">
         <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
-      <c r="AB18" s="88" t="s">
+      <c r="AL18" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="AC18" s="86" t="s">
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="87">
+      <c r="AP18" s="83">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
-      <c r="AE18" s="88" t="s">
+      <c r="AQ18" s="84" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <v>43271</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="92">
         <v>18</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <v>1</v>
       </c>
       <c r="G19" s="28">
@@ -3433,87 +4182,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="23">
-        <v>1</v>
-      </c>
-      <c r="O19" s="22">
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P19" s="72" t="s">
+      <c r="R19" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="17">
+      <c r="V19" s="17">
         <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="S19" s="65" t="s">
+      <c r="W19" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="22">
+      <c r="AA19" s="22">
         <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
-      <c r="V19" s="72" t="s">
+      <c r="AB19" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="18">
-        <v>1</v>
-      </c>
-      <c r="X19" s="17">
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="65" t="s">
+      <c r="AG19" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="Z19" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="22">
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB19" s="72" t="s">
+      <c r="AL19" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC19" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="17">
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE19" s="65" t="s">
+      <c r="AQ19" s="64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="51">
         <v>43271</v>
       </c>
-      <c r="D20" s="101">
+      <c r="D20" s="92">
         <v>19</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <v>1</v>
       </c>
       <c r="G20" s="28">
@@ -3537,87 +4300,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="23">
-        <v>1</v>
-      </c>
-      <c r="O20" s="22">
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P20" s="72" t="s">
+      <c r="R20" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q20" s="18">
-        <v>1</v>
-      </c>
-      <c r="R20" s="17">
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="18">
+        <v>1</v>
+      </c>
+      <c r="V20" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S20" s="65" t="s">
+      <c r="W20" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T20" s="23">
-        <v>1</v>
-      </c>
-      <c r="U20" s="22">
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V20" s="72" t="s">
+      <c r="AB20" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="W20" s="18">
-        <v>1</v>
-      </c>
-      <c r="X20" s="17">
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="65" t="s">
+      <c r="AG20" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="Z20" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="22">
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB20" s="72" t="s">
+      <c r="AL20" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC20" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="17">
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE20" s="65" t="s">
+      <c r="AQ20" s="64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="51">
         <v>43271</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="92">
         <v>20</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <v>17.2</v>
       </c>
       <c r="G21" s="28">
@@ -3641,87 +4418,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="23">
-        <v>2</v>
-      </c>
-      <c r="O21" s="22">
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P21" s="75" t="s">
+      <c r="R21" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="18">
-        <v>2</v>
-      </c>
-      <c r="R21" s="17">
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="18">
+        <v>2</v>
+      </c>
+      <c r="V21" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="W21" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T21" s="23">
-        <v>2</v>
-      </c>
-      <c r="U21" s="22">
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V21" s="75" t="s">
+      <c r="AB21" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="W21" s="18">
-        <v>2</v>
-      </c>
-      <c r="X21" s="17">
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="65" t="s">
+      <c r="AG21" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="Z21" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="22">
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB21" s="75" t="s">
+      <c r="AL21" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="AC21" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="17">
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE21" s="65" t="s">
+      <c r="AQ21" s="64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>43272</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="91">
         <v>21</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <v>1</v>
       </c>
       <c r="G22" s="28">
@@ -3745,87 +4536,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M22" s="65" t="s">
+      <c r="M22" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="23">
-        <v>2</v>
-      </c>
-      <c r="O22" s="22">
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="22">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="P22" s="72" t="s">
+      <c r="R22" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="18">
-        <v>1</v>
-      </c>
-      <c r="R22" s="17">
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="18">
+        <v>1</v>
+      </c>
+      <c r="V22" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S22" s="65" t="s">
+      <c r="W22" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T22" s="23">
-        <v>1</v>
-      </c>
-      <c r="U22" s="22">
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V22" s="72" t="s">
+      <c r="AB22" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="17">
+      <c r="AF22" s="17">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="Y22" s="65" t="s">
+      <c r="AG22" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Z22" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="22">
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB22" s="72" t="s">
+      <c r="AL22" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AC22" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="17">
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="65" t="s">
+      <c r="AQ22" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A23" s="57" t="s">
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+    </row>
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="58">
         <v>43272</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="91">
         <v>22</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="59">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="50">
         <v>1</v>
       </c>
       <c r="G23" s="28">
@@ -3849,87 +4654,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="M23" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="23">
-        <v>1</v>
-      </c>
-      <c r="O23" s="22">
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P23" s="72" t="s">
+      <c r="R23" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="18">
-        <v>1</v>
-      </c>
-      <c r="R23" s="17">
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="18">
+        <v>1</v>
+      </c>
+      <c r="V23" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S23" s="65" t="s">
+      <c r="W23" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="22">
+      <c r="AA23" s="22">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="V23" s="72" t="s">
+      <c r="AB23" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="W23" s="18">
-        <v>1</v>
-      </c>
-      <c r="X23" s="17">
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="65" t="s">
+      <c r="AG23" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="Z23" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="22">
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB23" s="72" t="s">
+      <c r="AL23" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AC23" s="18" t="s">
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="68"/>
+      <c r="AO23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD23" s="17">
+      <c r="AP23" s="17">
         <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE23" s="65" t="s">
+      <c r="AQ23" s="64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A24" s="57" t="s">
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+    </row>
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A24" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="58">
         <v>43272</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="91">
         <v>23</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="50">
         <v>1.2</v>
       </c>
       <c r="G24" s="28">
@@ -3953,87 +4772,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="M24" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O24" s="22">
+      <c r="Q24" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P24" s="72" t="s">
+      <c r="R24" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="18">
-        <v>1</v>
-      </c>
-      <c r="R24" s="17">
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="18">
+        <v>1</v>
+      </c>
+      <c r="V24" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="S24" s="65" t="s">
+      <c r="W24" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="T24" s="23">
-        <v>2</v>
-      </c>
-      <c r="U24" s="22">
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="V24" s="72" t="s">
+      <c r="AB24" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="W24" s="18">
-        <v>1</v>
-      </c>
-      <c r="X24" s="17">
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="17">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="Y24" s="65" t="s">
+      <c r="AG24" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="22">
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AB24" s="72" t="s">
+      <c r="AL24" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AC24" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="17">
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="17">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="AE24" s="65" t="s">
+      <c r="AQ24" s="64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="51">
         <v>43273</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="92">
         <v>24</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="50">
         <v>1</v>
       </c>
       <c r="G25" s="28">
@@ -4057,87 +4890,101 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="M25" s="65" t="s">
+      <c r="M25" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="22">
+      <c r="Q25" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="P25" s="75" t="s">
+      <c r="R25" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R25" s="17">
+      <c r="V25" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="S25" s="65" t="s">
+      <c r="W25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T25" s="23">
-        <v>1</v>
-      </c>
-      <c r="U25" s="22">
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V25" s="75" t="s">
+      <c r="AB25" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="18">
-        <v>2</v>
-      </c>
-      <c r="X25" s="17">
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="17">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y25" s="65" t="s">
+      <c r="AG25" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Z25" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="22">
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="22">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB25" s="75" t="s">
+      <c r="AL25" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="AC25" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="17">
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="17">
         <f t="shared" si="7"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE25" s="65" t="s">
+      <c r="AQ25" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+    </row>
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>43273</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="92">
         <v>25</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <v>1</v>
       </c>
       <c r="G26" s="28">
@@ -4161,87 +5008,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M26" s="65" t="s">
+      <c r="M26" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="22">
+      <c r="Q26" s="22">
         <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="P26" s="72" t="s">
+      <c r="R26" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="Q26" s="18">
-        <v>1</v>
-      </c>
-      <c r="R26" s="17">
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="18">
+        <v>1</v>
+      </c>
+      <c r="V26" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S26" s="65" t="s">
+      <c r="W26" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="T26" s="23">
-        <v>1</v>
-      </c>
-      <c r="U26" s="22">
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V26" s="72" t="s">
+      <c r="AB26" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="W26" s="18">
-        <v>1</v>
-      </c>
-      <c r="X26" s="17">
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="65" t="s">
+      <c r="AG26" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="22">
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="72" t="s">
+      <c r="AL26" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC26" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="17">
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE26" s="65" t="s">
+      <c r="AQ26" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+    </row>
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="51">
         <v>43273</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="92">
         <v>26</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="50">
         <v>1.1000000000000001</v>
       </c>
       <c r="G27" s="28">
@@ -4265,87 +5126,101 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="23">
-        <v>1</v>
-      </c>
-      <c r="O27" s="22">
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="22">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P27" s="72" t="s">
+      <c r="R27" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="17">
+      <c r="V27" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="S27" s="65" t="s">
+      <c r="W27" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T27" s="23">
-        <v>2</v>
-      </c>
-      <c r="U27" s="22">
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V27" s="72" t="s">
+      <c r="AB27" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="W27" s="18">
-        <v>1</v>
-      </c>
-      <c r="X27" s="17">
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="17">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y27" s="65" t="s">
+      <c r="AG27" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA27" s="22">
+      <c r="AK27" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AB27" s="72" t="s">
+      <c r="AL27" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AC27" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="17">
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE27" s="65" t="s">
+      <c r="AQ27" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A28" s="57" t="s">
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+    </row>
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A28" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="58">
         <v>43274</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="91">
         <v>27</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="50">
         <v>1</v>
       </c>
       <c r="G28" s="28">
@@ -4369,87 +5244,101 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="M28" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="22">
+      <c r="Q28" s="22">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
-      <c r="P28" s="72" t="s">
+      <c r="R28" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="18">
-        <v>1</v>
-      </c>
-      <c r="R28" s="17">
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="18">
+        <v>1</v>
+      </c>
+      <c r="V28" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S28" s="65" t="s">
+      <c r="W28" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="T28" s="23">
-        <v>1</v>
-      </c>
-      <c r="U28" s="22">
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V28" s="72" t="s">
+      <c r="AB28" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="W28" s="18">
-        <v>1</v>
-      </c>
-      <c r="X28" s="17">
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="65" t="s">
+      <c r="AG28" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="22">
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB28" s="72" t="s">
+      <c r="AL28" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AC28" s="18" t="s">
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AP28" s="17">
         <f t="shared" si="7"/>
         <v>3.4</v>
       </c>
-      <c r="AE28" s="65" t="s">
+      <c r="AQ28" s="64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A29" s="57" t="s">
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+    </row>
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A29" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="58">
         <v>43274</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="91">
         <v>28</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="50">
         <v>2.6</v>
       </c>
       <c r="G29" s="28">
@@ -4473,87 +5362,101 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="M29" s="65" t="s">
+      <c r="M29" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N29" s="23">
-        <v>2</v>
-      </c>
-      <c r="O29" s="22">
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P29" s="75" t="s">
+      <c r="R29" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="18">
-        <v>2</v>
-      </c>
-      <c r="R29" s="17">
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="18">
+        <v>2</v>
+      </c>
+      <c r="V29" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S29" s="65" t="s">
+      <c r="W29" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T29" s="23">
-        <v>2</v>
-      </c>
-      <c r="U29" s="22">
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V29" s="75" t="s">
+      <c r="AB29" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="W29" s="18">
-        <v>1</v>
-      </c>
-      <c r="X29" s="17">
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="17">
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="Y29" s="65" t="s">
+      <c r="AG29" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Z29" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="22">
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="75" t="s">
+      <c r="AL29" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="AC29" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="17">
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE29" s="65" t="s">
+      <c r="AQ29" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A30" s="57" t="s">
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+    </row>
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="58">
         <v>43274</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="91">
         <v>29</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="59">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="50">
         <v>1</v>
       </c>
       <c r="G30" s="28">
@@ -4577,87 +5480,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="M30" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N30" s="23">
-        <v>1</v>
-      </c>
-      <c r="O30" s="22">
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P30" s="72" t="s">
+      <c r="R30" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="Q30" s="18">
-        <v>1</v>
-      </c>
-      <c r="R30" s="17">
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="18">
+        <v>1</v>
+      </c>
+      <c r="V30" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S30" s="65" t="s">
+      <c r="W30" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="T30" s="23">
-        <v>1</v>
-      </c>
-      <c r="U30" s="22">
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V30" s="72" t="s">
+      <c r="AB30" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="W30" s="18">
-        <v>1</v>
-      </c>
-      <c r="X30" s="17">
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="65" t="s">
+      <c r="AG30" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="Z30" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="22">
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB30" s="72" t="s">
+      <c r="AL30" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AC30" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="17">
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE30" s="65" t="s">
+      <c r="AQ30" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+    </row>
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="51">
         <v>43275</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="92">
         <v>30</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="50">
         <v>1</v>
       </c>
       <c r="G31" s="28">
@@ -4681,87 +5598,101 @@
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="22">
+      <c r="Q31" s="22">
         <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="P31" s="72" t="s">
+      <c r="R31" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="Q31" s="18">
-        <v>1</v>
-      </c>
-      <c r="R31" s="17">
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="18">
+        <v>1</v>
+      </c>
+      <c r="V31" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S31" s="65" t="s">
+      <c r="W31" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="T31" s="23">
-        <v>1</v>
-      </c>
-      <c r="U31" s="22">
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V31" s="72" t="s">
+      <c r="AB31" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="W31" s="18" t="s">
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X31" s="17">
+      <c r="AF31" s="17">
         <f t="shared" si="5"/>
         <v>5.7</v>
       </c>
-      <c r="Y31" s="65" t="s">
+      <c r="AG31" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Z31" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="22">
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB31" s="72" t="s">
+      <c r="AL31" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AC31" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="17">
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE31" s="65" t="s">
+      <c r="AQ31" s="64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="51">
         <v>43275</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="92">
         <v>31</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <v>1.3</v>
       </c>
       <c r="G32" s="28">
@@ -4785,87 +5716,101 @@
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="23">
-        <v>1</v>
-      </c>
-      <c r="O32" s="22">
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="22">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="P32" s="72" t="s">
+      <c r="R32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q32" s="18">
-        <v>1</v>
-      </c>
-      <c r="R32" s="17">
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="18">
+        <v>1</v>
+      </c>
+      <c r="V32" s="17">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
-      <c r="S32" s="65" t="s">
+      <c r="W32" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="T32" s="23">
-        <v>1</v>
-      </c>
-      <c r="U32" s="22">
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="V32" s="72" t="s">
+      <c r="AB32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="W32" s="18">
-        <v>2</v>
-      </c>
-      <c r="X32" s="17">
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y32" s="65" t="s">
+      <c r="AG32" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="Z32" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="22">
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="22">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="AB32" s="72" t="s">
+      <c r="AL32" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AC32" s="18" t="s">
+      <c r="AM32" s="68"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD32" s="17">
+      <c r="AP32" s="17">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
-      <c r="AE32" s="65" t="s">
+      <c r="AQ32" s="64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+    </row>
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="51">
         <v>43275</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="92">
         <v>32</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="50">
         <v>1.5</v>
       </c>
       <c r="G33" s="28">
@@ -4889,191 +5834,219 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="M33" s="65" t="s">
+      <c r="M33" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="22">
+      <c r="Q33" s="22">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="P33" s="75" t="s">
+      <c r="R33" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="17">
+      <c r="V33" s="17">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="S33" s="65" t="s">
+      <c r="W33" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="23">
-        <v>2</v>
-      </c>
-      <c r="U33" s="22">
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V33" s="75" t="s">
+      <c r="AB33" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="W33" s="18" t="s">
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X33" s="17">
+      <c r="AF33" s="17">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="Y33" s="65" t="s">
+      <c r="AG33" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="Z33" s="23" t="s">
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA33" s="22">
+      <c r="AK33" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AB33" s="75" t="s">
+      <c r="AL33" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="AC33" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="17">
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP33" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE33" s="65" t="s">
+      <c r="AQ33" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="81" t="s">
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+    </row>
+    <row r="34" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="83">
+      <c r="C34" s="79">
         <v>43276</v>
       </c>
-      <c r="D34" s="102">
+      <c r="D34" s="93">
         <v>33</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="80">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F34" s="85">
-        <v>1</v>
-      </c>
-      <c r="G34" s="86">
+      <c r="F34" s="81">
+        <v>1</v>
+      </c>
+      <c r="G34" s="82">
         <v>1.3</v>
       </c>
-      <c r="H34" s="86">
+      <c r="H34" s="82">
         <v>1.4</v>
       </c>
-      <c r="I34" s="86">
+      <c r="I34" s="82">
         <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="J34" s="86">
+      <c r="J34" s="82">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K34" s="86">
-        <v>1</v>
-      </c>
-      <c r="L34" s="87">
+      <c r="K34" s="82">
+        <v>1</v>
+      </c>
+      <c r="L34" s="83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M34" s="88" t="s">
+      <c r="M34" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="86">
-        <v>1</v>
-      </c>
-      <c r="O34" s="87">
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P34" s="88" t="s">
+      <c r="R34" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="86">
-        <v>2</v>
-      </c>
-      <c r="R34" s="87">
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="82">
+        <v>2</v>
+      </c>
+      <c r="V34" s="83">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="S34" s="88" t="s">
+      <c r="W34" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="T34" s="86">
-        <v>1</v>
-      </c>
-      <c r="U34" s="87">
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="82">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="83">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V34" s="88" t="s">
+      <c r="AB34" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="W34" s="86">
-        <v>1</v>
-      </c>
-      <c r="X34" s="87">
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="82">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="83">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y34" s="88" t="s">
+      <c r="AG34" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="Z34" s="86">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="87">
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="82">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="83">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB34" s="88" t="s">
+      <c r="AL34" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="AC34" s="86">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="87">
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="84"/>
+      <c r="AO34" s="82">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="83">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE34" s="88" t="s">
+      <c r="AQ34" s="84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A35" s="57" t="s">
+      <c r="AR34" s="84"/>
+      <c r="AS34" s="84"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A35" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="58">
         <v>43276</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="91">
         <v>34</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="59">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="50">
         <v>2.9</v>
       </c>
       <c r="G35" s="28">
@@ -5097,87 +6070,101 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="M35" s="65" t="s">
+      <c r="M35" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O35" s="22">
+      <c r="Q35" s="22">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="P35" s="72" t="s">
+      <c r="R35" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="Q35" s="18">
-        <v>2</v>
-      </c>
-      <c r="R35" s="17">
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="18">
+        <v>2</v>
+      </c>
+      <c r="V35" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S35" s="65" t="s">
+      <c r="W35" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T35" s="23">
-        <v>2</v>
-      </c>
-      <c r="U35" s="22">
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V35" s="72" t="s">
+      <c r="AB35" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="W35" s="18" t="s">
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X35" s="17">
+      <c r="AF35" s="17">
         <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
-      <c r="Y35" s="65" t="s">
+      <c r="AG35" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="22">
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB35" s="72" t="s">
+      <c r="AL35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AC35" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="17">
+      <c r="AM35" s="68"/>
+      <c r="AN35" s="68"/>
+      <c r="AO35" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP35" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE35" s="65" t="s">
+      <c r="AQ35" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A36" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="58">
         <v>43276</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="91">
         <v>35</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="50">
         <v>7.5</v>
       </c>
       <c r="G36" s="28">
@@ -5201,87 +6188,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="N36" s="23">
-        <v>2</v>
-      </c>
-      <c r="O36" s="22">
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P36" s="72" t="s">
+      <c r="R36" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="18">
-        <v>2</v>
-      </c>
-      <c r="R36" s="17">
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="18">
+        <v>2</v>
+      </c>
+      <c r="V36" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S36" s="65" t="s">
+      <c r="W36" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="T36" s="23">
-        <v>2</v>
-      </c>
-      <c r="U36" s="22">
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V36" s="72" t="s">
+      <c r="AB36" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="W36" s="18">
-        <v>2</v>
-      </c>
-      <c r="X36" s="17">
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="65" t="s">
+      <c r="AG36" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="Z36" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="22">
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB36" s="72" t="s">
+      <c r="AL36" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AC36" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD36" s="17">
+      <c r="AM36" s="68"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP36" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE36" s="65" t="s">
+      <c r="AQ36" s="64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A37" s="61" t="s">
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A37" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="58">
         <v>43276</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D37" s="91">
         <v>36</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="50">
         <v>1</v>
       </c>
       <c r="G37" s="28">
@@ -5305,87 +6306,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="23">
-        <v>1</v>
-      </c>
-      <c r="O37" s="22">
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P37" s="75" t="s">
+      <c r="R37" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="Q37" s="18">
-        <v>1</v>
-      </c>
-      <c r="R37" s="17">
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="18">
+        <v>1</v>
+      </c>
+      <c r="V37" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S37" s="65" t="s">
+      <c r="W37" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="T37" s="23">
-        <v>1</v>
-      </c>
-      <c r="U37" s="22">
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V37" s="75" t="s">
+      <c r="AB37" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="W37" s="18">
-        <v>1</v>
-      </c>
-      <c r="X37" s="17">
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y37" s="65" t="s">
+      <c r="AG37" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="Z37" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="22">
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB37" s="75" t="s">
+      <c r="AL37" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="AC37" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="17">
+      <c r="AM37" s="71"/>
+      <c r="AN37" s="71"/>
+      <c r="AO37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE37" s="65" t="s">
+      <c r="AQ37" s="64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+    </row>
+    <row r="38" spans="1:45" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="51">
         <v>43277</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="92">
         <v>37</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="50">
         <v>3.6</v>
       </c>
       <c r="G38" s="28">
@@ -5409,87 +6424,101 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N38" s="23" t="s">
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O38" s="22">
+      <c r="Q38" s="22">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="P38" s="72" t="s">
+      <c r="R38" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Q38" s="18">
-        <v>2</v>
-      </c>
-      <c r="R38" s="17">
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="18">
+        <v>2</v>
+      </c>
+      <c r="V38" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S38" s="65" t="s">
+      <c r="W38" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T38" s="23">
-        <v>2</v>
-      </c>
-      <c r="U38" s="22">
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V38" s="72" t="s">
+      <c r="AB38" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="W38" s="18">
-        <v>2</v>
-      </c>
-      <c r="X38" s="17">
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y38" s="65" t="s">
+      <c r="AG38" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Z38" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="22">
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB38" s="72" t="s">
+      <c r="AL38" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AC38" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD38" s="17">
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP38" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE38" s="65" t="s">
+      <c r="AQ38" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+    </row>
+    <row r="39" spans="1:45" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="51">
         <v>43277</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="92">
         <v>38</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="50">
         <v>1.6</v>
       </c>
       <c r="G39" s="28">
@@ -5513,87 +6542,101 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="M39" s="65" t="s">
+      <c r="M39" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N39" s="23">
-        <v>2</v>
-      </c>
-      <c r="O39" s="22">
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P39" s="72" t="s">
+      <c r="R39" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="17">
+      <c r="V39" s="17">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="S39" s="65" t="s">
+      <c r="W39" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="22">
+      <c r="AA39" s="22">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="V39" s="72" t="s">
+      <c r="AB39" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="W39" s="18" t="s">
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X39" s="17">
+      <c r="AF39" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Y39" s="65" t="s">
+      <c r="AG39" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="22">
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB39" s="72" t="s">
+      <c r="AL39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AC39" s="18" t="s">
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD39" s="17">
+      <c r="AP39" s="17">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="AE39" s="65" t="s">
+      <c r="AQ39" s="64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+    </row>
+    <row r="40" spans="1:45" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="51">
         <v>43277</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="92">
         <v>39</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="50">
         <v>5.3</v>
       </c>
       <c r="G40" s="28">
@@ -5617,87 +6660,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M40" s="65" t="s">
+      <c r="M40" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="N40" s="23">
-        <v>2</v>
-      </c>
-      <c r="O40" s="22">
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P40" s="72" t="s">
+      <c r="R40" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="18">
-        <v>2</v>
-      </c>
-      <c r="R40" s="17">
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="18">
+        <v>2</v>
+      </c>
+      <c r="V40" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S40" s="65" t="s">
+      <c r="W40" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T40" s="23">
-        <v>2</v>
-      </c>
-      <c r="U40" s="22">
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V40" s="72" t="s">
+      <c r="AB40" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="W40" s="18">
-        <v>2</v>
-      </c>
-      <c r="X40" s="17">
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y40" s="65" t="s">
+      <c r="AG40" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Z40" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="22">
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB40" s="72" t="s">
+      <c r="AL40" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AC40" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="17">
+      <c r="AM40" s="68"/>
+      <c r="AN40" s="68"/>
+      <c r="AO40" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE40" s="65" t="s">
+      <c r="AQ40" s="64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+    </row>
+    <row r="41" spans="1:45" ht="15.75" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="51">
         <v>43277</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="92">
         <v>40</v>
       </c>
-      <c r="E41" s="56">
+      <c r="E41" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="50">
         <v>1.4</v>
       </c>
       <c r="G41" s="28">
@@ -5721,87 +6778,101 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="M41" s="65" t="s">
+      <c r="M41" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="N41" s="23">
-        <v>2</v>
-      </c>
-      <c r="O41" s="22">
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="P41" s="75" t="s">
+      <c r="R41" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="Q41" s="18">
-        <v>2</v>
-      </c>
-      <c r="R41" s="17">
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="18">
+        <v>2</v>
+      </c>
+      <c r="V41" s="17">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="S41" s="65" t="s">
+      <c r="W41" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="22">
+      <c r="AA41" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V41" s="75" t="s">
+      <c r="AB41" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="18" t="s">
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X41" s="17">
+      <c r="AF41" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="65" t="s">
+      <c r="AG41" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="Z41" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="22">
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="22">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="AB41" s="75" t="s">
+      <c r="AL41" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="AC41" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="17">
+      <c r="AM41" s="71"/>
+      <c r="AN41" s="71"/>
+      <c r="AO41" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="17">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
-      <c r="AE41" s="65" t="s">
+      <c r="AQ41" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A42" s="57" t="s">
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+    </row>
+    <row r="42" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A42" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="58">
         <v>43278</v>
       </c>
-      <c r="D42" s="100">
+      <c r="D42" s="91">
         <v>41</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="50">
         <v>6.9</v>
       </c>
       <c r="G42" s="28">
@@ -5825,87 +6896,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M42" s="65" t="s">
+      <c r="M42" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="N42" s="23">
-        <v>2</v>
-      </c>
-      <c r="O42" s="22">
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P42" s="72" t="s">
+      <c r="R42" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="Q42" s="18">
-        <v>2</v>
-      </c>
-      <c r="R42" s="17">
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="18">
+        <v>2</v>
+      </c>
+      <c r="V42" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S42" s="65" t="s">
+      <c r="W42" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T42" s="23">
-        <v>2</v>
-      </c>
-      <c r="U42" s="22">
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V42" s="72" t="s">
+      <c r="AB42" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="W42" s="18">
-        <v>2</v>
-      </c>
-      <c r="X42" s="17">
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y42" s="65" t="s">
+      <c r="AG42" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="22">
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB42" s="72" t="s">
+      <c r="AL42" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AC42" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD42" s="17">
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="68"/>
+      <c r="AO42" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP42" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE42" s="65" t="s">
+      <c r="AQ42" s="64" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A43" s="57" t="s">
+      <c r="AR42" s="64"/>
+      <c r="AS42" s="64"/>
+    </row>
+    <row r="43" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="59">
+      <c r="C43" s="58">
         <v>43278</v>
       </c>
-      <c r="D43" s="100">
+      <c r="D43" s="91">
         <v>42</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="50">
         <v>1</v>
       </c>
       <c r="G43" s="28">
@@ -5929,87 +7014,101 @@
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="M43" s="65" t="s">
+      <c r="M43" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="N43" s="23">
-        <v>2</v>
-      </c>
-      <c r="O43" s="22">
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="22">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="P43" s="72" t="s">
+      <c r="R43" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R43" s="17">
+      <c r="V43" s="17">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="S43" s="65" t="s">
+      <c r="W43" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T43" s="23">
-        <v>1</v>
-      </c>
-      <c r="U43" s="22">
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V43" s="72" t="s">
+      <c r="AB43" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="W43" s="18">
-        <v>2</v>
-      </c>
-      <c r="X43" s="17">
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF43" s="17">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="Y43" s="95" t="s">
+      <c r="AG43" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="Z43" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="22">
+      <c r="AH43" s="88"/>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="72" t="s">
+      <c r="AL43" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AC43" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="17">
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE43" s="95" t="s">
+      <c r="AQ43" s="88" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A44" s="57" t="s">
+      <c r="AR43" s="88"/>
+      <c r="AS43" s="88"/>
+    </row>
+    <row r="44" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A44" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="58">
         <v>43278</v>
       </c>
-      <c r="D44" s="100">
+      <c r="D44" s="91">
         <v>43</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="59">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="50">
         <v>10</v>
       </c>
       <c r="G44" s="28">
@@ -6033,87 +7132,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M44" s="65" t="s">
+      <c r="M44" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="N44" s="23">
-        <v>2</v>
-      </c>
-      <c r="O44" s="22">
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P44" s="72" t="s">
+      <c r="R44" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="18">
-        <v>2</v>
-      </c>
-      <c r="R44" s="17">
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="18">
+        <v>2</v>
+      </c>
+      <c r="V44" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S44" s="65" t="s">
+      <c r="W44" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="23">
-        <v>2</v>
-      </c>
-      <c r="U44" s="22">
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V44" s="72" t="s">
+      <c r="AB44" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="W44" s="18">
-        <v>2</v>
-      </c>
-      <c r="X44" s="17">
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="65" t="s">
+      <c r="AG44" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="Z44" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="22">
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="72" t="s">
+      <c r="AL44" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="AC44" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD44" s="17">
+      <c r="AM44" s="68"/>
+      <c r="AN44" s="68"/>
+      <c r="AO44" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP44" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE44" s="65" t="s">
+      <c r="AQ44" s="64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A45" s="57" t="s">
+      <c r="AR44" s="64"/>
+      <c r="AS44" s="64"/>
+    </row>
+    <row r="45" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A45" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="59">
+      <c r="C45" s="58">
         <v>43278</v>
       </c>
-      <c r="D45" s="100">
+      <c r="D45" s="91">
         <v>44</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="59">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="50">
         <v>1</v>
       </c>
       <c r="G45" s="28">
@@ -6137,87 +7250,101 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="M45" s="65" t="s">
+      <c r="M45" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N45" s="23">
-        <v>2</v>
-      </c>
-      <c r="O45" s="22">
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="22">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="P45" s="75" t="s">
+      <c r="R45" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="Q45" s="18">
-        <v>1</v>
-      </c>
-      <c r="R45" s="17">
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="18">
+        <v>1</v>
+      </c>
+      <c r="V45" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S45" s="65" t="s">
+      <c r="W45" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="T45" s="23" t="s">
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="22">
+      <c r="AA45" s="22">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="V45" s="75" t="s">
+      <c r="AB45" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="W45" s="18">
-        <v>2</v>
-      </c>
-      <c r="X45" s="17">
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF45" s="17">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="Y45" s="65" t="s">
+      <c r="AG45" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="Z45" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="22">
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB45" s="75" t="s">
+      <c r="AL45" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="AC45" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD45" s="17">
+      <c r="AM45" s="71"/>
+      <c r="AN45" s="71"/>
+      <c r="AO45" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP45" s="17">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="AE45" s="65" t="s">
+      <c r="AQ45" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR45" s="64"/>
+      <c r="AS45" s="64"/>
+    </row>
+    <row r="46" spans="1:45" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="51">
         <v>43279</v>
       </c>
-      <c r="D46" s="101">
+      <c r="D46" s="92">
         <v>45</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="50">
         <v>1.2</v>
       </c>
       <c r="G46" s="28">
@@ -6241,87 +7368,101 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M46" s="65" t="s">
+      <c r="M46" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O46" s="22">
+      <c r="Q46" s="22">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="P46" s="72" t="s">
+      <c r="R46" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q46" s="18">
-        <v>2</v>
-      </c>
-      <c r="R46" s="17">
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="18">
+        <v>2</v>
+      </c>
+      <c r="V46" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S46" s="65" t="s">
+      <c r="W46" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="T46" s="23" t="s">
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="22">
+      <c r="AA46" s="22">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="V46" s="72" t="s">
+      <c r="AB46" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="W46" s="18">
-        <v>2</v>
-      </c>
-      <c r="X46" s="17">
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y46" s="65" t="s">
+      <c r="AG46" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Z46" s="23" t="s">
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA46" s="22">
+      <c r="AK46" s="22">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AB46" s="72" t="s">
+      <c r="AL46" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AC46" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD46" s="17">
+      <c r="AM46" s="68"/>
+      <c r="AN46" s="68"/>
+      <c r="AO46" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP46" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE46" s="65" t="s">
+      <c r="AQ46" s="64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR46" s="64"/>
+      <c r="AS46" s="64"/>
+    </row>
+    <row r="47" spans="1:45" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="51">
         <v>43279</v>
       </c>
-      <c r="D47" s="101">
+      <c r="D47" s="92">
         <v>46</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="50">
         <v>1.6</v>
       </c>
       <c r="G47" s="28">
@@ -6345,87 +7486,101 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="M47" s="65" t="s">
+      <c r="M47" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N47" s="23">
-        <v>1</v>
-      </c>
-      <c r="O47" s="22">
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="22">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="P47" s="72" t="s">
+      <c r="R47" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="Q47" s="18" t="s">
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R47" s="17">
+      <c r="V47" s="17">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="S47" s="65" t="s">
+      <c r="W47" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T47" s="23">
-        <v>2</v>
-      </c>
-      <c r="U47" s="22">
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V47" s="72" t="s">
+      <c r="AB47" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="W47" s="18" t="s">
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="17">
+      <c r="AF47" s="17">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Y47" s="65" t="s">
+      <c r="AG47" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="Z47" s="23" t="s">
+      <c r="AH47" s="139"/>
+      <c r="AI47" s="139"/>
+      <c r="AJ47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="22">
+      <c r="AK47" s="22">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="AB47" s="72" t="s">
+      <c r="AL47" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AC47" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="17">
+      <c r="AM47" s="68"/>
+      <c r="AN47" s="68"/>
+      <c r="AO47" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="17">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
-      <c r="AE47" s="65" t="s">
+      <c r="AQ47" s="64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" ht="15.75" customHeight="1">
+      <c r="AR47" s="64"/>
+      <c r="AS47" s="64"/>
+    </row>
+    <row r="48" spans="1:45" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="51">
         <v>43279</v>
       </c>
-      <c r="D48" s="101">
+      <c r="D48" s="92">
         <v>47</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="50">
         <v>2.2999999999999998</v>
       </c>
       <c r="G48" s="28">
@@ -6449,392 +7604,1806 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="M48" s="65" t="s">
+      <c r="M48" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N48" s="23">
-        <v>2</v>
-      </c>
-      <c r="O48" s="22">
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P48" s="72" t="s">
+      <c r="R48" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="Q48" s="18">
-        <v>2</v>
-      </c>
-      <c r="R48" s="17">
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="18">
+        <v>2</v>
+      </c>
+      <c r="V48" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S48" s="65" t="s">
+      <c r="W48" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="T48" s="23">
-        <v>2</v>
-      </c>
-      <c r="U48" s="22">
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V48" s="72" t="s">
+      <c r="AB48" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="W48" s="18">
-        <v>1</v>
-      </c>
-      <c r="X48" s="17">
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="68"/>
+      <c r="AE48" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="17">
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y48" s="65" t="s">
+      <c r="AG48" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="Z48" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA48" s="22">
+      <c r="AH48" s="139"/>
+      <c r="AI48" s="139"/>
+      <c r="AJ48" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB48" s="72" t="s">
+      <c r="AL48" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AC48" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD48" s="17">
+      <c r="AM48" s="68"/>
+      <c r="AN48" s="68"/>
+      <c r="AO48" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP48" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE48" s="65" t="s">
+      <c r="AQ48" s="64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="11" t="s">
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="64"/>
+    </row>
+    <row r="49" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A49" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="100">
         <v>43279</v>
       </c>
       <c r="D49" s="101">
         <v>48</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="102">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="103">
         <v>1.9</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="104">
         <v>1.7</v>
       </c>
-      <c r="H49" s="28">
-        <v>1</v>
-      </c>
-      <c r="I49" s="30">
+      <c r="H49" s="104">
+        <v>1</v>
+      </c>
+      <c r="I49" s="105">
         <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="105">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="96">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="M49" s="66" t="s">
+      <c r="M49" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="O49" s="22">
+      <c r="Q49" s="106">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="P49" s="75" t="s">
+      <c r="R49" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="Q49" s="19" t="s">
+      <c r="S49" s="97"/>
+      <c r="T49" s="97"/>
+      <c r="U49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R49" s="17">
+      <c r="V49" s="96">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="S49" s="66" t="s">
+      <c r="W49" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="T49" s="24" t="s">
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="22">
+      <c r="AA49" s="106">
         <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
-      <c r="V49" s="75" t="s">
+      <c r="AB49" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="W49" s="19">
-        <v>1</v>
-      </c>
-      <c r="X49" s="17">
+      <c r="AC49" s="97"/>
+      <c r="AD49" s="97"/>
+      <c r="AE49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="96">
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-      <c r="Y49" s="66" t="s">
+      <c r="AG49" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="Z49" s="24">
-        <v>2</v>
-      </c>
-      <c r="AA49" s="22">
+      <c r="AH49" s="139"/>
+      <c r="AI49" s="139"/>
+      <c r="AJ49" s="24">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB49" s="75" t="s">
+      <c r="AL49" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="AC49" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="17">
+      <c r="AM49" s="97"/>
+      <c r="AN49" s="97"/>
+      <c r="AO49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="96">
         <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
-      <c r="AE49" s="66" t="s">
+      <c r="AQ49" s="65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="34">
+      <c r="AR49" s="64"/>
+      <c r="AS49" s="64"/>
+    </row>
+    <row r="50" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="147">
+        <v>43281</v>
+      </c>
+      <c r="D50" s="148">
+        <v>49</v>
+      </c>
+      <c r="E50" s="149">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="150"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="150"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="153"/>
+      <c r="S50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" s="150"/>
+      <c r="V50" s="150"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z50" s="150"/>
+      <c r="AA50" s="150"/>
+      <c r="AB50" s="153"/>
+      <c r="AC50" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD50" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE50" s="150"/>
+      <c r="AF50" s="150"/>
+      <c r="AG50" s="151"/>
+      <c r="AH50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI50" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ50" s="150"/>
+      <c r="AK50" s="150"/>
+      <c r="AL50" s="153"/>
+      <c r="AM50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN50" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO50" s="150"/>
+      <c r="AP50" s="150"/>
+      <c r="AQ50" s="151"/>
+      <c r="AR50" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS50" s="152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A51" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="51">
+        <v>43281</v>
+      </c>
+      <c r="D51" s="92">
+        <v>50</v>
+      </c>
+      <c r="E51" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="T51" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y51" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="107"/>
+      <c r="AC51" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD51" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="139"/>
+      <c r="AH51" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI51" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="107"/>
+      <c r="AM51" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN51" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="64"/>
+      <c r="AR51" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS51" s="136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A52" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="51">
+        <v>43282</v>
+      </c>
+      <c r="D52" s="92">
+        <v>51</v>
+      </c>
+      <c r="E52" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y52" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="107"/>
+      <c r="AC52" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD52" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="139"/>
+      <c r="AH52" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI52" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="107"/>
+      <c r="AM52" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN52" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="64"/>
+      <c r="AR52" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS52" s="136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A53" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="51">
+        <v>43282</v>
+      </c>
+      <c r="D53" s="92">
+        <v>52</v>
+      </c>
+      <c r="E53" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y53" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD53" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="139"/>
+      <c r="AH53" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI53" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="107"/>
+      <c r="AM53" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN53" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS53" s="136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A54" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="51">
+        <v>43283</v>
+      </c>
+      <c r="D54" s="92">
+        <v>53</v>
+      </c>
+      <c r="E54" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="T54" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y54" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="107"/>
+      <c r="AC54" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD54" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="139"/>
+      <c r="AH54" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI54" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="107"/>
+      <c r="AM54" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN54" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="64"/>
+      <c r="AR54" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS54" s="136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A55" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="51">
+        <v>43283</v>
+      </c>
+      <c r="D55" s="92">
+        <v>54</v>
+      </c>
+      <c r="E55" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="T55" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y55" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD55" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="139"/>
+      <c r="AH55" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI55" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="107"/>
+      <c r="AM55" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN55" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS55" s="136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A56" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="51">
+        <v>43284</v>
+      </c>
+      <c r="D56" s="92">
+        <v>55</v>
+      </c>
+      <c r="E56" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y56" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD56" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="139"/>
+      <c r="AH56" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI56" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="107"/>
+      <c r="AM56" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN56" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="64"/>
+      <c r="AR56" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS56" s="136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A57" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="51">
+        <v>43284</v>
+      </c>
+      <c r="D57" s="92">
+        <v>56</v>
+      </c>
+      <c r="E57" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y57" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="107"/>
+      <c r="AC57" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD57" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="139"/>
+      <c r="AH57" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI57" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ57" s="23"/>
+      <c r="AK57" s="23"/>
+      <c r="AL57" s="107"/>
+      <c r="AM57" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN57" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="64"/>
+      <c r="AR57" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS57" s="136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="147">
+        <v>43287</v>
+      </c>
+      <c r="D58" s="148">
+        <v>57</v>
+      </c>
+      <c r="E58" s="149">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
+      <c r="K58" s="150"/>
+      <c r="L58" s="150"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="150"/>
+      <c r="Q58" s="150"/>
+      <c r="R58" s="153"/>
+      <c r="S58" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="U58" s="150"/>
+      <c r="V58" s="150"/>
+      <c r="W58" s="151"/>
+      <c r="X58" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z58" s="150"/>
+      <c r="AA58" s="150"/>
+      <c r="AB58" s="153"/>
+      <c r="AC58" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD58" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE58" s="150"/>
+      <c r="AF58" s="150"/>
+      <c r="AG58" s="151"/>
+      <c r="AH58" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI58" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ58" s="150"/>
+      <c r="AK58" s="150"/>
+      <c r="AL58" s="153"/>
+      <c r="AM58" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN58" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO58" s="150"/>
+      <c r="AP58" s="150"/>
+      <c r="AQ58" s="151"/>
+      <c r="AR58" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS58" s="152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A59" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="155">
+        <v>43287</v>
+      </c>
+      <c r="D59" s="92">
+        <v>58</v>
+      </c>
+      <c r="E59" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="T59" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y59" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="107"/>
+      <c r="AC59" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD59" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="139"/>
+      <c r="AH59" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI59" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ59" s="23"/>
+      <c r="AK59" s="23"/>
+      <c r="AL59" s="107"/>
+      <c r="AM59" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN59" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="64"/>
+      <c r="AR59" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS59" s="136" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A60" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="155">
+        <v>43288</v>
+      </c>
+      <c r="D60" s="92">
+        <v>59</v>
+      </c>
+      <c r="E60" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="T60" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y60" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD60" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="139"/>
+      <c r="AH60" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI60" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ60" s="23"/>
+      <c r="AK60" s="23"/>
+      <c r="AL60" s="107"/>
+      <c r="AM60" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN60" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="64"/>
+      <c r="AR60" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS60" s="136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A61" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="155">
+        <v>43288</v>
+      </c>
+      <c r="D61" s="92">
+        <v>60</v>
+      </c>
+      <c r="E61" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="T61" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y61" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="107"/>
+      <c r="AC61" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD61" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="139"/>
+      <c r="AH61" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI61" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
+      <c r="AL61" s="107"/>
+      <c r="AM61" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN61" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO61" s="18"/>
+      <c r="AP61" s="18"/>
+      <c r="AQ61" s="64"/>
+      <c r="AR61" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS61" s="136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="147">
+        <v>43291</v>
+      </c>
+      <c r="D62" s="148">
+        <v>61</v>
+      </c>
+      <c r="E62" s="149">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="150"/>
+      <c r="K62" s="150"/>
+      <c r="L62" s="150"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="150"/>
+      <c r="Q62" s="150"/>
+      <c r="R62" s="153"/>
+      <c r="S62" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="U62" s="150"/>
+      <c r="V62" s="150"/>
+      <c r="W62" s="151"/>
+      <c r="X62" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z62" s="150"/>
+      <c r="AA62" s="150"/>
+      <c r="AB62" s="153"/>
+      <c r="AC62" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD62" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE62" s="150"/>
+      <c r="AF62" s="150"/>
+      <c r="AG62" s="151"/>
+      <c r="AH62" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI62" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ62" s="150"/>
+      <c r="AK62" s="150"/>
+      <c r="AL62" s="153"/>
+      <c r="AM62" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN62" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO62" s="150"/>
+      <c r="AP62" s="150"/>
+      <c r="AQ62" s="151"/>
+      <c r="AR62" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS62" s="152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A63" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="155">
+        <v>43292</v>
+      </c>
+      <c r="D63" s="92">
+        <v>62</v>
+      </c>
+      <c r="E63" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD63" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="139"/>
+      <c r="AH63" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI63" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="107"/>
+      <c r="AM63" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN63" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="18"/>
+      <c r="AQ63" s="64"/>
+      <c r="AR63" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS63" s="136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="147">
+        <v>43295</v>
+      </c>
+      <c r="D64" s="148">
+        <v>63</v>
+      </c>
+      <c r="E64" s="149">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="150"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="150"/>
+      <c r="Q64" s="150"/>
+      <c r="R64" s="153"/>
+      <c r="S64" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="T64" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="U64" s="150"/>
+      <c r="V64" s="150"/>
+      <c r="W64" s="151"/>
+      <c r="X64" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="150"/>
+      <c r="AA64" s="150"/>
+      <c r="AB64" s="153"/>
+      <c r="AC64" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD64" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE64" s="150"/>
+      <c r="AF64" s="150"/>
+      <c r="AG64" s="151"/>
+      <c r="AH64" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI64" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ64" s="150"/>
+      <c r="AK64" s="150"/>
+      <c r="AL64" s="153"/>
+      <c r="AM64" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN64" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO64" s="150"/>
+      <c r="AP64" s="150"/>
+      <c r="AQ64" s="151"/>
+      <c r="AR64" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS64" s="152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A65" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="155">
+        <v>43296</v>
+      </c>
+      <c r="D65" s="92">
+        <v>64</v>
+      </c>
+      <c r="E65" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="T65" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y65" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="109"/>
+      <c r="AC65" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD65" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="143"/>
+      <c r="AH65" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI65" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ65" s="24"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="109"/>
+      <c r="AM65" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN65" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO65" s="19"/>
+      <c r="AP65" s="19"/>
+      <c r="AQ65" s="65"/>
+      <c r="AR65" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS65" s="141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="34">
         <f>SUM(I2:I49)</f>
         <v>247.10000000000002</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J66" s="108">
         <f>SUM(J2:J49)</f>
         <v>48</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L66" s="116">
         <f>SUM(L2:L49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="M50" s="67"/>
-      <c r="N50" s="36" t="s">
+      <c r="M66" s="122"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="25">
-        <f>SUM(O2:O49)</f>
+      <c r="Q66" s="25">
+        <f>SUM(Q2:Q49)</f>
         <v>102.90000000000003</v>
       </c>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="31" t="s">
+      <c r="R66" s="110"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="R50" s="20">
-        <f>SUM(R2:R49)</f>
+      <c r="V66" s="20">
+        <f>SUM(V2:V49)</f>
         <v>62.800000000000004</v>
       </c>
-      <c r="S50" s="67"/>
-      <c r="T50" s="36" t="s">
+      <c r="W66" s="122"/>
+      <c r="X66" s="123"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="U50" s="25">
-        <f>SUM(U2:U49)</f>
+      <c r="AA66" s="25">
+        <f>SUM(AA2:AA49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="V50" s="76"/>
-      <c r="W50" s="31" t="s">
+      <c r="AB66" s="110"/>
+      <c r="AC66" s="72"/>
+      <c r="AD66" s="111"/>
+      <c r="AE66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="X50" s="20">
-        <f>SUM(X2:X49)</f>
+      <c r="AF66" s="116">
+        <f>SUM(AF2:AF49)</f>
         <v>74.700000000000017</v>
       </c>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="36" t="s">
+      <c r="AG66" s="128"/>
+      <c r="AH66" s="129"/>
+      <c r="AI66" s="130"/>
+      <c r="AJ66" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AA50" s="25">
-        <f>SUM(AA2:AA49)</f>
+      <c r="AK66" s="25">
+        <f>SUM(AK2:AK49)</f>
         <v>54.499999999999993</v>
       </c>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="31" t="s">
+      <c r="AL66" s="110"/>
+      <c r="AM66" s="72"/>
+      <c r="AN66" s="72"/>
+      <c r="AO66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AD50" s="20">
-        <f>SUM(AD2:AD49)</f>
+      <c r="AP66" s="20">
+        <f>SUM(AP2:AP49)</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="AE50" s="92"/>
-    </row>
-    <row r="51" spans="1:31" ht="15.75" customHeight="1">
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="39" t="s">
+      <c r="AQ66" s="128"/>
+      <c r="AR66" s="129"/>
+      <c r="AS66" s="130"/>
+    </row>
+    <row r="67" spans="1:45" ht="15.75" customHeight="1">
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L67" s="117">
         <f>COUNTIF(L2:L49,1)</f>
         <v>27</v>
       </c>
-      <c r="M51" s="68"/>
-      <c r="N51" s="41" t="s">
+      <c r="M67" s="124"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="O51" s="40">
-        <f>COUNTIF(O2:O49,1)</f>
+      <c r="Q67" s="39">
+        <f>COUNTIF(Q2:Q49,1)</f>
         <v>23</v>
       </c>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="39" t="s">
+      <c r="R67" s="112"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="113"/>
+      <c r="U67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="R51" s="38">
-        <f>COUNTIF(R2:R49,1)</f>
+      <c r="V67" s="37">
+        <f>COUNTIF(V2:V49,1)</f>
         <v>29</v>
       </c>
-      <c r="S51" s="68"/>
-      <c r="T51" s="41" t="s">
+      <c r="W67" s="124"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="U51" s="40">
-        <f>COUNTIF(U2:U49,1)</f>
+      <c r="AA67" s="39">
+        <f>COUNTIF(AA2:AA49,1)</f>
         <v>31</v>
       </c>
-      <c r="V51" s="77"/>
-      <c r="W51" s="39" t="s">
+      <c r="AB67" s="112"/>
+      <c r="AC67" s="73"/>
+      <c r="AD67" s="113"/>
+      <c r="AE67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="X51" s="38">
-        <f>COUNTIF(X2:X49,1)</f>
+      <c r="AF67" s="117">
+        <f>COUNTIF(AF2:AF49,1)</f>
         <v>28</v>
       </c>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="41" t="s">
+      <c r="AG67" s="131"/>
+      <c r="AH67" s="127"/>
+      <c r="AI67" s="132"/>
+      <c r="AJ67" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AA51" s="40">
-        <f>COUNTIF(AA2:AA49,1)</f>
+      <c r="AK67" s="39">
+        <f>COUNTIF(AK2:AK49,1)</f>
         <v>33</v>
       </c>
-      <c r="AB51" s="77"/>
-      <c r="AC51" s="39" t="s">
+      <c r="AL67" s="112"/>
+      <c r="AM67" s="73"/>
+      <c r="AN67" s="73"/>
+      <c r="AO67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AD51" s="38">
-        <f>COUNTIF(AD2:AD49,1)</f>
+      <c r="AP67" s="37">
+        <f>COUNTIF(AP2:AP49,1)</f>
         <v>32</v>
       </c>
-      <c r="AE51" s="93"/>
-    </row>
-    <row r="52" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
-      <c r="K52" s="32" t="s">
+      <c r="AQ67" s="131"/>
+      <c r="AR67" s="127"/>
+      <c r="AS67" s="132"/>
+    </row>
+    <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="21">
-        <f>1-(-$J$50+L50)/($I$50-$J$50)</f>
+      <c r="L68" s="118">
+        <f>1-(-$J$66+L66)/($I$66-$J$66)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="M52" s="69"/>
-      <c r="N52" s="37" t="s">
+      <c r="M68" s="125"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="O52" s="26">
-        <f>1-(-$J$50+O50)/($I$50-$J$50)</f>
+      <c r="Q68" s="26">
+        <f>1-(-$J$66+Q66)/($I$66-$J$66)</f>
         <v>0.72425916624811637</v>
       </c>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="32" t="s">
+      <c r="R68" s="114"/>
+      <c r="S68" s="74"/>
+      <c r="T68" s="115"/>
+      <c r="U68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="R52" s="21">
-        <f>1-(-$J$50+R50)/($I$50-$J$50)</f>
+      <c r="V68" s="21">
+        <f>1-(-$J$66+V66)/($I$66-$J$66)</f>
         <v>0.92566549472626813</v>
       </c>
-      <c r="S52" s="69"/>
-      <c r="T52" s="37" t="s">
+      <c r="W68" s="125"/>
+      <c r="X68" s="126"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="U52" s="26">
-        <f>1-(-$J$50+U50)/($I$50-$J$50)</f>
+      <c r="AA68" s="26">
+        <f>1-(-$J$66+AA66)/($I$66-$J$66)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="V52" s="78"/>
-      <c r="W52" s="32" t="s">
+      <c r="AB68" s="114"/>
+      <c r="AC68" s="74"/>
+      <c r="AD68" s="115"/>
+      <c r="AE68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X52" s="21">
-        <f>1-(-$J$50+X50)/($I$50-$J$50)</f>
+      <c r="AF68" s="118">
+        <f>1-(-$J$66+AF66)/($I$66-$J$66)</f>
         <v>0.86589653440482162</v>
       </c>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="37" t="s">
+      <c r="AG68" s="133"/>
+      <c r="AH68" s="134"/>
+      <c r="AI68" s="135"/>
+      <c r="AJ68" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AA52" s="26">
-        <f>1-(-$J$50+AA50)/($I$50-$J$50)</f>
+      <c r="AK68" s="26">
+        <f>1-(-$J$66+AK66)/($I$66-$J$66)</f>
         <v>0.96735308890005023</v>
       </c>
-      <c r="AB52" s="78"/>
-      <c r="AC52" s="32" t="s">
+      <c r="AL68" s="114"/>
+      <c r="AM68" s="74"/>
+      <c r="AN68" s="74"/>
+      <c r="AO68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AD52" s="21">
-        <f>1-(-$J$50+AD50)/($I$50-$J$50)</f>
+      <c r="AP68" s="21">
+        <f>1-(-$J$66+AP66)/($I$66-$J$66)</f>
         <v>0.93119035660472127</v>
       </c>
-      <c r="AE52" s="94"/>
-    </row>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:31" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="AQ68" s="133"/>
+      <c r="AR68" s="134"/>
+      <c r="AS68" s="135"/>
+    </row>
+    <row r="69" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="70" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="71" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:45" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:45" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7578,6 +10147,22 @@
     <row r="821" ht="15.75" customHeight="1"/>
     <row r="822" ht="15.75" customHeight="1"/>
     <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7598,14 +10183,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="97"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="123">
   <si>
     <t>Resultat</t>
   </si>
@@ -318,18 +318,6 @@
   </si>
   <si>
     <t>Portgual</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C2</t>
   </si>
   <si>
     <t>E1</t>
@@ -1444,10 +1432,6 @@
     <xf numFmtId="1" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1618,6 +1602,10 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1942,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7534,11 +7522,11 @@
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="AG47" s="139" t="s">
+      <c r="AG47" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="AH47" s="139"/>
-      <c r="AI47" s="139"/>
+      <c r="AH47" s="137"/>
+      <c r="AI47" s="137"/>
       <c r="AJ47" s="23" t="s">
         <v>8</v>
       </c>
@@ -7652,11 +7640,11 @@
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="AG48" s="139" t="s">
+      <c r="AG48" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="AH48" s="139"/>
-      <c r="AI48" s="139"/>
+      <c r="AH48" s="137"/>
+      <c r="AI48" s="137"/>
       <c r="AJ48" s="23">
         <v>2</v>
       </c>
@@ -7683,42 +7671,42 @@
       <c r="AS48" s="64"/>
     </row>
     <row r="49" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="100">
+      <c r="C49" s="98">
         <v>43279</v>
       </c>
-      <c r="D49" s="101">
+      <c r="D49" s="99">
         <v>48</v>
       </c>
-      <c r="E49" s="102">
+      <c r="E49" s="100">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F49" s="103">
+      <c r="F49" s="101">
         <v>1.9</v>
       </c>
-      <c r="G49" s="104">
+      <c r="G49" s="102">
         <v>1.7</v>
       </c>
-      <c r="H49" s="104">
-        <v>1</v>
-      </c>
-      <c r="I49" s="105">
+      <c r="H49" s="102">
+        <v>1</v>
+      </c>
+      <c r="I49" s="103">
         <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
-      <c r="J49" s="105">
+      <c r="J49" s="103">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="96">
+      <c r="L49" s="94">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
@@ -7730,19 +7718,19 @@
       <c r="P49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q49" s="106">
+      <c r="Q49" s="104">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="R49" s="97" t="s">
+      <c r="R49" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
       <c r="U49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V49" s="96">
+      <c r="V49" s="94">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
@@ -7754,43 +7742,43 @@
       <c r="Z49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AA49" s="106">
+      <c r="AA49" s="104">
         <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
-      <c r="AB49" s="97" t="s">
+      <c r="AB49" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="97"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
       <c r="AE49" s="19">
         <v>1</v>
       </c>
-      <c r="AF49" s="96">
+      <c r="AF49" s="94">
         <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-      <c r="AG49" s="139" t="s">
+      <c r="AG49" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AH49" s="139"/>
-      <c r="AI49" s="139"/>
+      <c r="AH49" s="137"/>
+      <c r="AI49" s="137"/>
       <c r="AJ49" s="24">
         <v>2</v>
       </c>
-      <c r="AK49" s="106">
+      <c r="AK49" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AL49" s="97" t="s">
+      <c r="AL49" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="AM49" s="97"/>
-      <c r="AN49" s="97"/>
+      <c r="AM49" s="95"/>
+      <c r="AN49" s="95"/>
       <c r="AO49" s="19">
         <v>1</v>
       </c>
-      <c r="AP49" s="96">
+      <c r="AP49" s="94">
         <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
@@ -7800,97 +7788,97 @@
       <c r="AR49" s="64"/>
       <c r="AS49" s="64"/>
     </row>
-    <row r="50" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="146" t="s">
+    <row r="50" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="146" t="s">
+      <c r="B50" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="147">
+      <c r="C50" s="145">
         <v>43281</v>
       </c>
-      <c r="D50" s="148">
+      <c r="D50" s="146">
         <v>49</v>
       </c>
-      <c r="E50" s="149">
+      <c r="E50" s="147">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="152" t="s">
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="152" t="s">
+      <c r="O50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="150"/>
-      <c r="Q50" s="150"/>
-      <c r="R50" s="153"/>
-      <c r="S50" s="152" t="s">
+      <c r="P50" s="148"/>
+      <c r="Q50" s="148"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="T50" s="152" t="s">
+      <c r="T50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="U50" s="150"/>
-      <c r="V50" s="150"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="152" t="s">
+      <c r="U50" s="148"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="149"/>
+      <c r="X50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="Y50" s="152" t="s">
+      <c r="Y50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="Z50" s="150"/>
-      <c r="AA50" s="150"/>
-      <c r="AB50" s="153"/>
-      <c r="AC50" s="152" t="s">
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="AD50" s="152" t="s">
+      <c r="AD50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AE50" s="150"/>
-      <c r="AF50" s="150"/>
-      <c r="AG50" s="151"/>
-      <c r="AH50" s="152" t="s">
+      <c r="AE50" s="148"/>
+      <c r="AF50" s="148"/>
+      <c r="AG50" s="149"/>
+      <c r="AH50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AI50" s="152" t="s">
+      <c r="AI50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AJ50" s="150"/>
-      <c r="AK50" s="150"/>
-      <c r="AL50" s="153"/>
-      <c r="AM50" s="152" t="s">
+      <c r="AJ50" s="148"/>
+      <c r="AK50" s="148"/>
+      <c r="AL50" s="151"/>
+      <c r="AM50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AN50" s="152" t="s">
+      <c r="AN50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AO50" s="150"/>
-      <c r="AP50" s="150"/>
-      <c r="AQ50" s="151"/>
-      <c r="AR50" s="152" t="s">
+      <c r="AO50" s="148"/>
+      <c r="AP50" s="148"/>
+      <c r="AQ50" s="149"/>
+      <c r="AR50" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AS50" s="152" t="s">
+      <c r="AS50" s="150" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A51" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="145" t="s">
-        <v>100</v>
+      <c r="A51" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="143" t="s">
+        <v>19</v>
       </c>
       <c r="C51" s="51">
         <v>43281</v>
@@ -7909,72 +7897,72 @@
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="64"/>
-      <c r="N51" s="136" t="s">
+      <c r="N51" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="136" t="s">
+      <c r="O51" s="134" t="s">
         <v>19</v>
       </c>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="137" t="s">
+      <c r="R51" s="105"/>
+      <c r="S51" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="T51" s="137" t="s">
+      <c r="T51" s="135" t="s">
         <v>19</v>
       </c>
       <c r="U51" s="18"/>
       <c r="V51" s="18"/>
       <c r="W51" s="64"/>
-      <c r="X51" s="136" t="s">
+      <c r="X51" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="Y51" s="136" t="s">
+      <c r="Y51" s="134" t="s">
         <v>23</v>
       </c>
       <c r="Z51" s="23"/>
       <c r="AA51" s="23"/>
-      <c r="AB51" s="107"/>
-      <c r="AC51" s="137" t="s">
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AD51" s="137" t="s">
+      <c r="AD51" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AE51" s="18"/>
       <c r="AF51" s="18"/>
-      <c r="AG51" s="139"/>
-      <c r="AH51" s="140" t="s">
+      <c r="AG51" s="137"/>
+      <c r="AH51" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="AI51" s="140" t="s">
+      <c r="AI51" s="138" t="s">
         <v>20</v>
       </c>
       <c r="AJ51" s="23"/>
       <c r="AK51" s="23"/>
-      <c r="AL51" s="107"/>
-      <c r="AM51" s="137" t="s">
+      <c r="AL51" s="105"/>
+      <c r="AM51" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AN51" s="137" t="s">
+      <c r="AN51" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AO51" s="18"/>
       <c r="AP51" s="18"/>
       <c r="AQ51" s="64"/>
-      <c r="AR51" s="136" t="s">
+      <c r="AR51" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AS51" s="136" t="s">
+      <c r="AS51" s="134" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A52" s="145" t="s">
+      <c r="A52" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="145" t="s">
+      <c r="B52" s="143" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="51">
@@ -7994,73 +7982,73 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="64"/>
-      <c r="N52" s="136" t="s">
+      <c r="N52" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="O52" s="136" t="s">
+      <c r="O52" s="134" t="s">
         <v>9</v>
       </c>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="137" t="s">
+      <c r="R52" s="105"/>
+      <c r="S52" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="137" t="s">
+      <c r="T52" s="135" t="s">
         <v>11</v>
       </c>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
       <c r="W52" s="64"/>
-      <c r="X52" s="136" t="s">
+      <c r="X52" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Y52" s="136" t="s">
+      <c r="Y52" s="134" t="s">
         <v>11</v>
       </c>
       <c r="Z52" s="23"/>
       <c r="AA52" s="23"/>
-      <c r="AB52" s="107"/>
-      <c r="AC52" s="137" t="s">
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AD52" s="137" t="s">
+      <c r="AD52" s="135" t="s">
         <v>12</v>
       </c>
       <c r="AE52" s="18"/>
       <c r="AF52" s="18"/>
-      <c r="AG52" s="139"/>
-      <c r="AH52" s="140" t="s">
+      <c r="AG52" s="137"/>
+      <c r="AH52" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AI52" s="140" t="s">
+      <c r="AI52" s="138" t="s">
         <v>9</v>
       </c>
       <c r="AJ52" s="23"/>
       <c r="AK52" s="23"/>
-      <c r="AL52" s="107"/>
-      <c r="AM52" s="137" t="s">
+      <c r="AL52" s="105"/>
+      <c r="AM52" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AN52" s="137" t="s">
+      <c r="AN52" s="135" t="s">
         <v>11</v>
       </c>
       <c r="AO52" s="18"/>
       <c r="AP52" s="18"/>
       <c r="AQ52" s="64"/>
-      <c r="AR52" s="136" t="s">
+      <c r="AR52" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AS52" s="136" t="s">
+      <c r="AS52" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A53" s="145" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="145" t="s">
-        <v>102</v>
+      <c r="A53" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="143" t="s">
+        <v>22</v>
       </c>
       <c r="C53" s="51">
         <v>43282</v>
@@ -8079,73 +8067,73 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="136" t="s">
+      <c r="N53" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="O53" s="136" t="s">
+      <c r="O53" s="134" t="s">
         <v>22</v>
       </c>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="137" t="s">
+      <c r="R53" s="105"/>
+      <c r="S53" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="T53" s="137" t="s">
+      <c r="T53" s="135" t="s">
         <v>17</v>
       </c>
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
       <c r="W53" s="64"/>
-      <c r="X53" s="136" t="s">
+      <c r="X53" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="Y53" s="136" t="s">
+      <c r="Y53" s="134" t="s">
         <v>22</v>
       </c>
       <c r="Z53" s="23"/>
       <c r="AA53" s="23"/>
-      <c r="AB53" s="107"/>
-      <c r="AC53" s="137" t="s">
+      <c r="AB53" s="105"/>
+      <c r="AC53" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AD53" s="137" t="s">
+      <c r="AD53" s="135" t="s">
         <v>22</v>
       </c>
       <c r="AE53" s="18"/>
       <c r="AF53" s="18"/>
-      <c r="AG53" s="139"/>
-      <c r="AH53" s="140" t="s">
+      <c r="AG53" s="137"/>
+      <c r="AH53" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AI53" s="140" t="s">
+      <c r="AI53" s="138" t="s">
         <v>22</v>
       </c>
       <c r="AJ53" s="23"/>
       <c r="AK53" s="23"/>
-      <c r="AL53" s="107"/>
-      <c r="AM53" s="137" t="s">
+      <c r="AL53" s="105"/>
+      <c r="AM53" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AN53" s="137" t="s">
+      <c r="AN53" s="135" t="s">
         <v>21</v>
       </c>
       <c r="AO53" s="18"/>
       <c r="AP53" s="18"/>
       <c r="AQ53" s="64"/>
-      <c r="AR53" s="136" t="s">
+      <c r="AR53" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="AS53" s="136" t="s">
+      <c r="AS53" s="134" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A54" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="145" t="s">
-        <v>104</v>
+      <c r="A54" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="143" t="s">
+        <v>100</v>
       </c>
       <c r="C54" s="51">
         <v>43283</v>
@@ -8164,73 +8152,73 @@
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="64"/>
-      <c r="N54" s="136" t="s">
+      <c r="N54" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="136" t="s">
+      <c r="O54" s="134" t="s">
         <v>31</v>
       </c>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="137" t="s">
+      <c r="R54" s="105"/>
+      <c r="S54" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="T54" s="137" t="s">
+      <c r="T54" s="135" t="s">
         <v>31</v>
       </c>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
       <c r="W54" s="64"/>
-      <c r="X54" s="136" t="s">
+      <c r="X54" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="Y54" s="136" t="s">
+      <c r="Y54" s="134" t="s">
         <v>28</v>
       </c>
       <c r="Z54" s="23"/>
       <c r="AA54" s="23"/>
-      <c r="AB54" s="107"/>
-      <c r="AC54" s="137" t="s">
+      <c r="AB54" s="105"/>
+      <c r="AC54" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AD54" s="137" t="s">
+      <c r="AD54" s="135" t="s">
         <v>28</v>
       </c>
       <c r="AE54" s="18"/>
       <c r="AF54" s="18"/>
-      <c r="AG54" s="139"/>
-      <c r="AH54" s="140" t="s">
+      <c r="AG54" s="137"/>
+      <c r="AH54" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AI54" s="140" t="s">
+      <c r="AI54" s="138" t="s">
         <v>31</v>
       </c>
       <c r="AJ54" s="23"/>
       <c r="AK54" s="23"/>
-      <c r="AL54" s="107"/>
-      <c r="AM54" s="137" t="s">
+      <c r="AL54" s="105"/>
+      <c r="AM54" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AN54" s="137" t="s">
+      <c r="AN54" s="135" t="s">
         <v>28</v>
       </c>
       <c r="AO54" s="18"/>
       <c r="AP54" s="18"/>
       <c r="AQ54" s="64"/>
-      <c r="AR54" s="136" t="s">
+      <c r="AR54" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="AS54" s="136" t="s">
+      <c r="AS54" s="134" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A55" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="145" t="s">
-        <v>106</v>
+      <c r="A55" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="143" t="s">
+        <v>102</v>
       </c>
       <c r="C55" s="51">
         <v>43283</v>
@@ -8249,73 +8237,73 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="64"/>
-      <c r="N55" s="136" t="s">
+      <c r="N55" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="136" t="s">
+      <c r="O55" s="134" t="s">
         <v>38</v>
       </c>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="137" t="s">
+      <c r="R55" s="105"/>
+      <c r="S55" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="T55" s="137" t="s">
+      <c r="T55" s="135" t="s">
         <v>40</v>
       </c>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
       <c r="W55" s="64"/>
-      <c r="X55" s="136" t="s">
+      <c r="X55" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="Y55" s="136" t="s">
+      <c r="Y55" s="134" t="s">
         <v>37</v>
       </c>
       <c r="Z55" s="23"/>
       <c r="AA55" s="23"/>
-      <c r="AB55" s="107"/>
-      <c r="AC55" s="137" t="s">
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="AD55" s="137" t="s">
+      <c r="AD55" s="135" t="s">
         <v>40</v>
       </c>
       <c r="AE55" s="18"/>
       <c r="AF55" s="18"/>
-      <c r="AG55" s="139"/>
-      <c r="AH55" s="140" t="s">
+      <c r="AG55" s="137"/>
+      <c r="AH55" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="AI55" s="140" t="s">
+      <c r="AI55" s="138" t="s">
         <v>39</v>
       </c>
       <c r="AJ55" s="23"/>
       <c r="AK55" s="23"/>
-      <c r="AL55" s="107"/>
-      <c r="AM55" s="137" t="s">
+      <c r="AL55" s="105"/>
+      <c r="AM55" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="AN55" s="137" t="s">
+      <c r="AN55" s="135" t="s">
         <v>37</v>
       </c>
       <c r="AO55" s="18"/>
       <c r="AP55" s="18"/>
       <c r="AQ55" s="64"/>
-      <c r="AR55" s="136" t="s">
+      <c r="AR55" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="AS55" s="136" t="s">
+      <c r="AS55" s="134" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A56" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="145" t="s">
-        <v>108</v>
+      <c r="A56" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="143" t="s">
+        <v>104</v>
       </c>
       <c r="C56" s="51">
         <v>43284</v>
@@ -8334,73 +8322,73 @@
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="64"/>
-      <c r="N56" s="136" t="s">
+      <c r="N56" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="O56" s="136" t="s">
+      <c r="O56" s="134" t="s">
         <v>26</v>
       </c>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
-      <c r="R56" s="107"/>
-      <c r="S56" s="137" t="s">
+      <c r="R56" s="105"/>
+      <c r="S56" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="T56" s="137" t="s">
+      <c r="T56" s="135" t="s">
         <v>25</v>
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="64"/>
-      <c r="X56" s="136" t="s">
+      <c r="X56" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="Y56" s="136" t="s">
+      <c r="Y56" s="134" t="s">
         <v>26</v>
       </c>
       <c r="Z56" s="23"/>
       <c r="AA56" s="23"/>
-      <c r="AB56" s="107"/>
-      <c r="AC56" s="137" t="s">
+      <c r="AB56" s="105"/>
+      <c r="AC56" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AD56" s="137" t="s">
+      <c r="AD56" s="135" t="s">
         <v>30</v>
       </c>
       <c r="AE56" s="18"/>
       <c r="AF56" s="18"/>
-      <c r="AG56" s="139"/>
-      <c r="AH56" s="140" t="s">
+      <c r="AG56" s="137"/>
+      <c r="AH56" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AI56" s="140" t="s">
+      <c r="AI56" s="138" t="s">
         <v>26</v>
       </c>
       <c r="AJ56" s="23"/>
       <c r="AK56" s="23"/>
-      <c r="AL56" s="107"/>
-      <c r="AM56" s="137" t="s">
+      <c r="AL56" s="105"/>
+      <c r="AM56" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AN56" s="137" t="s">
+      <c r="AN56" s="135" t="s">
         <v>30</v>
       </c>
       <c r="AO56" s="18"/>
       <c r="AP56" s="18"/>
       <c r="AQ56" s="64"/>
-      <c r="AR56" s="136" t="s">
+      <c r="AR56" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="AS56" s="136" t="s">
+      <c r="AS56" s="134" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A57" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="145" t="s">
-        <v>110</v>
+      <c r="A57" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="143" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="51">
         <v>43284</v>
@@ -8419,160 +8407,160 @@
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="64"/>
-      <c r="N57" s="136" t="s">
+      <c r="N57" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="136" t="s">
+      <c r="O57" s="134" t="s">
         <v>34</v>
       </c>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
-      <c r="R57" s="107"/>
-      <c r="S57" s="137" t="s">
+      <c r="R57" s="105"/>
+      <c r="S57" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="T57" s="137" t="s">
+      <c r="T57" s="135" t="s">
         <v>34</v>
       </c>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="64"/>
-      <c r="X57" s="136" t="s">
+      <c r="X57" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="Y57" s="136" t="s">
+      <c r="Y57" s="134" t="s">
         <v>36</v>
       </c>
       <c r="Z57" s="23"/>
       <c r="AA57" s="23"/>
-      <c r="AB57" s="107"/>
-      <c r="AC57" s="137" t="s">
+      <c r="AB57" s="105"/>
+      <c r="AC57" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="AD57" s="137" t="s">
+      <c r="AD57" s="135" t="s">
         <v>35</v>
       </c>
       <c r="AE57" s="18"/>
       <c r="AF57" s="18"/>
-      <c r="AG57" s="139"/>
-      <c r="AH57" s="140" t="s">
+      <c r="AG57" s="137"/>
+      <c r="AH57" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="AI57" s="140" t="s">
+      <c r="AI57" s="138" t="s">
         <v>36</v>
       </c>
       <c r="AJ57" s="23"/>
       <c r="AK57" s="23"/>
-      <c r="AL57" s="107"/>
-      <c r="AM57" s="137" t="s">
+      <c r="AL57" s="105"/>
+      <c r="AM57" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="AN57" s="137" t="s">
+      <c r="AN57" s="135" t="s">
         <v>36</v>
       </c>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="64"/>
-      <c r="AR57" s="136" t="s">
+      <c r="AR57" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="AS57" s="136" t="s">
+      <c r="AS57" s="134" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="152" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="147">
+    <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="145">
         <v>43287</v>
       </c>
-      <c r="D58" s="148">
+      <c r="D58" s="146">
         <v>57</v>
       </c>
-      <c r="E58" s="149">
+      <c r="E58" s="147">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="151"/>
-      <c r="N58" s="152" t="s">
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="O58" s="152" t="s">
+      <c r="O58" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="150"/>
-      <c r="Q58" s="150"/>
-      <c r="R58" s="153"/>
-      <c r="S58" s="152" t="s">
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="151"/>
+      <c r="S58" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="152" t="s">
+      <c r="T58" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="U58" s="150"/>
-      <c r="V58" s="150"/>
-      <c r="W58" s="151"/>
-      <c r="X58" s="152" t="s">
+      <c r="U58" s="148"/>
+      <c r="V58" s="148"/>
+      <c r="W58" s="149"/>
+      <c r="X58" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="Y58" s="152" t="s">
+      <c r="Y58" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="Z58" s="150"/>
-      <c r="AA58" s="150"/>
-      <c r="AB58" s="153"/>
-      <c r="AC58" s="152" t="s">
+      <c r="Z58" s="148"/>
+      <c r="AA58" s="148"/>
+      <c r="AB58" s="151"/>
+      <c r="AC58" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AD58" s="152" t="s">
+      <c r="AD58" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="AE58" s="150"/>
-      <c r="AF58" s="150"/>
-      <c r="AG58" s="151"/>
-      <c r="AH58" s="152" t="s">
+      <c r="AE58" s="148"/>
+      <c r="AF58" s="148"/>
+      <c r="AG58" s="149"/>
+      <c r="AH58" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AI58" s="152" t="s">
+      <c r="AI58" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AJ58" s="150"/>
-      <c r="AK58" s="150"/>
-      <c r="AL58" s="153"/>
-      <c r="AM58" s="152" t="s">
+      <c r="AJ58" s="148"/>
+      <c r="AK58" s="148"/>
+      <c r="AL58" s="151"/>
+      <c r="AM58" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AN58" s="152" t="s">
+      <c r="AN58" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AO58" s="150"/>
-      <c r="AP58" s="150"/>
-      <c r="AQ58" s="151"/>
-      <c r="AR58" s="152" t="s">
+      <c r="AO58" s="148"/>
+      <c r="AP58" s="148"/>
+      <c r="AQ58" s="149"/>
+      <c r="AR58" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AS58" s="152" t="s">
+      <c r="AS58" s="150" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A59" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="155">
+      <c r="A59" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="153">
         <v>43287</v>
       </c>
       <c r="D59" s="92">
@@ -8589,75 +8577,75 @@
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="64"/>
-      <c r="N59" s="136" t="s">
+      <c r="N59" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="O59" s="136" t="s">
+      <c r="O59" s="134" t="s">
         <v>42</v>
       </c>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
-      <c r="R59" s="107"/>
-      <c r="S59" s="137" t="s">
+      <c r="R59" s="105"/>
+      <c r="S59" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="T59" s="137" t="s">
+      <c r="T59" s="135" t="s">
         <v>42</v>
       </c>
       <c r="U59" s="18"/>
       <c r="V59" s="18"/>
       <c r="W59" s="64"/>
-      <c r="X59" s="136" t="s">
+      <c r="X59" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="Y59" s="136" t="s">
+      <c r="Y59" s="134" t="s">
         <v>42</v>
       </c>
       <c r="Z59" s="23"/>
       <c r="AA59" s="23"/>
-      <c r="AB59" s="107"/>
-      <c r="AC59" s="137" t="s">
+      <c r="AB59" s="105"/>
+      <c r="AC59" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AD59" s="137" t="s">
+      <c r="AD59" s="135" t="s">
         <v>42</v>
       </c>
       <c r="AE59" s="18"/>
       <c r="AF59" s="18"/>
-      <c r="AG59" s="139"/>
-      <c r="AH59" s="140" t="s">
+      <c r="AG59" s="137"/>
+      <c r="AH59" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AI59" s="140" t="s">
+      <c r="AI59" s="138" t="s">
         <v>19</v>
       </c>
       <c r="AJ59" s="23"/>
       <c r="AK59" s="23"/>
-      <c r="AL59" s="107"/>
-      <c r="AM59" s="137" t="s">
+      <c r="AL59" s="105"/>
+      <c r="AM59" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AN59" s="137" t="s">
+      <c r="AN59" s="135" t="s">
         <v>42</v>
       </c>
       <c r="AO59" s="18"/>
       <c r="AP59" s="18"/>
       <c r="AQ59" s="64"/>
-      <c r="AR59" s="136" t="s">
+      <c r="AR59" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="AS59" s="136" t="s">
+      <c r="AS59" s="134" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A60" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="155">
+      <c r="A60" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="153">
         <v>43288</v>
       </c>
       <c r="D60" s="92">
@@ -8674,75 +8662,75 @@
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="64"/>
-      <c r="N60" s="136" t="s">
+      <c r="N60" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="O60" s="136" t="s">
+      <c r="O60" s="134" t="s">
         <v>23</v>
       </c>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
-      <c r="R60" s="107"/>
-      <c r="S60" s="137" t="s">
+      <c r="R60" s="105"/>
+      <c r="S60" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="T60" s="137" t="s">
+      <c r="T60" s="135" t="s">
         <v>23</v>
       </c>
       <c r="U60" s="18"/>
       <c r="V60" s="18"/>
       <c r="W60" s="64"/>
-      <c r="X60" s="136" t="s">
+      <c r="X60" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Y60" s="136" t="s">
+      <c r="Y60" s="134" t="s">
         <v>19</v>
       </c>
       <c r="Z60" s="23"/>
       <c r="AA60" s="23"/>
-      <c r="AB60" s="107"/>
-      <c r="AC60" s="137" t="s">
+      <c r="AB60" s="105"/>
+      <c r="AC60" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="AD60" s="137" t="s">
+      <c r="AD60" s="135" t="s">
         <v>19</v>
       </c>
       <c r="AE60" s="18"/>
       <c r="AF60" s="18"/>
-      <c r="AG60" s="139"/>
-      <c r="AH60" s="140" t="s">
+      <c r="AG60" s="137"/>
+      <c r="AH60" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AI60" s="140" t="s">
+      <c r="AI60" s="138" t="s">
         <v>42</v>
       </c>
       <c r="AJ60" s="23"/>
       <c r="AK60" s="23"/>
-      <c r="AL60" s="107"/>
-      <c r="AM60" s="137" t="s">
+      <c r="AL60" s="105"/>
+      <c r="AM60" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AN60" s="137" t="s">
+      <c r="AN60" s="135" t="s">
         <v>19</v>
       </c>
       <c r="AO60" s="18"/>
       <c r="AP60" s="18"/>
       <c r="AQ60" s="64"/>
-      <c r="AR60" s="136" t="s">
+      <c r="AR60" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AS60" s="136" t="s">
+      <c r="AS60" s="134" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A61" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="138" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="155">
+      <c r="A61" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="153">
         <v>43288</v>
       </c>
       <c r="D61" s="92">
@@ -8759,160 +8747,160 @@
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="64"/>
-      <c r="N61" s="136" t="s">
+      <c r="N61" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="O61" s="136" t="s">
+      <c r="O61" s="134" t="s">
         <v>39</v>
       </c>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
-      <c r="R61" s="107"/>
-      <c r="S61" s="137" t="s">
+      <c r="R61" s="105"/>
+      <c r="S61" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="T61" s="137" t="s">
+      <c r="T61" s="135" t="s">
         <v>39</v>
       </c>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
       <c r="W61" s="64"/>
-      <c r="X61" s="136" t="s">
+      <c r="X61" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="Y61" s="136" t="s">
+      <c r="Y61" s="134" t="s">
         <v>39</v>
       </c>
       <c r="Z61" s="23"/>
       <c r="AA61" s="23"/>
-      <c r="AB61" s="107"/>
-      <c r="AC61" s="137" t="s">
+      <c r="AB61" s="105"/>
+      <c r="AC61" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AD61" s="137" t="s">
+      <c r="AD61" s="135" t="s">
         <v>39</v>
       </c>
       <c r="AE61" s="18"/>
       <c r="AF61" s="18"/>
-      <c r="AG61" s="139"/>
-      <c r="AH61" s="140" t="s">
+      <c r="AG61" s="137"/>
+      <c r="AH61" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AI61" s="140" t="s">
+      <c r="AI61" s="138" t="s">
         <v>36</v>
       </c>
       <c r="AJ61" s="23"/>
       <c r="AK61" s="23"/>
-      <c r="AL61" s="107"/>
-      <c r="AM61" s="137" t="s">
+      <c r="AL61" s="105"/>
+      <c r="AM61" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AN61" s="137" t="s">
+      <c r="AN61" s="135" t="s">
         <v>39</v>
       </c>
       <c r="AO61" s="18"/>
       <c r="AP61" s="18"/>
       <c r="AQ61" s="64"/>
-      <c r="AR61" s="136" t="s">
+      <c r="AR61" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="AS61" s="136" t="s">
+      <c r="AS61" s="134" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="152" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="147">
+    <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="145">
         <v>43291</v>
       </c>
-      <c r="D62" s="148">
+      <c r="D62" s="146">
         <v>61</v>
       </c>
-      <c r="E62" s="149">
+      <c r="E62" s="147">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="151"/>
-      <c r="N62" s="152" t="s">
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="O62" s="152" t="s">
+      <c r="O62" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="P62" s="150"/>
-      <c r="Q62" s="150"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="152" t="s">
+      <c r="P62" s="148"/>
+      <c r="Q62" s="148"/>
+      <c r="R62" s="151"/>
+      <c r="S62" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="T62" s="152" t="s">
+      <c r="T62" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="U62" s="150"/>
-      <c r="V62" s="150"/>
-      <c r="W62" s="151"/>
-      <c r="X62" s="152" t="s">
+      <c r="U62" s="148"/>
+      <c r="V62" s="148"/>
+      <c r="W62" s="149"/>
+      <c r="X62" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="Y62" s="152" t="s">
+      <c r="Y62" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="Z62" s="150"/>
-      <c r="AA62" s="150"/>
-      <c r="AB62" s="153"/>
-      <c r="AC62" s="152" t="s">
+      <c r="Z62" s="148"/>
+      <c r="AA62" s="148"/>
+      <c r="AB62" s="151"/>
+      <c r="AC62" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AD62" s="152" t="s">
+      <c r="AD62" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="AE62" s="150"/>
-      <c r="AF62" s="150"/>
-      <c r="AG62" s="151"/>
-      <c r="AH62" s="152" t="s">
+      <c r="AE62" s="148"/>
+      <c r="AF62" s="148"/>
+      <c r="AG62" s="149"/>
+      <c r="AH62" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AI62" s="152" t="s">
+      <c r="AI62" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AJ62" s="150"/>
-      <c r="AK62" s="150"/>
-      <c r="AL62" s="153"/>
-      <c r="AM62" s="152" t="s">
+      <c r="AJ62" s="148"/>
+      <c r="AK62" s="148"/>
+      <c r="AL62" s="151"/>
+      <c r="AM62" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AN62" s="152" t="s">
+      <c r="AN62" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="AO62" s="150"/>
-      <c r="AP62" s="150"/>
-      <c r="AQ62" s="151"/>
-      <c r="AR62" s="152" t="s">
+      <c r="AO62" s="148"/>
+      <c r="AP62" s="148"/>
+      <c r="AQ62" s="149"/>
+      <c r="AR62" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AS62" s="152" t="s">
+      <c r="AS62" s="150" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A63" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="155">
+      <c r="A63" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="153">
         <v>43292</v>
       </c>
       <c r="D63" s="92">
@@ -8929,160 +8917,160 @@
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="64"/>
-      <c r="N63" s="136" t="s">
+      <c r="N63" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="O63" s="136" t="s">
+      <c r="O63" s="134" t="s">
         <v>27</v>
       </c>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="137" t="s">
+      <c r="R63" s="105"/>
+      <c r="S63" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="T63" s="137" t="s">
+      <c r="T63" s="135" t="s">
         <v>27</v>
       </c>
       <c r="U63" s="18"/>
       <c r="V63" s="18"/>
       <c r="W63" s="64"/>
-      <c r="X63" s="136" t="s">
+      <c r="X63" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Y63" s="136" t="s">
+      <c r="Y63" s="134" t="s">
         <v>27</v>
       </c>
       <c r="Z63" s="23"/>
       <c r="AA63" s="23"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="137" t="s">
+      <c r="AB63" s="105"/>
+      <c r="AC63" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="AD63" s="137" t="s">
+      <c r="AD63" s="135" t="s">
         <v>39</v>
       </c>
       <c r="AE63" s="18"/>
       <c r="AF63" s="18"/>
-      <c r="AG63" s="139"/>
-      <c r="AH63" s="140" t="s">
+      <c r="AG63" s="137"/>
+      <c r="AH63" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AI63" s="140" t="s">
+      <c r="AI63" s="138" t="s">
         <v>27</v>
       </c>
       <c r="AJ63" s="23"/>
       <c r="AK63" s="23"/>
-      <c r="AL63" s="107"/>
-      <c r="AM63" s="137" t="s">
+      <c r="AL63" s="105"/>
+      <c r="AM63" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AN63" s="137" t="s">
+      <c r="AN63" s="135" t="s">
         <v>27</v>
       </c>
       <c r="AO63" s="18"/>
       <c r="AP63" s="18"/>
       <c r="AQ63" s="64"/>
-      <c r="AR63" s="136" t="s">
+      <c r="AR63" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AS63" s="136" t="s">
+      <c r="AS63" s="134" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="154" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="147">
+    <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="145">
         <v>43295</v>
       </c>
-      <c r="D64" s="148">
+      <c r="D64" s="146">
         <v>63</v>
       </c>
-      <c r="E64" s="149">
+      <c r="E64" s="147">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="151"/>
-      <c r="N64" s="152" t="s">
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="152" t="s">
+      <c r="O64" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="P64" s="150"/>
-      <c r="Q64" s="150"/>
-      <c r="R64" s="153"/>
-      <c r="S64" s="152" t="s">
+      <c r="P64" s="148"/>
+      <c r="Q64" s="148"/>
+      <c r="R64" s="151"/>
+      <c r="S64" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="T64" s="152" t="s">
+      <c r="T64" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="U64" s="150"/>
-      <c r="V64" s="150"/>
-      <c r="W64" s="151"/>
-      <c r="X64" s="152" t="s">
+      <c r="U64" s="148"/>
+      <c r="V64" s="148"/>
+      <c r="W64" s="149"/>
+      <c r="X64" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="Y64" s="152" t="s">
+      <c r="Y64" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="Z64" s="150"/>
-      <c r="AA64" s="150"/>
-      <c r="AB64" s="153"/>
-      <c r="AC64" s="152" t="s">
+      <c r="Z64" s="148"/>
+      <c r="AA64" s="148"/>
+      <c r="AB64" s="151"/>
+      <c r="AC64" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="AD64" s="152" t="s">
+      <c r="AD64" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AE64" s="150"/>
-      <c r="AF64" s="150"/>
-      <c r="AG64" s="151"/>
-      <c r="AH64" s="152" t="s">
+      <c r="AE64" s="148"/>
+      <c r="AF64" s="148"/>
+      <c r="AG64" s="149"/>
+      <c r="AH64" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="AI64" s="152" t="s">
+      <c r="AI64" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AJ64" s="150"/>
-      <c r="AK64" s="150"/>
-      <c r="AL64" s="153"/>
-      <c r="AM64" s="152" t="s">
+      <c r="AJ64" s="148"/>
+      <c r="AK64" s="148"/>
+      <c r="AL64" s="151"/>
+      <c r="AM64" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AN64" s="152" t="s">
+      <c r="AN64" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AO64" s="150"/>
-      <c r="AP64" s="150"/>
-      <c r="AQ64" s="151"/>
-      <c r="AR64" s="152" t="s">
+      <c r="AO64" s="148"/>
+      <c r="AP64" s="148"/>
+      <c r="AQ64" s="149"/>
+      <c r="AR64" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="AS64" s="152" t="s">
+      <c r="AS64" s="150" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A65" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="138" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="155">
+      <c r="A65" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="153">
         <v>43296</v>
       </c>
       <c r="D65" s="92">
@@ -9094,69 +9082,69 @@
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
       <c r="M65" s="65"/>
-      <c r="N65" s="141" t="s">
+      <c r="N65" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="O65" s="141" t="s">
+      <c r="O65" s="139" t="s">
         <v>42</v>
       </c>
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
-      <c r="R65" s="109"/>
-      <c r="S65" s="142" t="s">
+      <c r="R65" s="107"/>
+      <c r="S65" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="T65" s="142" t="s">
+      <c r="T65" s="140" t="s">
         <v>27</v>
       </c>
       <c r="U65" s="19"/>
       <c r="V65" s="19"/>
       <c r="W65" s="65"/>
-      <c r="X65" s="141" t="s">
+      <c r="X65" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="Y65" s="141" t="s">
+      <c r="Y65" s="139" t="s">
         <v>27</v>
       </c>
       <c r="Z65" s="24"/>
       <c r="AA65" s="24"/>
-      <c r="AB65" s="109"/>
-      <c r="AC65" s="142" t="s">
+      <c r="AB65" s="107"/>
+      <c r="AC65" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AD65" s="142" t="s">
+      <c r="AD65" s="140" t="s">
         <v>12</v>
       </c>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
-      <c r="AG65" s="143"/>
-      <c r="AH65" s="144" t="s">
+      <c r="AG65" s="141"/>
+      <c r="AH65" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="AI65" s="144" t="s">
+      <c r="AI65" s="142" t="s">
         <v>12</v>
       </c>
       <c r="AJ65" s="24"/>
       <c r="AK65" s="24"/>
-      <c r="AL65" s="109"/>
-      <c r="AM65" s="142" t="s">
+      <c r="AL65" s="107"/>
+      <c r="AM65" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="AN65" s="142" t="s">
+      <c r="AN65" s="140" t="s">
         <v>27</v>
       </c>
       <c r="AO65" s="19"/>
       <c r="AP65" s="19"/>
       <c r="AQ65" s="65"/>
-      <c r="AR65" s="141" t="s">
+      <c r="AR65" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="AS65" s="141" t="s">
+      <c r="AS65" s="139" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9168,30 +9156,30 @@
         <f>SUM(I2:I49)</f>
         <v>247.10000000000002</v>
       </c>
-      <c r="J66" s="108">
+      <c r="J66" s="106">
         <f>SUM(J2:J49)</f>
         <v>48</v>
       </c>
       <c r="K66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L66" s="116">
+      <c r="L66" s="114">
         <f>SUM(L2:L49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="M66" s="122"/>
-      <c r="N66" s="123"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="121"/>
       <c r="O66" s="20"/>
-      <c r="P66" s="119" t="s">
+      <c r="P66" s="117" t="s">
         <v>60</v>
       </c>
       <c r="Q66" s="25">
         <f>SUM(Q2:Q49)</f>
         <v>102.90000000000003</v>
       </c>
-      <c r="R66" s="110"/>
+      <c r="R66" s="108"/>
       <c r="S66" s="72"/>
-      <c r="T66" s="111"/>
+      <c r="T66" s="109"/>
       <c r="U66" s="31" t="s">
         <v>60</v>
       </c>
@@ -9199,8 +9187,8 @@
         <f>SUM(V2:V49)</f>
         <v>62.800000000000004</v>
       </c>
-      <c r="W66" s="122"/>
-      <c r="X66" s="123"/>
+      <c r="W66" s="120"/>
+      <c r="X66" s="121"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="35" t="s">
         <v>60</v>
@@ -9209,19 +9197,19 @@
         <f>SUM(AA2:AA49)</f>
         <v>65.399999999999991</v>
       </c>
-      <c r="AB66" s="110"/>
+      <c r="AB66" s="108"/>
       <c r="AC66" s="72"/>
-      <c r="AD66" s="111"/>
+      <c r="AD66" s="109"/>
       <c r="AE66" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AF66" s="116">
+      <c r="AF66" s="114">
         <f>SUM(AF2:AF49)</f>
         <v>74.700000000000017</v>
       </c>
-      <c r="AG66" s="128"/>
-      <c r="AH66" s="129"/>
-      <c r="AI66" s="130"/>
+      <c r="AG66" s="126"/>
+      <c r="AH66" s="127"/>
+      <c r="AI66" s="128"/>
       <c r="AJ66" s="35" t="s">
         <v>60</v>
       </c>
@@ -9229,7 +9217,7 @@
         <f>SUM(AK2:AK49)</f>
         <v>54.499999999999993</v>
       </c>
-      <c r="AL66" s="110"/>
+      <c r="AL66" s="108"/>
       <c r="AM66" s="72"/>
       <c r="AN66" s="72"/>
       <c r="AO66" s="31" t="s">
@@ -9239,9 +9227,9 @@
         <f>SUM(AP2:AP49)</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="AQ66" s="128"/>
-      <c r="AR66" s="129"/>
-      <c r="AS66" s="130"/>
+      <c r="AQ66" s="126"/>
+      <c r="AR66" s="127"/>
+      <c r="AS66" s="128"/>
     </row>
     <row r="67" spans="1:45" ht="15.75" customHeight="1">
       <c r="F67" s="14"/>
@@ -9252,23 +9240,23 @@
       <c r="K67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="L67" s="117">
+      <c r="L67" s="115">
         <f>COUNTIF(L2:L49,1)</f>
         <v>27</v>
       </c>
-      <c r="M67" s="124"/>
+      <c r="M67" s="122"/>
       <c r="N67" s="18"/>
       <c r="O67" s="37"/>
-      <c r="P67" s="120" t="s">
+      <c r="P67" s="118" t="s">
         <v>62</v>
       </c>
       <c r="Q67" s="39">
         <f>COUNTIF(Q2:Q49,1)</f>
         <v>23</v>
       </c>
-      <c r="R67" s="112"/>
+      <c r="R67" s="110"/>
       <c r="S67" s="73"/>
-      <c r="T67" s="113"/>
+      <c r="T67" s="111"/>
       <c r="U67" s="38" t="s">
         <v>62</v>
       </c>
@@ -9276,7 +9264,7 @@
         <f>COUNTIF(V2:V49,1)</f>
         <v>29</v>
       </c>
-      <c r="W67" s="124"/>
+      <c r="W67" s="122"/>
       <c r="X67" s="18"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="40" t="s">
@@ -9286,19 +9274,19 @@
         <f>COUNTIF(AA2:AA49,1)</f>
         <v>31</v>
       </c>
-      <c r="AB67" s="112"/>
+      <c r="AB67" s="110"/>
       <c r="AC67" s="73"/>
-      <c r="AD67" s="113"/>
+      <c r="AD67" s="111"/>
       <c r="AE67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF67" s="117">
+      <c r="AF67" s="115">
         <f>COUNTIF(AF2:AF49,1)</f>
         <v>28</v>
       </c>
-      <c r="AG67" s="131"/>
-      <c r="AH67" s="127"/>
-      <c r="AI67" s="132"/>
+      <c r="AG67" s="129"/>
+      <c r="AH67" s="125"/>
+      <c r="AI67" s="130"/>
       <c r="AJ67" s="40" t="s">
         <v>62</v>
       </c>
@@ -9306,7 +9294,7 @@
         <f>COUNTIF(AK2:AK49,1)</f>
         <v>33</v>
       </c>
-      <c r="AL67" s="112"/>
+      <c r="AL67" s="110"/>
       <c r="AM67" s="73"/>
       <c r="AN67" s="73"/>
       <c r="AO67" s="38" t="s">
@@ -9316,31 +9304,31 @@
         <f>COUNTIF(AP2:AP49,1)</f>
         <v>32</v>
       </c>
-      <c r="AQ67" s="131"/>
-      <c r="AR67" s="127"/>
-      <c r="AS67" s="132"/>
+      <c r="AQ67" s="129"/>
+      <c r="AR67" s="125"/>
+      <c r="AS67" s="130"/>
     </row>
     <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
       <c r="K68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L68" s="118">
+      <c r="L68" s="116">
         <f>1-(-$J$66+L66)/($I$66-$J$66)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="M68" s="125"/>
-      <c r="N68" s="126"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="124"/>
       <c r="O68" s="21"/>
-      <c r="P68" s="121" t="s">
+      <c r="P68" s="119" t="s">
         <v>61</v>
       </c>
       <c r="Q68" s="26">
         <f>1-(-$J$66+Q66)/($I$66-$J$66)</f>
         <v>0.72425916624811637</v>
       </c>
-      <c r="R68" s="114"/>
+      <c r="R68" s="112"/>
       <c r="S68" s="74"/>
-      <c r="T68" s="115"/>
+      <c r="T68" s="113"/>
       <c r="U68" s="32" t="s">
         <v>61</v>
       </c>
@@ -9348,8 +9336,8 @@
         <f>1-(-$J$66+V66)/($I$66-$J$66)</f>
         <v>0.92566549472626813</v>
       </c>
-      <c r="W68" s="125"/>
-      <c r="X68" s="126"/>
+      <c r="W68" s="123"/>
+      <c r="X68" s="124"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="36" t="s">
         <v>61</v>
@@ -9358,19 +9346,19 @@
         <f>1-(-$J$66+AA66)/($I$66-$J$66)</f>
         <v>0.91260673028628836</v>
       </c>
-      <c r="AB68" s="114"/>
+      <c r="AB68" s="112"/>
       <c r="AC68" s="74"/>
-      <c r="AD68" s="115"/>
+      <c r="AD68" s="113"/>
       <c r="AE68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AF68" s="118">
+      <c r="AF68" s="116">
         <f>1-(-$J$66+AF66)/($I$66-$J$66)</f>
         <v>0.86589653440482162</v>
       </c>
-      <c r="AG68" s="133"/>
-      <c r="AH68" s="134"/>
-      <c r="AI68" s="135"/>
+      <c r="AG68" s="131"/>
+      <c r="AH68" s="132"/>
+      <c r="AI68" s="133"/>
       <c r="AJ68" s="36" t="s">
         <v>61</v>
       </c>
@@ -9378,7 +9366,7 @@
         <f>1-(-$J$66+AK66)/($I$66-$J$66)</f>
         <v>0.96735308890005023</v>
       </c>
-      <c r="AL68" s="114"/>
+      <c r="AL68" s="112"/>
       <c r="AM68" s="74"/>
       <c r="AN68" s="74"/>
       <c r="AO68" s="32" t="s">
@@ -9388,9 +9376,9 @@
         <f>1-(-$J$66+AP66)/($I$66-$J$66)</f>
         <v>0.93119035660472127</v>
       </c>
-      <c r="AQ68" s="133"/>
-      <c r="AR68" s="134"/>
-      <c r="AS68" s="135"/>
+      <c r="AQ68" s="131"/>
+      <c r="AR68" s="132"/>
+      <c r="AS68" s="133"/>
     </row>
     <row r="69" spans="1:45" ht="15.75" customHeight="1"/>
     <row r="70" spans="1:45" ht="15.75" customHeight="1"/>
@@ -10183,14 +10171,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="119">
   <si>
     <t>Resultat</t>
   </si>
@@ -320,22 +320,10 @@
     <t>Portgual</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
     <t>H2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>E2</t>
   </si>
   <si>
     <t>H1</t>
@@ -1930,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8130,10 +8118,10 @@
     </row>
     <row r="54" spans="1:45" ht="15.75" customHeight="1">
       <c r="A54" s="143" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B54" s="143" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C54" s="51">
         <v>43283</v>
@@ -8215,10 +8203,10 @@
     </row>
     <row r="55" spans="1:45" ht="15.75" customHeight="1">
       <c r="A55" s="143" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="51">
         <v>43283</v>
@@ -8300,10 +8288,10 @@
     </row>
     <row r="56" spans="1:45" ht="15.75" customHeight="1">
       <c r="A56" s="143" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B56" s="143" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C56" s="51">
         <v>43284</v>
@@ -8385,10 +8373,10 @@
     </row>
     <row r="57" spans="1:45" ht="15.75" customHeight="1">
       <c r="A57" s="143" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B57" s="143" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C57" s="51">
         <v>43284</v>
@@ -8470,10 +8458,10 @@
     </row>
     <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="150" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B58" s="150" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C58" s="145">
         <v>43287</v>
@@ -8555,10 +8543,10 @@
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1">
       <c r="A59" s="136" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B59" s="136" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C59" s="153">
         <v>43287</v>
@@ -8640,10 +8628,10 @@
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1">
       <c r="A60" s="136" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B60" s="136" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="153">
         <v>43288</v>
@@ -8725,10 +8713,10 @@
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1">
       <c r="A61" s="136" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" s="136" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="153">
         <v>43288</v>
@@ -8810,10 +8798,10 @@
     </row>
     <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B62" s="150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C62" s="145">
         <v>43291</v>
@@ -8895,10 +8883,10 @@
     </row>
     <row r="63" spans="1:45" ht="15.75" customHeight="1">
       <c r="A63" s="136" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B63" s="136" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" s="153">
         <v>43292</v>
@@ -8980,10 +8968,10 @@
     </row>
     <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="150" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B64" s="150" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C64" s="145">
         <v>43295</v>
@@ -9065,10 +9053,10 @@
     </row>
     <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="136" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C65" s="153">
         <v>43296</v>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="115">
   <si>
     <t>Resultat</t>
   </si>
@@ -318,18 +318,6 @@
   </si>
   <si>
     <t>Portgual</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>G2</t>
   </si>
   <si>
     <t>W 49</t>
@@ -1918,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AQ66" sqref="AQ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1931,7 +1919,7 @@
     <col min="6" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
     <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="75" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.85546875" style="12" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1985,7 +1973,7 @@
         <f>CONCATENATE(K1, "_Odds")</f>
         <v>Niklas_Odds</v>
       </c>
-      <c r="M1" s="67" t="str">
+      <c r="M1" s="87" t="str">
         <f>CONCATENATE(K1, "_Resultat")</f>
         <v>Niklas_Resultat</v>
       </c>
@@ -7797,18 +7785,26 @@
       <c r="H50" s="148"/>
       <c r="I50" s="148"/>
       <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
+      <c r="K50" s="148" t="s">
+        <v>58</v>
+      </c>
       <c r="L50" s="148"/>
-      <c r="M50" s="149"/>
+      <c r="M50" s="149" t="s">
+        <v>71</v>
+      </c>
       <c r="N50" s="150" t="s">
         <v>12</v>
       </c>
       <c r="O50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="148"/>
+      <c r="P50" s="148" t="s">
+        <v>8</v>
+      </c>
       <c r="Q50" s="148"/>
-      <c r="R50" s="151"/>
+      <c r="R50" s="151" t="s">
+        <v>71</v>
+      </c>
       <c r="S50" s="150" t="s">
         <v>12</v>
       </c>
@@ -7824,9 +7820,13 @@
       <c r="Y50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="Z50" s="148"/>
+      <c r="Z50" s="148" t="s">
+        <v>58</v>
+      </c>
       <c r="AA50" s="148"/>
-      <c r="AB50" s="151"/>
+      <c r="AB50" s="151" t="s">
+        <v>70</v>
+      </c>
       <c r="AC50" s="150" t="s">
         <v>11</v>
       </c>
@@ -7851,9 +7851,13 @@
       <c r="AN50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AO50" s="148"/>
+      <c r="AO50" s="148">
+        <v>1</v>
+      </c>
       <c r="AP50" s="148"/>
-      <c r="AQ50" s="149"/>
+      <c r="AQ50" s="149" t="s">
+        <v>72</v>
+      </c>
       <c r="AR50" s="150" t="s">
         <v>12</v>
       </c>
@@ -7882,18 +7886,26 @@
       <c r="H51" s="28"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
-      <c r="K51" s="18"/>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
       <c r="L51" s="18"/>
-      <c r="M51" s="64"/>
+      <c r="M51" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="N51" s="134" t="s">
         <v>17</v>
       </c>
       <c r="O51" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="23"/>
+      <c r="P51" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="Q51" s="23"/>
-      <c r="R51" s="105"/>
+      <c r="R51" s="105" t="s">
+        <v>71</v>
+      </c>
       <c r="S51" s="135" t="s">
         <v>22</v>
       </c>
@@ -7909,9 +7921,13 @@
       <c r="Y51" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="Z51" s="23"/>
+      <c r="Z51" s="23">
+        <v>1</v>
+      </c>
       <c r="AA51" s="23"/>
-      <c r="AB51" s="105"/>
+      <c r="AB51" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="AC51" s="135" t="s">
         <v>17</v>
       </c>
@@ -7936,9 +7952,13 @@
       <c r="AN51" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="AO51" s="18"/>
+      <c r="AO51" s="18">
+        <v>1</v>
+      </c>
       <c r="AP51" s="18"/>
-      <c r="AQ51" s="64"/>
+      <c r="AQ51" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="AR51" s="134" t="s">
         <v>17</v>
       </c>
@@ -7967,18 +7987,26 @@
       <c r="H52" s="28"/>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
-      <c r="K52" s="18"/>
+      <c r="K52" s="18">
+        <v>1</v>
+      </c>
       <c r="L52" s="18"/>
-      <c r="M52" s="64"/>
+      <c r="M52" s="64" t="s">
+        <v>74</v>
+      </c>
       <c r="N52" s="134" t="s">
         <v>15</v>
       </c>
       <c r="O52" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="P52" s="23"/>
+      <c r="P52" s="23">
+        <v>1</v>
+      </c>
       <c r="Q52" s="23"/>
-      <c r="R52" s="105"/>
+      <c r="R52" s="105" t="s">
+        <v>76</v>
+      </c>
       <c r="S52" s="135" t="s">
         <v>15</v>
       </c>
@@ -7994,9 +8022,13 @@
       <c r="Y52" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="Z52" s="23"/>
+      <c r="Z52" s="23">
+        <v>1</v>
+      </c>
       <c r="AA52" s="23"/>
-      <c r="AB52" s="105"/>
+      <c r="AB52" s="105" t="s">
+        <v>68</v>
+      </c>
       <c r="AC52" s="135" t="s">
         <v>16</v>
       </c>
@@ -8021,9 +8053,13 @@
       <c r="AN52" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AO52" s="18"/>
+      <c r="AO52" s="18">
+        <v>1</v>
+      </c>
       <c r="AP52" s="18"/>
-      <c r="AQ52" s="64"/>
+      <c r="AQ52" s="64" t="s">
+        <v>74</v>
+      </c>
       <c r="AR52" s="134" t="s">
         <v>15</v>
       </c>
@@ -8052,18 +8088,26 @@
       <c r="H53" s="28"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
-      <c r="K53" s="18"/>
+      <c r="K53" s="18">
+        <v>1</v>
+      </c>
       <c r="L53" s="18"/>
-      <c r="M53" s="64"/>
+      <c r="M53" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="N53" s="134" t="s">
         <v>23</v>
       </c>
       <c r="O53" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="23"/>
+      <c r="P53" s="23">
+        <v>1</v>
+      </c>
       <c r="Q53" s="23"/>
-      <c r="R53" s="105"/>
+      <c r="R53" s="105" t="s">
+        <v>76</v>
+      </c>
       <c r="S53" s="135" t="s">
         <v>23</v>
       </c>
@@ -8079,9 +8123,13 @@
       <c r="Y53" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="Z53" s="23"/>
+      <c r="Z53" s="23">
+        <v>1</v>
+      </c>
       <c r="AA53" s="23"/>
-      <c r="AB53" s="105"/>
+      <c r="AB53" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="AC53" s="135" t="s">
         <v>19</v>
       </c>
@@ -8106,9 +8154,13 @@
       <c r="AN53" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AO53" s="18"/>
+      <c r="AO53" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="AP53" s="18"/>
-      <c r="AQ53" s="64"/>
+      <c r="AQ53" s="64" t="s">
+        <v>70</v>
+      </c>
       <c r="AR53" s="134" t="s">
         <v>19</v>
       </c>
@@ -8137,18 +8189,26 @@
       <c r="H54" s="28"/>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
-      <c r="K54" s="18"/>
+      <c r="K54" s="18">
+        <v>1</v>
+      </c>
       <c r="L54" s="18"/>
-      <c r="M54" s="64"/>
+      <c r="M54" s="64" t="s">
+        <v>74</v>
+      </c>
       <c r="N54" s="134" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="P54" s="23"/>
+      <c r="P54" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="Q54" s="23"/>
-      <c r="R54" s="105"/>
+      <c r="R54" s="105" t="s">
+        <v>70</v>
+      </c>
       <c r="S54" s="135" t="s">
         <v>97</v>
       </c>
@@ -8164,9 +8224,13 @@
       <c r="Y54" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="Z54" s="23"/>
+      <c r="Z54" s="23">
+        <v>1</v>
+      </c>
       <c r="AA54" s="23"/>
-      <c r="AB54" s="105"/>
+      <c r="AB54" s="105" t="s">
+        <v>74</v>
+      </c>
       <c r="AC54" s="135" t="s">
         <v>29</v>
       </c>
@@ -8191,9 +8255,13 @@
       <c r="AN54" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AO54" s="18"/>
+      <c r="AO54" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="AP54" s="18"/>
-      <c r="AQ54" s="64"/>
+      <c r="AQ54" s="64" t="s">
+        <v>93</v>
+      </c>
       <c r="AR54" s="134" t="s">
         <v>29</v>
       </c>
@@ -8203,10 +8271,10 @@
     </row>
     <row r="55" spans="1:45" ht="15.75" customHeight="1">
       <c r="A55" s="143" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B55" s="143" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C55" s="51">
         <v>43283</v>
@@ -8222,18 +8290,26 @@
       <c r="H55" s="28"/>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
-      <c r="K55" s="18"/>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
       <c r="L55" s="18"/>
-      <c r="M55" s="64"/>
+      <c r="M55" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="N55" s="134" t="s">
         <v>42</v>
       </c>
       <c r="O55" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="P55" s="23"/>
+      <c r="P55" s="23">
+        <v>1</v>
+      </c>
       <c r="Q55" s="23"/>
-      <c r="R55" s="105"/>
+      <c r="R55" s="105" t="s">
+        <v>74</v>
+      </c>
       <c r="S55" s="135" t="s">
         <v>42</v>
       </c>
@@ -8249,9 +8325,13 @@
       <c r="Y55" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="Z55" s="23"/>
+      <c r="Z55" s="23">
+        <v>1</v>
+      </c>
       <c r="AA55" s="23"/>
-      <c r="AB55" s="105"/>
+      <c r="AB55" s="105" t="s">
+        <v>76</v>
+      </c>
       <c r="AC55" s="135" t="s">
         <v>42</v>
       </c>
@@ -8276,9 +8356,13 @@
       <c r="AN55" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="AO55" s="18"/>
+      <c r="AO55" s="18">
+        <v>1</v>
+      </c>
       <c r="AP55" s="18"/>
-      <c r="AQ55" s="64"/>
+      <c r="AQ55" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="AR55" s="134" t="s">
         <v>42</v>
       </c>
@@ -8307,18 +8391,26 @@
       <c r="H56" s="28"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
-      <c r="K56" s="18"/>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
       <c r="L56" s="18"/>
-      <c r="M56" s="64"/>
+      <c r="M56" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="N56" s="134" t="s">
         <v>27</v>
       </c>
       <c r="O56" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="23"/>
+      <c r="P56" s="23">
+        <v>1</v>
+      </c>
       <c r="Q56" s="23"/>
-      <c r="R56" s="105"/>
+      <c r="R56" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="S56" s="135" t="s">
         <v>27</v>
       </c>
@@ -8334,9 +8426,13 @@
       <c r="Y56" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="Z56" s="23"/>
+      <c r="Z56" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="AA56" s="23"/>
-      <c r="AB56" s="105"/>
+      <c r="AB56" s="105" t="s">
+        <v>70</v>
+      </c>
       <c r="AC56" s="135" t="s">
         <v>27</v>
       </c>
@@ -8361,9 +8457,13 @@
       <c r="AN56" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AO56" s="18"/>
+      <c r="AO56" s="18">
+        <v>1</v>
+      </c>
       <c r="AP56" s="18"/>
-      <c r="AQ56" s="64"/>
+      <c r="AQ56" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="AR56" s="134" t="s">
         <v>27</v>
       </c>
@@ -8373,10 +8473,10 @@
     </row>
     <row r="57" spans="1:45" ht="15.75" customHeight="1">
       <c r="A57" s="143" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B57" s="143" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C57" s="51">
         <v>43284</v>
@@ -8392,18 +8492,26 @@
       <c r="H57" s="28"/>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
-      <c r="K57" s="18"/>
+      <c r="K57" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="L57" s="18"/>
-      <c r="M57" s="64"/>
+      <c r="M57" s="64" t="s">
+        <v>70</v>
+      </c>
       <c r="N57" s="134" t="s">
         <v>39</v>
       </c>
       <c r="O57" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="P57" s="23"/>
+      <c r="P57" s="23">
+        <v>2</v>
+      </c>
       <c r="Q57" s="23"/>
-      <c r="R57" s="105"/>
+      <c r="R57" s="105" t="s">
+        <v>81</v>
+      </c>
       <c r="S57" s="135" t="s">
         <v>39</v>
       </c>
@@ -8419,9 +8527,13 @@
       <c r="Y57" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="Z57" s="23"/>
+      <c r="Z57" s="23">
+        <v>2</v>
+      </c>
       <c r="AA57" s="23"/>
-      <c r="AB57" s="105"/>
+      <c r="AB57" s="105" t="s">
+        <v>69</v>
+      </c>
       <c r="AC57" s="135" t="s">
         <v>39</v>
       </c>
@@ -8446,9 +8558,13 @@
       <c r="AN57" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="AO57" s="18"/>
+      <c r="AO57" s="18">
+        <v>2</v>
+      </c>
       <c r="AP57" s="18"/>
-      <c r="AQ57" s="64"/>
+      <c r="AQ57" s="64" t="s">
+        <v>77</v>
+      </c>
       <c r="AR57" s="134" t="s">
         <v>39</v>
       </c>
@@ -8458,10 +8574,10 @@
     </row>
     <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="150" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" s="150" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" s="145">
         <v>43287</v>
@@ -8543,10 +8659,10 @@
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1">
       <c r="A59" s="136" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B59" s="136" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="153">
         <v>43287</v>
@@ -8628,10 +8744,10 @@
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1">
       <c r="A60" s="136" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" s="136" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C60" s="153">
         <v>43288</v>
@@ -8713,10 +8829,10 @@
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1">
       <c r="A61" s="136" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B61" s="136" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" s="153">
         <v>43288</v>
@@ -8798,10 +8914,10 @@
     </row>
     <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="150" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B62" s="150" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" s="145">
         <v>43291</v>
@@ -8883,10 +8999,10 @@
     </row>
     <row r="63" spans="1:45" ht="15.75" customHeight="1">
       <c r="A63" s="136" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B63" s="136" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C63" s="153">
         <v>43292</v>
@@ -8968,10 +9084,10 @@
     </row>
     <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B64" s="150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" s="145">
         <v>43295</v>
@@ -9053,10 +9169,10 @@
     </row>
     <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="136" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C65" s="153">
         <v>43296</v>
@@ -9155,7 +9271,7 @@
         <f>SUM(L2:L49)</f>
         <v>70.000000000000014</v>
       </c>
-      <c r="M66" s="120"/>
+      <c r="M66" s="126"/>
       <c r="N66" s="121"/>
       <c r="O66" s="20"/>
       <c r="P66" s="117" t="s">
@@ -9232,7 +9348,7 @@
         <f>COUNTIF(L2:L49,1)</f>
         <v>27</v>
       </c>
-      <c r="M67" s="122"/>
+      <c r="M67" s="129"/>
       <c r="N67" s="18"/>
       <c r="O67" s="37"/>
       <c r="P67" s="118" t="s">
@@ -9304,7 +9420,7 @@
         <f>1-(-$J$66+L66)/($I$66-$J$66)</f>
         <v>0.88950276243093918</v>
       </c>
-      <c r="M68" s="123"/>
+      <c r="M68" s="131"/>
       <c r="N68" s="124"/>
       <c r="O68" s="21"/>
       <c r="P68" s="119" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nygard001\VM2018\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FEADC-32D6-D24A-AA23-09601A3196F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="115">
   <si>
     <t>Resultat</t>
   </si>
@@ -371,11 +372,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1163,7 +1164,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,16 +1583,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
-    <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="3" builtinId="42"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="8" builtinId="46"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="2" builtinId="31"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="6" builtinId="35"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="5" builtinId="39"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="4" builtinId="43"/>
+    <cellStyle name="Indata" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1608,7 +1612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1903,39 +1907,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AQ66" sqref="AQ66"/>
+    <sheetView tabSelected="1" topLeftCell="AD28" workbookViewId="0">
+      <selection activeCell="AK55" sqref="AK55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="12" customWidth="1"/>
     <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="75" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.83203125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5" style="75" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.42578125" customWidth="1"/>
-    <col min="28" max="30" width="14.42578125" style="86"/>
-    <col min="33" max="35" width="14.42578125" style="86"/>
-    <col min="38" max="40" width="14.42578125" style="86"/>
-    <col min="43" max="45" width="14.42578125" style="86"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.5" customWidth="1"/>
+    <col min="28" max="30" width="14.5" style="86"/>
+    <col min="33" max="35" width="14.5" style="86"/>
+    <col min="38" max="40" width="14.5" style="86"/>
+    <col min="43" max="45" width="14.5" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" thickBot="1">
+    <row r="1" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>63</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>Philip_Borta</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -2218,7 +2222,7 @@
       <c r="AR2" s="64"/>
       <c r="AS2" s="64"/>
     </row>
-    <row r="3" spans="1:45" ht="15.75">
+    <row r="3" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2340,7 @@
       <c r="AR3" s="64"/>
       <c r="AS3" s="64"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75">
+    <row r="4" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="AR4" s="64"/>
       <c r="AS4" s="64"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75">
+    <row r="5" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2576,7 @@
       <c r="AR5" s="64"/>
       <c r="AS5" s="64"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2694,7 @@
       <c r="AR6" s="64"/>
       <c r="AS6" s="64"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2808,7 +2812,7 @@
       <c r="AR7" s="64"/>
       <c r="AS7" s="64"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2926,7 +2930,7 @@
       <c r="AR8" s="64"/>
       <c r="AS8" s="64"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -3044,7 +3048,7 @@
       <c r="AR9" s="64"/>
       <c r="AS9" s="64"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75">
+    <row r="10" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
@@ -3162,7 +3166,7 @@
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75">
+    <row r="11" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
         <v>25</v>
       </c>
@@ -3280,7 +3284,7 @@
       <c r="AR11" s="64"/>
       <c r="AS11" s="64"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75">
+    <row r="12" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3402,7 @@
       <c r="AR12" s="64"/>
       <c r="AS12" s="64"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -3516,7 +3520,7 @@
       <c r="AR13" s="64"/>
       <c r="AS13" s="64"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="AR14" s="64"/>
       <c r="AS14" s="64"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="AR15" s="64"/>
       <c r="AS15" s="64"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75">
+    <row r="16" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
         <v>39</v>
       </c>
@@ -3870,7 +3874,7 @@
       <c r="AR16" s="64"/>
       <c r="AS16" s="64"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75">
+    <row r="17" spans="1:45" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="AR17" s="64"/>
       <c r="AS17" s="64"/>
     </row>
-    <row r="18" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
         <v>9</v>
       </c>
@@ -4106,7 +4110,7 @@
       <c r="AR18" s="84"/>
       <c r="AS18" s="84"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -4224,7 +4228,7 @@
       <c r="AR19" s="64"/>
       <c r="AS19" s="64"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4346,7 @@
       <c r="AR20" s="64"/>
       <c r="AS20" s="64"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -4460,7 +4464,7 @@
       <c r="AR21" s="64"/>
       <c r="AS21" s="64"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>17</v>
       </c>
@@ -4578,7 +4582,7 @@
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
@@ -4696,7 +4700,7 @@
       <c r="AR23" s="64"/>
       <c r="AS23" s="64"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="s">
         <v>19</v>
       </c>
@@ -4814,7 +4818,7 @@
       <c r="AR24" s="64"/>
       <c r="AS24" s="64"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -4932,7 +4936,7 @@
       <c r="AR25" s="64"/>
       <c r="AS25" s="64"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -5050,7 +5054,7 @@
       <c r="AR26" s="64"/>
       <c r="AS26" s="64"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -5168,7 +5172,7 @@
       <c r="AR27" s="64"/>
       <c r="AS27" s="64"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>27</v>
       </c>
@@ -5286,7 +5290,7 @@
       <c r="AR28" s="64"/>
       <c r="AS28" s="64"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>32</v>
       </c>
@@ -5404,7 +5408,7 @@
       <c r="AR29" s="64"/>
       <c r="AS29" s="64"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
@@ -5522,7 +5526,7 @@
       <c r="AR30" s="64"/>
       <c r="AS30" s="64"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="AR31" s="64"/>
       <c r="AS31" s="64"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -5758,7 +5762,7 @@
       <c r="AR32" s="64"/>
       <c r="AS32" s="64"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="AR33" s="64"/>
       <c r="AS33" s="64"/>
     </row>
-    <row r="34" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="77" t="s">
         <v>12</v>
       </c>
@@ -5994,7 +5998,7 @@
       <c r="AR34" s="84"/>
       <c r="AS34" s="84"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
         <v>10</v>
       </c>
@@ -6112,7 +6116,7 @@
       <c r="AR35" s="64"/>
       <c r="AS35" s="64"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60" t="s">
         <v>14</v>
       </c>
@@ -6230,7 +6234,7 @@
       <c r="AR36" s="64"/>
       <c r="AS36" s="64"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>16</v>
       </c>
@@ -6348,7 +6352,7 @@
       <c r="AR37" s="64"/>
       <c r="AS37" s="64"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -6466,7 +6470,7 @@
       <c r="AR38" s="64"/>
       <c r="AS38" s="64"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -6584,7 +6588,7 @@
       <c r="AR39" s="64"/>
       <c r="AS39" s="64"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -6702,7 +6706,7 @@
       <c r="AR40" s="64"/>
       <c r="AS40" s="64"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -6820,7 +6824,7 @@
       <c r="AR41" s="64"/>
       <c r="AS41" s="64"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="s">
         <v>47</v>
       </c>
@@ -6938,7 +6942,7 @@
       <c r="AR42" s="64"/>
       <c r="AS42" s="64"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="AR43" s="88"/>
       <c r="AS43" s="88"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="s">
         <v>46</v>
       </c>
@@ -7174,7 +7178,7 @@
       <c r="AR44" s="64"/>
       <c r="AS44" s="64"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
         <v>45</v>
       </c>
@@ -7292,7 +7296,7 @@
       <c r="AR45" s="64"/>
       <c r="AS45" s="64"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -7410,7 +7414,7 @@
       <c r="AR46" s="64"/>
       <c r="AS46" s="64"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -7528,7 +7532,7 @@
       <c r="AR47" s="64"/>
       <c r="AS47" s="64"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -7646,7 +7650,7 @@
       <c r="AR48" s="64"/>
       <c r="AS48" s="64"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="96" t="s">
         <v>50</v>
       </c>
@@ -7764,7 +7768,7 @@
       <c r="AR49" s="64"/>
       <c r="AS49" s="64"/>
     </row>
-    <row r="50" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="144" t="s">
         <v>12</v>
       </c>
@@ -7842,9 +7846,13 @@
       <c r="AI50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AJ50" s="148"/>
+      <c r="AJ50" s="148">
+        <v>1</v>
+      </c>
       <c r="AK50" s="148"/>
-      <c r="AL50" s="151"/>
+      <c r="AL50" s="151" t="s">
+        <v>72</v>
+      </c>
       <c r="AM50" s="150" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="143" t="s">
         <v>17</v>
       </c>
@@ -7943,9 +7951,13 @@
       <c r="AI51" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AJ51" s="23"/>
+      <c r="AJ51" s="23">
+        <v>1</v>
+      </c>
       <c r="AK51" s="23"/>
-      <c r="AL51" s="105"/>
+      <c r="AL51" s="105" t="s">
+        <v>83</v>
+      </c>
       <c r="AM51" s="135" t="s">
         <v>17</v>
       </c>
@@ -7966,7 +7978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="143" t="s">
         <v>16</v>
       </c>
@@ -8044,9 +8056,13 @@
       <c r="AI52" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AJ52" s="23"/>
+      <c r="AJ52" s="23">
+        <v>1</v>
+      </c>
       <c r="AK52" s="23"/>
-      <c r="AL52" s="105"/>
+      <c r="AL52" s="105" t="s">
+        <v>74</v>
+      </c>
       <c r="AM52" s="135" t="s">
         <v>16</v>
       </c>
@@ -8067,7 +8083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="143" t="s">
         <v>23</v>
       </c>
@@ -8145,9 +8161,13 @@
       <c r="AI53" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AJ53" s="23"/>
+      <c r="AJ53" s="23">
+        <v>1</v>
+      </c>
       <c r="AK53" s="23"/>
-      <c r="AL53" s="105"/>
+      <c r="AL53" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="AM53" s="135" t="s">
         <v>19</v>
       </c>
@@ -8168,7 +8188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="143" t="s">
         <v>29</v>
       </c>
@@ -8246,9 +8266,13 @@
       <c r="AI54" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="AJ54" s="23"/>
+      <c r="AJ54" s="23">
+        <v>1</v>
+      </c>
       <c r="AK54" s="23"/>
-      <c r="AL54" s="105"/>
+      <c r="AL54" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="AM54" s="135" t="s">
         <v>29</v>
       </c>
@@ -8269,7 +8293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="143" t="s">
         <v>42</v>
       </c>
@@ -8347,9 +8371,13 @@
       <c r="AI55" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="AJ55" s="23"/>
+      <c r="AJ55" s="23">
+        <v>1</v>
+      </c>
       <c r="AK55" s="23"/>
-      <c r="AL55" s="105"/>
+      <c r="AL55" s="105" t="s">
+        <v>76</v>
+      </c>
       <c r="AM55" s="135" t="s">
         <v>42</v>
       </c>
@@ -8370,7 +8398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="143" t="s">
         <v>31</v>
       </c>
@@ -8448,9 +8476,13 @@
       <c r="AI56" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="AJ56" s="23"/>
+      <c r="AJ56" s="23">
+        <v>1</v>
+      </c>
       <c r="AK56" s="23"/>
-      <c r="AL56" s="105"/>
+      <c r="AL56" s="105" t="s">
+        <v>72</v>
+      </c>
       <c r="AM56" s="135" t="s">
         <v>27</v>
       </c>
@@ -8471,7 +8503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="143" t="s">
         <v>37</v>
       </c>
@@ -8549,9 +8581,13 @@
       <c r="AI57" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AJ57" s="23"/>
+      <c r="AJ57" s="156" t="s">
+        <v>58</v>
+      </c>
       <c r="AK57" s="23"/>
-      <c r="AL57" s="105"/>
+      <c r="AL57" s="105" t="s">
+        <v>93</v>
+      </c>
       <c r="AM57" s="135" t="s">
         <v>39</v>
       </c>
@@ -8572,7 +8608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="150" t="s">
         <v>99</v>
       </c>
@@ -8657,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="136" t="s">
         <v>101</v>
       </c>
@@ -8742,7 +8778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="136" t="s">
         <v>103</v>
       </c>
@@ -8827,7 +8863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="136" t="s">
         <v>105</v>
       </c>
@@ -8912,7 +8948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="150" t="s">
         <v>107</v>
       </c>
@@ -8997,7 +9033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="136" t="s">
         <v>109</v>
       </c>
@@ -9082,7 +9118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="150" t="s">
         <v>111</v>
       </c>
@@ -9167,7 +9203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="136" t="s">
         <v>113</v>
       </c>
@@ -9252,7 +9288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -9335,7 +9371,7 @@
       <c r="AR66" s="127"/>
       <c r="AS66" s="128"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -9412,7 +9448,7 @@
       <c r="AR67" s="125"/>
       <c r="AS67" s="130"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K68" s="32" t="s">
         <v>61</v>
       </c>
@@ -9484,777 +9520,777 @@
       <c r="AR68" s="132"/>
       <c r="AS68" s="133"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10265,16 +10301,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="154" t="s">
         <v>55</v>
       </c>
@@ -10284,7 +10320,7 @@
       </c>
       <c r="F1" s="155"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10313,7 +10349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -10353,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -10393,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -10433,7 +10469,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -10473,7 +10509,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -10513,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -10553,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -10593,7 +10629,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -10633,7 +10669,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -10673,7 +10709,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -10713,7 +10749,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -10753,7 +10789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -10793,7 +10829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -10833,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -10873,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -10913,7 +10949,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -10953,7 +10989,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -10993,7 +11029,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -11033,7 +11069,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -11073,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -11113,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -11153,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -11193,7 +11229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -11233,7 +11269,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -11273,7 +11309,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -11313,7 +11349,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -11353,7 +11389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -11393,7 +11429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
+    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -11433,7 +11469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -11473,7 +11509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -11513,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -11553,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1">
+    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -11593,7 +11629,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -11633,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
+    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -11673,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -11713,7 +11749,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -11753,7 +11789,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -11793,7 +11829,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -11833,7 +11869,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -11873,7 +11909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -11913,7 +11949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -11953,7 +11989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -11993,7 +12029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -12033,7 +12069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -12073,7 +12109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1">
+    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -12113,7 +12149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
+    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -12153,7 +12189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1">
+    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -12193,7 +12229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1">
+    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -12243,7 +12279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12253,9 +12289,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -12263,12 +12299,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -12282,7 +12318,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -12302,7 +12338,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -12322,7 +12358,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -12342,7 +12378,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -12362,7 +12398,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -12382,7 +12418,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -12402,7 +12438,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -12422,7 +12458,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -12444,7 +12480,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -12464,7 +12500,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -12484,7 +12520,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -12504,7 +12540,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -12524,7 +12560,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -12544,7 +12580,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -12564,7 +12600,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -12584,7 +12620,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -12604,7 +12640,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
@@ -12624,7 +12660,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -12644,7 +12680,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -12664,7 +12700,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -12684,7 +12720,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -12704,7 +12740,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -12724,7 +12760,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -12744,7 +12780,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -12764,7 +12800,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -12784,7 +12820,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
@@ -12804,7 +12840,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -12824,7 +12860,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -12844,7 +12880,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -12864,7 +12900,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
@@ -12884,7 +12920,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -12904,7 +12940,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -12924,7 +12960,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -12944,7 +12980,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -12964,7 +13000,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>14</v>
       </c>
@@ -12984,7 +13020,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -13004,7 +13040,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
@@ -13024,7 +13060,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -13044,7 +13080,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -13064,7 +13100,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -13084,7 +13120,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -13104,7 +13140,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -13124,7 +13160,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -13144,7 +13180,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>45</v>
       </c>
@@ -13164,7 +13200,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
@@ -13184,7 +13220,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -13201,7 +13237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
@@ -13218,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FEADC-32D6-D24A-AA23-09601A3196F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89ED6FA-ED05-6940-9142-9E4D0E46CE1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16120" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="114">
   <si>
     <t>Resultat</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Brasilen</t>
   </si>
   <si>
-    <t>Portgual</t>
-  </si>
-  <si>
     <t>W 49</t>
   </si>
   <si>
@@ -413,17 +410,20 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1164,7 +1164,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1579,11 +1579,20 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1910,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD28" workbookViewId="0">
-      <selection activeCell="AK55" sqref="AK55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7773,7 +7782,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="144" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C50" s="145">
         <v>43281</v>
@@ -7784,9 +7793,15 @@
       <c r="E50" s="147">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
+      <c r="F50" s="148">
+        <v>3.05</v>
+      </c>
+      <c r="G50" s="148">
+        <v>3</v>
+      </c>
+      <c r="H50" s="148">
+        <v>2.9</v>
+      </c>
       <c r="I50" s="148"/>
       <c r="J50" s="148"/>
       <c r="K50" s="148" t="s">
@@ -7815,9 +7830,13 @@
       <c r="T50" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="U50" s="148"/>
+      <c r="U50" s="148" t="s">
+        <v>58</v>
+      </c>
       <c r="V50" s="148"/>
-      <c r="W50" s="149"/>
+      <c r="W50" s="149" t="s">
+        <v>70</v>
+      </c>
       <c r="X50" s="150" t="s">
         <v>12</v>
       </c>
@@ -7837,9 +7856,13 @@
       <c r="AD50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AE50" s="148"/>
+      <c r="AE50" s="148">
+        <v>1</v>
+      </c>
       <c r="AF50" s="148"/>
-      <c r="AG50" s="149"/>
+      <c r="AG50" s="149" t="s">
+        <v>72</v>
+      </c>
       <c r="AH50" s="150" t="s">
         <v>12</v>
       </c>
@@ -7889,9 +7912,15 @@
       <c r="E51" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="F51" s="28">
+        <v>2.35</v>
+      </c>
+      <c r="G51" s="28">
+        <v>3.05</v>
+      </c>
+      <c r="H51" s="28">
+        <v>3.45</v>
+      </c>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
       <c r="K51" s="18">
@@ -7920,9 +7949,13 @@
       <c r="T51" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="U51" s="18"/>
+      <c r="U51" s="157" t="s">
+        <v>58</v>
+      </c>
       <c r="V51" s="18"/>
-      <c r="W51" s="64"/>
+      <c r="W51" s="158" t="s">
+        <v>70</v>
+      </c>
       <c r="X51" s="134" t="s">
         <v>17</v>
       </c>
@@ -7994,9 +8027,15 @@
       <c r="E52" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="F52" s="159">
+        <v>1.62</v>
+      </c>
+      <c r="G52" s="28">
+        <v>3.95</v>
+      </c>
+      <c r="H52" s="28">
+        <v>7.25</v>
+      </c>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
       <c r="K52" s="18">
@@ -8025,9 +8064,13 @@
       <c r="T52" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="U52" s="18"/>
+      <c r="U52" s="18">
+        <v>1</v>
+      </c>
       <c r="V52" s="18"/>
-      <c r="W52" s="64"/>
+      <c r="W52" s="158" t="s">
+        <v>74</v>
+      </c>
       <c r="X52" s="134" t="s">
         <v>15</v>
       </c>
@@ -8099,9 +8142,15 @@
       <c r="E53" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="F53" s="28">
+        <v>1.9</v>
+      </c>
+      <c r="G53" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="H53" s="28">
+        <v>5.5</v>
+      </c>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
       <c r="K53" s="18">
@@ -8204,9 +8253,15 @@
       <c r="E54" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="F54" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="G54" s="28">
+        <v>4.25</v>
+      </c>
+      <c r="H54" s="28">
+        <v>7.8</v>
+      </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
       <c r="K54" s="18">
@@ -8309,9 +8364,15 @@
       <c r="E55" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
+      <c r="F55" s="28">
+        <v>1.41</v>
+      </c>
+      <c r="G55" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="H55" s="28">
+        <v>11</v>
+      </c>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
       <c r="K55" s="18">
@@ -8414,9 +8475,15 @@
       <c r="E56" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+      <c r="F56" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="G56" s="28">
+        <v>3.05</v>
+      </c>
+      <c r="H56" s="28">
+        <v>2.7</v>
+      </c>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
       <c r="K56" s="18">
@@ -8519,9 +8586,15 @@
       <c r="E57" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
+      <c r="F57" s="28">
+        <v>4.25</v>
+      </c>
+      <c r="G57" s="28">
+        <v>3.25</v>
+      </c>
+      <c r="H57" s="28">
+        <v>2.15</v>
+      </c>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
       <c r="K57" s="18" t="s">
@@ -8581,7 +8654,7 @@
       <c r="AI57" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AJ57" s="156" t="s">
+      <c r="AJ57" s="154" t="s">
         <v>58</v>
       </c>
       <c r="AK57" s="23"/>
@@ -8610,10 +8683,10 @@
     </row>
     <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="150" t="s">
         <v>99</v>
-      </c>
-      <c r="B58" s="150" t="s">
-        <v>100</v>
       </c>
       <c r="C58" s="145">
         <v>43287</v>
@@ -8695,10 +8768,10 @@
     </row>
     <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="136" t="s">
         <v>101</v>
-      </c>
-      <c r="B59" s="136" t="s">
-        <v>102</v>
       </c>
       <c r="C59" s="153">
         <v>43287</v>
@@ -8780,10 +8853,10 @@
     </row>
     <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="136" t="s">
         <v>103</v>
-      </c>
-      <c r="B60" s="136" t="s">
-        <v>104</v>
       </c>
       <c r="C60" s="153">
         <v>43288</v>
@@ -8865,10 +8938,10 @@
     </row>
     <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="136" t="s">
         <v>105</v>
-      </c>
-      <c r="B61" s="136" t="s">
-        <v>106</v>
       </c>
       <c r="C61" s="153">
         <v>43288</v>
@@ -8950,10 +9023,10 @@
     </row>
     <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="150" t="s">
         <v>107</v>
-      </c>
-      <c r="B62" s="150" t="s">
-        <v>108</v>
       </c>
       <c r="C62" s="145">
         <v>43291</v>
@@ -9035,10 +9108,10 @@
     </row>
     <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="136" t="s">
         <v>109</v>
-      </c>
-      <c r="B63" s="136" t="s">
-        <v>110</v>
       </c>
       <c r="C63" s="153">
         <v>43292</v>
@@ -9120,10 +9193,10 @@
     </row>
     <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="150" t="s">
         <v>111</v>
-      </c>
-      <c r="B64" s="150" t="s">
-        <v>112</v>
       </c>
       <c r="C64" s="145">
         <v>43295</v>
@@ -9205,10 +9278,10 @@
     </row>
     <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="136" t="s">
         <v>113</v>
-      </c>
-      <c r="B65" s="136" t="s">
-        <v>114</v>
       </c>
       <c r="C65" s="153">
         <v>43296</v>
@@ -10311,14 +10384,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="156"/>
+      <c r="E1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89ED6FA-ED05-6940-9142-9E4D0E46CE1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD523D07-FD90-6D42-AD64-CAEF503335FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16120" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="114">
   <si>
     <t>Resultat</t>
   </si>
@@ -1582,19 +1582,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="AA33" workbookViewId="0">
+      <selection activeCell="AG50" sqref="AG50:AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7949,11 +7949,11 @@
       <c r="T51" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="U51" s="157" t="s">
+      <c r="U51" s="155" t="s">
         <v>58</v>
       </c>
       <c r="V51" s="18"/>
-      <c r="W51" s="158" t="s">
+      <c r="W51" s="156" t="s">
         <v>70</v>
       </c>
       <c r="X51" s="134" t="s">
@@ -8027,7 +8027,7 @@
       <c r="E52" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F52" s="159">
+      <c r="F52" s="157">
         <v>1.62</v>
       </c>
       <c r="G52" s="28">
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="V52" s="18"/>
-      <c r="W52" s="158" t="s">
+      <c r="W52" s="156" t="s">
         <v>74</v>
       </c>
       <c r="X52" s="134" t="s">
@@ -8179,9 +8179,13 @@
       <c r="T53" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="U53" s="18"/>
+      <c r="U53" s="18">
+        <v>1</v>
+      </c>
       <c r="V53" s="18"/>
-      <c r="W53" s="64"/>
+      <c r="W53" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="X53" s="134" t="s">
         <v>19</v>
       </c>
@@ -8201,9 +8205,13 @@
       <c r="AD53" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="AE53" s="18"/>
+      <c r="AE53" s="18">
+        <v>1</v>
+      </c>
       <c r="AF53" s="18"/>
-      <c r="AG53" s="137"/>
+      <c r="AG53" s="137" t="s">
+        <v>74</v>
+      </c>
       <c r="AH53" s="138" t="s">
         <v>19</v>
       </c>
@@ -8290,9 +8298,13 @@
       <c r="T54" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="18"/>
+      <c r="U54" s="18">
+        <v>1</v>
+      </c>
       <c r="V54" s="18"/>
-      <c r="W54" s="64"/>
+      <c r="W54" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="X54" s="134" t="s">
         <v>29</v>
       </c>
@@ -8312,9 +8324,13 @@
       <c r="AD54" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AE54" s="18"/>
+      <c r="AE54" s="18">
+        <v>1</v>
+      </c>
       <c r="AF54" s="18"/>
-      <c r="AG54" s="137"/>
+      <c r="AG54" s="137" t="s">
+        <v>72</v>
+      </c>
       <c r="AH54" s="138" t="s">
         <v>29</v>
       </c>
@@ -8401,9 +8417,13 @@
       <c r="T55" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="U55" s="18"/>
+      <c r="U55" s="18">
+        <v>1</v>
+      </c>
       <c r="V55" s="18"/>
-      <c r="W55" s="64"/>
+      <c r="W55" s="64" t="s">
+        <v>74</v>
+      </c>
       <c r="X55" s="134" t="s">
         <v>42</v>
       </c>
@@ -8423,9 +8443,13 @@
       <c r="AD55" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="18"/>
+      <c r="AE55" s="18">
+        <v>1</v>
+      </c>
       <c r="AF55" s="18"/>
-      <c r="AG55" s="137"/>
+      <c r="AG55" s="137" t="s">
+        <v>68</v>
+      </c>
       <c r="AH55" s="138" t="s">
         <v>42</v>
       </c>
@@ -8512,9 +8536,13 @@
       <c r="T56" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="U56" s="18"/>
+      <c r="U56" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="V56" s="18"/>
-      <c r="W56" s="64"/>
+      <c r="W56" s="64" t="s">
+        <v>70</v>
+      </c>
       <c r="X56" s="134" t="s">
         <v>27</v>
       </c>
@@ -8534,9 +8562,13 @@
       <c r="AD56" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AE56" s="18"/>
+      <c r="AE56" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="AF56" s="18"/>
-      <c r="AG56" s="137"/>
+      <c r="AG56" s="137" t="s">
+        <v>70</v>
+      </c>
       <c r="AH56" s="138" t="s">
         <v>27</v>
       </c>
@@ -8623,9 +8655,13 @@
       <c r="T57" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="U57" s="18"/>
+      <c r="U57" s="18">
+        <v>2</v>
+      </c>
       <c r="V57" s="18"/>
-      <c r="W57" s="64"/>
+      <c r="W57" s="64" t="s">
+        <v>69</v>
+      </c>
       <c r="X57" s="134" t="s">
         <v>39</v>
       </c>
@@ -8645,9 +8681,13 @@
       <c r="AD57" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="AE57" s="18"/>
+      <c r="AE57" s="18">
+        <v>1</v>
+      </c>
       <c r="AF57" s="18"/>
-      <c r="AG57" s="137"/>
+      <c r="AG57" s="137" t="s">
+        <v>72</v>
+      </c>
       <c r="AH57" s="138" t="s">
         <v>37</v>
       </c>
@@ -10384,14 +10424,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="155" t="s">
+      <c r="D1" s="159"/>
+      <c r="E1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="156"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nygard001\VM2018\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD523D07-FD90-6D42-AD64-CAEF503335FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16120" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16125" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="113">
   <si>
     <t>Resultat</t>
   </si>
@@ -315,9 +314,6 @@
     <t>num</t>
   </si>
   <si>
-    <t>Brasilen</t>
-  </si>
-  <si>
     <t>W 49</t>
   </si>
   <si>
@@ -369,15 +365,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1155,34 +1158,34 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1194,93 +1197,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1288,10 +1291,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,119 +1303,119 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="5" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="6" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1426,185 +1429,188 @@
     <xf numFmtId="20" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="9" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7"/>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="7"/>
+    <xf numFmtId="14" fontId="12" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="12" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="31" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="7" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
-    <cellStyle name="20 % - Dekorfärg4" xfId="3" builtinId="42"/>
-    <cellStyle name="20 % - Dekorfärg5" xfId="8" builtinId="46"/>
-    <cellStyle name="40 % - Dekorfärg1" xfId="2" builtinId="31"/>
-    <cellStyle name="40 % - Dekorfärg2" xfId="6" builtinId="35"/>
-    <cellStyle name="40 % - Dekorfärg3" xfId="5" builtinId="39"/>
-    <cellStyle name="40 % - Dekorfärg4" xfId="4" builtinId="43"/>
-    <cellStyle name="Indata" xfId="7" builtinId="20"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1621,7 +1627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1916,39 +1922,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA33" workbookViewId="0">
-      <selection activeCell="AG50" sqref="AG50:AG57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="12" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
     <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.83203125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="75" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5" style="75" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="75" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.5" customWidth="1"/>
-    <col min="28" max="30" width="14.5" style="86"/>
-    <col min="33" max="35" width="14.5" style="86"/>
-    <col min="38" max="40" width="14.5" style="86"/>
-    <col min="43" max="45" width="14.5" style="86"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.42578125" customWidth="1"/>
+    <col min="28" max="30" width="14.42578125" style="86"/>
+    <col min="33" max="35" width="14.42578125" style="86"/>
+    <col min="38" max="40" width="14.42578125" style="86"/>
+    <col min="43" max="45" width="14.42578125" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>63</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>Philip_Borta</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2237,7 @@
       <c r="AR2" s="64"/>
       <c r="AS2" s="64"/>
     </row>
-    <row r="3" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2355,7 @@
       <c r="AR3" s="64"/>
       <c r="AS3" s="64"/>
     </row>
-    <row r="4" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2473,7 @@
       <c r="AR4" s="64"/>
       <c r="AS4" s="64"/>
     </row>
-    <row r="5" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2591,7 @@
       <c r="AR5" s="64"/>
       <c r="AS5" s="64"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2709,7 @@
       <c r="AR6" s="64"/>
       <c r="AS6" s="64"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2821,7 +2827,7 @@
       <c r="AR7" s="64"/>
       <c r="AS7" s="64"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2939,7 +2945,7 @@
       <c r="AR8" s="64"/>
       <c r="AS8" s="64"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3063,7 @@
       <c r="AR9" s="64"/>
       <c r="AS9" s="64"/>
     </row>
-    <row r="10" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
@@ -3175,7 +3181,7 @@
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
     </row>
-    <row r="11" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>25</v>
       </c>
@@ -3293,7 +3299,7 @@
       <c r="AR11" s="64"/>
       <c r="AS11" s="64"/>
     </row>
-    <row r="12" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>27</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="AR12" s="64"/>
       <c r="AS12" s="64"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="AR13" s="64"/>
       <c r="AS13" s="64"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -3647,7 +3653,7 @@
       <c r="AR14" s="64"/>
       <c r="AS14" s="64"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -3765,7 +3771,7 @@
       <c r="AR15" s="64"/>
       <c r="AS15" s="64"/>
     </row>
-    <row r="16" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>39</v>
       </c>
@@ -3883,7 +3889,7 @@
       <c r="AR16" s="64"/>
       <c r="AS16" s="64"/>
     </row>
-    <row r="17" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>37</v>
       </c>
@@ -4001,7 +4007,7 @@
       <c r="AR17" s="64"/>
       <c r="AS17" s="64"/>
     </row>
-    <row r="18" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>9</v>
       </c>
@@ -4119,7 +4125,7 @@
       <c r="AR18" s="84"/>
       <c r="AS18" s="84"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -4237,7 +4243,7 @@
       <c r="AR19" s="64"/>
       <c r="AS19" s="64"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -4355,7 +4361,7 @@
       <c r="AR20" s="64"/>
       <c r="AS20" s="64"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -4473,7 +4479,7 @@
       <c r="AR21" s="64"/>
       <c r="AS21" s="64"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>17</v>
       </c>
@@ -4591,7 +4597,7 @@
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +4715,7 @@
       <c r="AR23" s="64"/>
       <c r="AS23" s="64"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>19</v>
       </c>
@@ -4827,7 +4833,7 @@
       <c r="AR24" s="64"/>
       <c r="AS24" s="64"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -4945,7 +4951,7 @@
       <c r="AR25" s="64"/>
       <c r="AS25" s="64"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -5063,7 +5069,7 @@
       <c r="AR26" s="64"/>
       <c r="AS26" s="64"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -5181,7 +5187,7 @@
       <c r="AR27" s="64"/>
       <c r="AS27" s="64"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>27</v>
       </c>
@@ -5299,7 +5305,7 @@
       <c r="AR28" s="64"/>
       <c r="AS28" s="64"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>32</v>
       </c>
@@ -5417,7 +5423,7 @@
       <c r="AR29" s="64"/>
       <c r="AS29" s="64"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
@@ -5535,7 +5541,7 @@
       <c r="AR30" s="64"/>
       <c r="AS30" s="64"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -5653,7 +5659,7 @@
       <c r="AR31" s="64"/>
       <c r="AS31" s="64"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -5771,7 +5777,7 @@
       <c r="AR32" s="64"/>
       <c r="AS32" s="64"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -5889,7 +5895,7 @@
       <c r="AR33" s="64"/>
       <c r="AS33" s="64"/>
     </row>
-    <row r="34" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>12</v>
       </c>
@@ -6007,7 +6013,7 @@
       <c r="AR34" s="84"/>
       <c r="AS34" s="84"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>10</v>
       </c>
@@ -6125,7 +6131,7 @@
       <c r="AR35" s="64"/>
       <c r="AS35" s="64"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>14</v>
       </c>
@@ -6243,7 +6249,7 @@
       <c r="AR36" s="64"/>
       <c r="AS36" s="64"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>16</v>
       </c>
@@ -6361,7 +6367,7 @@
       <c r="AR37" s="64"/>
       <c r="AS37" s="64"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -6479,7 +6485,7 @@
       <c r="AR38" s="64"/>
       <c r="AS38" s="64"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -6597,7 +6603,7 @@
       <c r="AR39" s="64"/>
       <c r="AS39" s="64"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -6715,7 +6721,7 @@
       <c r="AR40" s="64"/>
       <c r="AS40" s="64"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -6833,7 +6839,7 @@
       <c r="AR41" s="64"/>
       <c r="AS41" s="64"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>47</v>
       </c>
@@ -6951,7 +6957,7 @@
       <c r="AR42" s="64"/>
       <c r="AS42" s="64"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>48</v>
       </c>
@@ -7069,7 +7075,7 @@
       <c r="AR43" s="88"/>
       <c r="AS43" s="88"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>46</v>
       </c>
@@ -7187,7 +7193,7 @@
       <c r="AR44" s="64"/>
       <c r="AS44" s="64"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>45</v>
       </c>
@@ -7305,7 +7311,7 @@
       <c r="AR45" s="64"/>
       <c r="AS45" s="64"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -7423,7 +7429,7 @@
       <c r="AR46" s="64"/>
       <c r="AS46" s="64"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -7541,7 +7547,7 @@
       <c r="AR47" s="64"/>
       <c r="AS47" s="64"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -7659,7 +7665,7 @@
       <c r="AR48" s="64"/>
       <c r="AS48" s="64"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="96" t="s">
         <v>50</v>
       </c>
@@ -7777,7 +7783,7 @@
       <c r="AR49" s="64"/>
       <c r="AS49" s="64"/>
     </row>
-    <row r="50" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="144" t="s">
         <v>12</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="143" t="s">
         <v>17</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="143" t="s">
         <v>16</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="143" t="s">
         <v>23</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="143" t="s">
         <v>29</v>
       </c>
@@ -8292,8 +8298,8 @@
       <c r="R54" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="S54" s="135" t="s">
-        <v>97</v>
+      <c r="S54" s="160" t="s">
+        <v>29</v>
       </c>
       <c r="T54" s="135" t="s">
         <v>31</v>
@@ -8364,7 +8370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="143" t="s">
         <v>42</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="143" t="s">
         <v>31</v>
       </c>
@@ -8602,7 +8608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="143" t="s">
         <v>37</v>
       </c>
@@ -8721,12 +8727,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="150" t="s">
         <v>98</v>
-      </c>
-      <c r="B58" s="150" t="s">
-        <v>99</v>
       </c>
       <c r="C58" s="145">
         <v>43287</v>
@@ -8806,12 +8812,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="B59" s="136" t="s">
-        <v>101</v>
       </c>
       <c r="C59" s="153">
         <v>43287</v>
@@ -8839,8 +8845,8 @@
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="105"/>
-      <c r="S59" s="135" t="s">
-        <v>97</v>
+      <c r="S59" s="160" t="s">
+        <v>29</v>
       </c>
       <c r="T59" s="135" t="s">
         <v>42</v>
@@ -8891,12 +8897,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="136" t="s">
         <v>102</v>
-      </c>
-      <c r="B60" s="136" t="s">
-        <v>103</v>
       </c>
       <c r="C60" s="153">
         <v>43288</v>
@@ -8976,12 +8982,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="136" t="s">
         <v>104</v>
-      </c>
-      <c r="B61" s="136" t="s">
-        <v>105</v>
       </c>
       <c r="C61" s="153">
         <v>43288</v>
@@ -9061,12 +9067,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="150" t="s">
         <v>106</v>
-      </c>
-      <c r="B62" s="150" t="s">
-        <v>107</v>
       </c>
       <c r="C62" s="145">
         <v>43291</v>
@@ -9146,12 +9152,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="136" t="s">
         <v>108</v>
-      </c>
-      <c r="B63" s="136" t="s">
-        <v>109</v>
       </c>
       <c r="C63" s="153">
         <v>43292</v>
@@ -9231,12 +9237,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="150" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="150" t="s">
         <v>110</v>
-      </c>
-      <c r="B64" s="150" t="s">
-        <v>111</v>
       </c>
       <c r="C64" s="145">
         <v>43295</v>
@@ -9316,12 +9322,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="136" t="s">
         <v>112</v>
-      </c>
-      <c r="B65" s="136" t="s">
-        <v>113</v>
       </c>
       <c r="C65" s="153">
         <v>43296</v>
@@ -9401,7 +9407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -9484,7 +9490,7 @@
       <c r="AR66" s="127"/>
       <c r="AS66" s="128"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -9561,7 +9567,7 @@
       <c r="AR67" s="125"/>
       <c r="AS67" s="130"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K68" s="32" t="s">
         <v>61</v>
       </c>
@@ -9633,777 +9639,777 @@
       <c r="AR68" s="132"/>
       <c r="AS68" s="133"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10414,16 +10420,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="158" t="s">
         <v>55</v>
       </c>
@@ -10433,7 +10439,7 @@
       </c>
       <c r="F1" s="159"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -10542,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -10702,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -10782,7 +10788,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -10902,7 +10908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -10942,7 +10948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -10982,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -11022,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -11062,7 +11068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -11102,7 +11108,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -11142,7 +11148,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -11262,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -11302,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -11342,7 +11348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -11382,7 +11388,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -11422,7 +11428,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -11502,7 +11508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -11542,7 +11548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -11662,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -11702,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -11742,7 +11748,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -11822,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -11982,7 +11988,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -12022,7 +12028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -12062,7 +12068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -12102,7 +12108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -12142,7 +12148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -12262,7 +12268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -12342,7 +12348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -12392,7 +12398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12402,9 +12408,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -12412,12 +12418,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -12431,7 +12437,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -12451,7 +12457,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -12471,7 +12477,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -12491,7 +12497,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -12511,7 +12517,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -12531,7 +12537,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -12551,7 +12557,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -12571,7 +12577,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -12593,7 +12599,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -12613,7 +12619,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -12633,7 +12639,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -12653,7 +12659,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -12673,7 +12679,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -12693,7 +12699,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -12713,7 +12719,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -12733,7 +12739,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -12753,7 +12759,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
@@ -12773,7 +12779,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -12793,7 +12799,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -12813,7 +12819,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -12833,7 +12839,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -12853,7 +12859,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -12873,7 +12879,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -12893,7 +12899,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -12913,7 +12919,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -12933,7 +12939,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
@@ -12953,7 +12959,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -12973,7 +12979,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -12993,7 +12999,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -13013,7 +13019,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
@@ -13033,7 +13039,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -13053,7 +13059,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -13073,7 +13079,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -13093,7 +13099,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -13113,7 +13119,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>14</v>
       </c>
@@ -13133,7 +13139,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -13153,7 +13159,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
@@ -13173,7 +13179,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -13193,7 +13199,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -13213,7 +13219,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -13233,7 +13239,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -13253,7 +13259,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -13273,7 +13279,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -13293,7 +13299,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>45</v>
       </c>
@@ -13313,7 +13319,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
@@ -13333,7 +13339,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="103">
   <si>
     <t>Resultat</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>W 62</t>
+  </si>
+  <si>
+    <t>2-5</t>
   </si>
 </sst>
 </file>
@@ -1083,16 +1086,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1417,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="W58" sqref="W58:X61"/>
+    <sheetView tabSelected="1" topLeftCell="U31" workbookViewId="0">
+      <selection activeCell="AK61" sqref="AK61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6442,7 +6445,7 @@
       <c r="AI54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AJ54" s="105" t="s">
+      <c r="AJ54" s="103" t="s">
         <v>67</v>
       </c>
       <c r="AK54" s="82" t="s">
@@ -6804,9 +6807,15 @@
       <c r="E58" s="91">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
+      <c r="F58" s="92">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G58" s="92">
+        <v>3.2</v>
+      </c>
+      <c r="H58" s="92">
+        <v>2.1</v>
+      </c>
       <c r="I58" s="92"/>
       <c r="J58" s="92"/>
       <c r="K58" s="92">
@@ -6821,16 +6830,24 @@
       <c r="N58" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="O58" s="92"/>
-      <c r="P58" s="95"/>
+      <c r="O58" s="92">
+        <v>2</v>
+      </c>
+      <c r="P58" s="95" t="s">
+        <v>102</v>
+      </c>
       <c r="Q58" s="94" t="s">
         <v>16</v>
       </c>
       <c r="R58" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S58" s="92"/>
-      <c r="T58" s="93"/>
+      <c r="S58" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" s="93" t="s">
+        <v>68</v>
+      </c>
       <c r="U58" s="94" t="s">
         <v>16</v>
       </c>
@@ -6849,24 +6866,36 @@
       <c r="Z58" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="92"/>
-      <c r="AB58" s="93"/>
+      <c r="AA58" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="AC58" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD58" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AE58" s="92"/>
-      <c r="AF58" s="95"/>
+      <c r="AE58" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="95" t="s">
+        <v>69</v>
+      </c>
       <c r="AG58" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AH58" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AI58" s="92"/>
-      <c r="AJ58" s="93"/>
+      <c r="AI58" s="92">
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="93" t="s">
+        <v>70</v>
+      </c>
       <c r="AK58" s="94" t="s">
         <v>12</v>
       </c>
@@ -6890,9 +6919,15 @@
       <c r="E59" s="38">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="F59" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="G59" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="H59" s="22">
+        <v>3.75</v>
+      </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="16">
@@ -6907,16 +6942,24 @@
       <c r="N59" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="81"/>
+      <c r="O59" s="19">
+        <v>2</v>
+      </c>
+      <c r="P59" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="Q59" s="102" t="s">
         <v>29</v>
       </c>
       <c r="R59" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="S59" s="16"/>
-      <c r="T59" s="46"/>
+      <c r="S59" s="16">
+        <v>2</v>
+      </c>
+      <c r="T59" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="U59" s="82" t="s">
         <v>29</v>
       </c>
@@ -6935,24 +6978,36 @@
       <c r="Z59" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="85"/>
+      <c r="AA59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="85" t="s">
+        <v>68</v>
+      </c>
       <c r="AC59" s="86" t="s">
         <v>9</v>
       </c>
       <c r="AD59" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="81"/>
+      <c r="AE59" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="81" t="s">
+        <v>69</v>
+      </c>
       <c r="AG59" s="83" t="s">
         <v>29</v>
       </c>
       <c r="AH59" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="16"/>
-      <c r="AJ59" s="46"/>
+      <c r="AI59" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="AK59" s="82" t="s">
         <v>29</v>
       </c>
@@ -6976,9 +7031,15 @@
       <c r="E60" s="38">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="F60" s="22">
+        <v>4</v>
+      </c>
+      <c r="G60" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="H60" s="22">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="16">
@@ -6993,16 +7054,24 @@
       <c r="N60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O60" s="19"/>
-      <c r="P60" s="81"/>
+      <c r="O60" s="19">
+        <v>2</v>
+      </c>
+      <c r="P60" s="81" t="s">
+        <v>77</v>
+      </c>
       <c r="Q60" s="83" t="s">
         <v>15</v>
       </c>
       <c r="R60" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="S60" s="16"/>
-      <c r="T60" s="46"/>
+      <c r="S60" s="16">
+        <v>2</v>
+      </c>
+      <c r="T60" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="U60" s="82" t="s">
         <v>15</v>
       </c>
@@ -7021,24 +7090,36 @@
       <c r="Z60" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="85"/>
+      <c r="AA60" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB60" s="85" t="s">
+        <v>70</v>
+      </c>
       <c r="AC60" s="86" t="s">
         <v>29</v>
       </c>
       <c r="AD60" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="81"/>
+      <c r="AE60" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="81" t="s">
+        <v>77</v>
+      </c>
       <c r="AG60" s="83" t="s">
         <v>16</v>
       </c>
       <c r="AH60" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="46"/>
+      <c r="AI60" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ60" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="AK60" s="82" t="s">
         <v>15</v>
       </c>
@@ -7062,9 +7143,15 @@
       <c r="E61" s="38">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="F61" s="22">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G61" s="22">
+        <v>3.3</v>
+      </c>
+      <c r="H61" s="22">
+        <v>2</v>
+      </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="16">
@@ -7079,16 +7166,24 @@
       <c r="N61" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="81"/>
+      <c r="O61" s="19">
+        <v>1</v>
+      </c>
+      <c r="P61" s="81" t="s">
+        <v>69</v>
+      </c>
       <c r="Q61" s="83" t="s">
         <v>27</v>
       </c>
       <c r="R61" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="S61" s="16"/>
-      <c r="T61" s="46"/>
+      <c r="S61" s="16">
+        <v>1</v>
+      </c>
+      <c r="T61" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="U61" s="82" t="s">
         <v>27</v>
       </c>
@@ -7107,24 +7202,36 @@
       <c r="Z61" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="85"/>
+      <c r="AA61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB61" s="85" t="s">
+        <v>67</v>
+      </c>
       <c r="AC61" s="86" t="s">
         <v>27</v>
       </c>
       <c r="AD61" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="81"/>
+      <c r="AE61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF61" s="81" t="s">
+        <v>67</v>
+      </c>
       <c r="AG61" s="83" t="s">
         <v>27</v>
       </c>
       <c r="AH61" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AI61" s="16"/>
-      <c r="AJ61" s="46"/>
+      <c r="AI61" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="AK61" s="82" t="s">
         <v>27</v>
       </c>
@@ -7133,10 +7240,10 @@
       </c>
     </row>
     <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="106" t="s">
+      <c r="A62" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="104" t="s">
         <v>95</v>
       </c>
       <c r="C62" s="89">
@@ -8235,14 +8342,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="99">
   <si>
     <t>Resultat</t>
   </si>
@@ -303,18 +303,6 @@
   </si>
   <si>
     <t>num</t>
-  </si>
-  <si>
-    <t>W 57</t>
-  </si>
-  <si>
-    <t>W 58</t>
-  </si>
-  <si>
-    <t>W 59</t>
-  </si>
-  <si>
-    <t>W 60</t>
   </si>
   <si>
     <t>L 61</t>
@@ -1420,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U31" workbookViewId="0">
-      <selection activeCell="AK61" sqref="AK61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6834,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="P58" s="95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q58" s="94" t="s">
         <v>16</v>
@@ -6985,10 +6973,10 @@
         <v>68</v>
       </c>
       <c r="AC59" s="86" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AD59" s="86" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AE59" s="19">
         <v>1</v>
@@ -7097,10 +7085,10 @@
         <v>70</v>
       </c>
       <c r="AC60" s="86" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AD60" s="86" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AE60" s="19">
         <v>2</v>
@@ -7241,10 +7229,10 @@
     </row>
     <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="104" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C62" s="89">
         <v>43291</v>
@@ -7255,9 +7243,15 @@
       <c r="E62" s="91">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
+      <c r="F62" s="92">
+        <v>2.25</v>
+      </c>
+      <c r="G62" s="92">
+        <v>3.3</v>
+      </c>
+      <c r="H62" s="92">
+        <v>3.2</v>
+      </c>
       <c r="I62" s="92"/>
       <c r="J62" s="92"/>
       <c r="K62" s="92"/>
@@ -7319,10 +7313,10 @@
     </row>
     <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B63" s="84" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C63" s="97">
         <v>43292</v>
@@ -7333,9 +7327,15 @@
       <c r="E63" s="38">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="F63" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="G63" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="H63" s="22">
+        <v>2.4</v>
+      </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="16"/>
@@ -7397,10 +7397,10 @@
     </row>
     <row r="64" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B64" s="94" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C64" s="89">
         <v>43295</v>
@@ -7475,10 +7475,10 @@
     </row>
     <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B65" s="84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C65" s="34">
         <v>43296</v>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nygard001\VM2018\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE263C9A-55C4-EF43-A5C8-ACFF918A4C21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16125" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="99">
   <si>
     <t>Resultat</t>
   </si>
@@ -323,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,14 +1087,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
-    <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="3" builtinId="42"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="8" builtinId="46"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="2" builtinId="31"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="6" builtinId="35"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="5" builtinId="39"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="4" builtinId="43"/>
+    <cellStyle name="Indata" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1110,7 +1111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1405,36 +1406,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="AI62" sqref="AI62:AJ63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="54" customWidth="1"/>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5" style="54" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.42578125" customWidth="1"/>
-    <col min="24" max="26" width="14.42578125" style="64"/>
-    <col min="28" max="30" width="14.42578125" style="64"/>
-    <col min="32" max="34" width="14.42578125" style="64"/>
-    <col min="36" max="38" width="14.42578125" style="64"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.5" customWidth="1"/>
+    <col min="24" max="26" width="14.5" style="64"/>
+    <col min="28" max="30" width="14.5" style="64"/>
+    <col min="32" max="34" width="14.5" style="64"/>
+    <col min="36" max="38" width="14.5" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>Philip_Borta</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="AK2" s="46"/>
       <c r="AL2" s="46"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1752,7 @@
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
     </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="AK4" s="46"/>
       <c r="AL4" s="46"/>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1932,7 @@
       <c r="AK5" s="46"/>
       <c r="AL5" s="46"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +2022,7 @@
       <c r="AK6" s="46"/>
       <c r="AL6" s="46"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="AK7" s="46"/>
       <c r="AL7" s="46"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2201,7 +2202,7 @@
       <c r="AK8" s="46"/>
       <c r="AL8" s="46"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2292,7 @@
       <c r="AK9" s="46"/>
       <c r="AL9" s="46"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>29</v>
       </c>
@@ -2381,7 +2382,7 @@
       <c r="AK10" s="46"/>
       <c r="AL10" s="46"/>
     </row>
-    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>25</v>
       </c>
@@ -2471,7 +2472,7 @@
       <c r="AK11" s="46"/>
       <c r="AL11" s="46"/>
     </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
@@ -2561,7 +2562,7 @@
       <c r="AK12" s="46"/>
       <c r="AL12" s="46"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="AK13" s="46"/>
       <c r="AL13" s="46"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="AK14" s="46"/>
       <c r="AL14" s="46"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2831,7 +2832,7 @@
       <c r="AK15" s="46"/>
       <c r="AL15" s="46"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>39</v>
       </c>
@@ -2921,7 +2922,7 @@
       <c r="AK16" s="46"/>
       <c r="AL16" s="46"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3012,7 @@
       <c r="AK17" s="46"/>
       <c r="AL17" s="46"/>
     </row>
-    <row r="18" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>9</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="AK18" s="62"/>
       <c r="AL18" s="62"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="AK19" s="46"/>
       <c r="AL19" s="46"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="AK20" s="46"/>
       <c r="AL20" s="46"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="AK21" s="46"/>
       <c r="AL21" s="46"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>17</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="AK22" s="46"/>
       <c r="AL22" s="46"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -3551,7 +3552,7 @@
       <c r="AK23" s="46"/>
       <c r="AL23" s="46"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>19</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="AK24" s="46"/>
       <c r="AL24" s="46"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -3731,7 +3732,7 @@
       <c r="AK25" s="46"/>
       <c r="AL25" s="46"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -3821,7 +3822,7 @@
       <c r="AK26" s="46"/>
       <c r="AL26" s="46"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -3911,7 +3912,7 @@
       <c r="AK27" s="46"/>
       <c r="AL27" s="46"/>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4002,7 @@
       <c r="AK28" s="46"/>
       <c r="AL28" s="46"/>
     </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>32</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="AK29" s="46"/>
       <c r="AL29" s="46"/>
     </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>42</v>
       </c>
@@ -4181,7 +4182,7 @@
       <c r="AK30" s="46"/>
       <c r="AL30" s="46"/>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4271,7 +4272,7 @@
       <c r="AK31" s="46"/>
       <c r="AL31" s="46"/>
     </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -4361,7 +4362,7 @@
       <c r="AK32" s="46"/>
       <c r="AL32" s="46"/>
     </row>
-    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -4451,7 +4452,7 @@
       <c r="AK33" s="46"/>
       <c r="AL33" s="46"/>
     </row>
-    <row r="34" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
         <v>12</v>
       </c>
@@ -4541,7 +4542,7 @@
       <c r="AK34" s="62"/>
       <c r="AL34" s="62"/>
     </row>
-    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
         <v>10</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="AK35" s="46"/>
       <c r="AL35" s="46"/>
     </row>
-    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
         <v>14</v>
       </c>
@@ -4721,7 +4722,7 @@
       <c r="AK36" s="46"/>
       <c r="AL36" s="46"/>
     </row>
-    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>16</v>
       </c>
@@ -4811,7 +4812,7 @@
       <c r="AK37" s="46"/>
       <c r="AL37" s="46"/>
     </row>
-    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -4901,7 +4902,7 @@
       <c r="AK38" s="46"/>
       <c r="AL38" s="46"/>
     </row>
-    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -4991,7 +4992,7 @@
       <c r="AK39" s="46"/>
       <c r="AL39" s="46"/>
     </row>
-    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -5081,7 +5082,7 @@
       <c r="AK40" s="46"/>
       <c r="AL40" s="46"/>
     </row>
-    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -5171,7 +5172,7 @@
       <c r="AK41" s="46"/>
       <c r="AL41" s="46"/>
     </row>
-    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>47</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="AK42" s="46"/>
       <c r="AL42" s="46"/>
     </row>
-    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>48</v>
       </c>
@@ -5351,7 +5352,7 @@
       <c r="AK43" s="66"/>
       <c r="AL43" s="66"/>
     </row>
-    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
         <v>46</v>
       </c>
@@ -5441,7 +5442,7 @@
       <c r="AK44" s="46"/>
       <c r="AL44" s="46"/>
     </row>
-    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>45</v>
       </c>
@@ -5531,7 +5532,7 @@
       <c r="AK45" s="46"/>
       <c r="AL45" s="46"/>
     </row>
-    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="AK46" s="46"/>
       <c r="AL46" s="46"/>
     </row>
-    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -5711,7 +5712,7 @@
       <c r="AK47" s="46"/>
       <c r="AL47" s="46"/>
     </row>
-    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -5801,7 +5802,7 @@
       <c r="AK48" s="46"/>
       <c r="AL48" s="46"/>
     </row>
-    <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73" t="s">
         <v>50</v>
       </c>
@@ -5891,7 +5892,7 @@
       <c r="AK49" s="46"/>
       <c r="AL49" s="46"/>
     </row>
-    <row r="50" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="88" t="s">
         <v>12</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="87" t="s">
         <v>17</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="87" t="s">
         <v>16</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="87" t="s">
         <v>23</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="87" t="s">
         <v>29</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87" t="s">
         <v>42</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="87" t="s">
         <v>31</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
         <v>37</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="94" t="s">
         <v>12</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="84" t="s">
         <v>29</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="84" t="s">
         <v>9</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="84" t="s">
         <v>31</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="104" t="s">
         <v>17</v>
       </c>
@@ -7254,56 +7255,84 @@
       </c>
       <c r="I62" s="92"/>
       <c r="J62" s="92"/>
-      <c r="K62" s="92"/>
-      <c r="L62" s="93"/>
+      <c r="K62" s="92">
+        <v>2</v>
+      </c>
+      <c r="L62" s="93" t="s">
+        <v>77</v>
+      </c>
       <c r="M62" s="94" t="s">
         <v>12</v>
       </c>
       <c r="N62" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="92"/>
-      <c r="P62" s="95"/>
+      <c r="O62" s="92">
+        <v>2</v>
+      </c>
+      <c r="P62" s="95" t="s">
+        <v>78</v>
+      </c>
       <c r="Q62" s="94" t="s">
         <v>16</v>
       </c>
       <c r="R62" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="S62" s="92"/>
-      <c r="T62" s="93"/>
+      <c r="S62" s="92">
+        <v>2</v>
+      </c>
+      <c r="T62" s="93" t="s">
+        <v>78</v>
+      </c>
       <c r="U62" s="94" t="s">
         <v>17</v>
       </c>
       <c r="V62" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="W62" s="92"/>
-      <c r="X62" s="95"/>
+      <c r="W62" s="92">
+        <v>1</v>
+      </c>
+      <c r="X62" s="95" t="s">
+        <v>69</v>
+      </c>
       <c r="Y62" s="94" t="s">
         <v>15</v>
       </c>
       <c r="Z62" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="93"/>
+      <c r="AA62" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="93" t="s">
+        <v>68</v>
+      </c>
       <c r="AC62" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AD62" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AE62" s="92"/>
-      <c r="AF62" s="95"/>
+      <c r="AE62" s="92">
+        <v>2</v>
+      </c>
+      <c r="AF62" s="95" t="s">
+        <v>70</v>
+      </c>
       <c r="AG62" s="94" t="s">
         <v>12</v>
       </c>
       <c r="AH62" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AI62" s="92"/>
-      <c r="AJ62" s="93"/>
+      <c r="AI62" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="AK62" s="94" t="s">
         <v>17</v>
       </c>
@@ -7311,7 +7340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="84" t="s">
         <v>23</v>
       </c>
@@ -7338,56 +7367,84 @@
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="46"/>
+      <c r="K63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="M63" s="82" t="s">
         <v>23</v>
       </c>
       <c r="N63" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O63" s="19"/>
-      <c r="P63" s="81"/>
+      <c r="O63" s="19">
+        <v>1</v>
+      </c>
+      <c r="P63" s="81" t="s">
+        <v>69</v>
+      </c>
       <c r="Q63" s="83" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="S63" s="16"/>
-      <c r="T63" s="46"/>
+      <c r="S63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="U63" s="82" t="s">
         <v>15</v>
       </c>
       <c r="V63" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="W63" s="19"/>
-      <c r="X63" s="81"/>
+      <c r="W63" s="19">
+        <v>2</v>
+      </c>
+      <c r="X63" s="81" t="s">
+        <v>66</v>
+      </c>
       <c r="Y63" s="83" t="s">
         <v>12</v>
       </c>
       <c r="Z63" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="85"/>
+      <c r="AA63" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="85" t="s">
+        <v>69</v>
+      </c>
       <c r="AC63" s="86" t="s">
         <v>29</v>
       </c>
       <c r="AD63" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="81"/>
+      <c r="AE63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF63" s="81" t="s">
+        <v>67</v>
+      </c>
       <c r="AG63" s="83" t="s">
         <v>19</v>
       </c>
       <c r="AH63" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="AI63" s="16"/>
-      <c r="AJ63" s="46"/>
+      <c r="AI63" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="AK63" s="82" t="s">
         <v>15</v>
       </c>
@@ -7395,7 +7452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="94" t="s">
         <v>94</v>
       </c>
@@ -7473,7 +7530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="84" t="s">
         <v>96</v>
       </c>
@@ -7551,777 +7608,777 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8332,16 +8389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="105" t="s">
         <v>55</v>
       </c>
@@ -8351,7 +8408,7 @@
       </c>
       <c r="F1" s="106"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8380,7 +8437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -8420,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -8460,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -8500,7 +8557,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -8540,7 +8597,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -8580,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -8620,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -8660,7 +8717,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -8700,7 +8757,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -8740,7 +8797,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -8780,7 +8837,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -8820,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -8860,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -8900,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -8940,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -8980,7 +9037,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -9020,7 +9077,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -9060,7 +9117,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -9100,7 +9157,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -9180,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -9220,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -9260,7 +9317,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -9300,7 +9357,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9397,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -9380,7 +9437,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -9420,7 +9477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -9460,7 +9517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -9500,7 +9557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -9540,7 +9597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -9580,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -9620,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9660,7 +9717,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -9700,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -9740,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -9780,7 +9837,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -9820,7 +9877,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -9860,7 +9917,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -9900,7 +9957,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -9940,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -9980,7 +10037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -10020,7 +10077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -10060,7 +10117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -10100,7 +10157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -10140,7 +10197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -10180,7 +10237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -10220,7 +10277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -10260,7 +10317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -10310,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10320,9 +10377,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -10330,12 +10387,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -10349,7 +10406,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -10369,7 +10426,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -10389,7 +10446,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -10409,7 +10466,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -10429,7 +10486,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -10449,7 +10506,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -10469,7 +10526,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -10489,7 +10546,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -10511,7 +10568,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -10531,7 +10588,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -10551,7 +10608,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -10571,7 +10628,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -10591,7 +10648,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -10611,7 +10668,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -10631,7 +10688,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -10651,7 +10708,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -10671,7 +10728,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
@@ -10691,7 +10748,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -10711,7 +10768,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -10731,7 +10788,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -10751,7 +10808,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -10771,7 +10828,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -10791,7 +10848,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -10811,7 +10868,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -10831,7 +10888,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -10851,7 +10908,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
@@ -10871,7 +10928,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -10891,7 +10948,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -10911,7 +10968,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -10931,7 +10988,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
@@ -10951,7 +11008,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -10971,7 +11028,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -10991,7 +11048,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -11011,7 +11068,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -11031,7 +11088,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>14</v>
       </c>
@@ -11051,7 +11108,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -11071,7 +11128,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
@@ -11091,7 +11148,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -11111,7 +11168,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -11131,7 +11188,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -11151,7 +11208,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -11171,7 +11228,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -11191,7 +11248,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -11211,7 +11268,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>45</v>
       </c>
@@ -11231,7 +11288,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
@@ -11251,7 +11308,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -11268,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
@@ -11285,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>

--- a/data/VM_BetDraft.xlsx
+++ b/data/VM_BetDraft.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Development/VM2018/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nygard001\VM2018\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE263C9A-55C4-EF43-A5C8-ACFF918A4C21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="95">
   <si>
     <t>Resultat</t>
   </si>
@@ -306,25 +305,13 @@
     <t>num</t>
   </si>
   <si>
-    <t>L 61</t>
-  </si>
-  <si>
-    <t>L 62</t>
-  </si>
-  <si>
-    <t>W 61</t>
-  </si>
-  <si>
-    <t>W 62</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,14 +1074,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20 % - Dekorfärg1" xfId="1" builtinId="30"/>
-    <cellStyle name="20 % - Dekorfärg4" xfId="3" builtinId="42"/>
-    <cellStyle name="20 % - Dekorfärg5" xfId="8" builtinId="46"/>
-    <cellStyle name="40 % - Dekorfärg1" xfId="2" builtinId="31"/>
-    <cellStyle name="40 % - Dekorfärg2" xfId="6" builtinId="35"/>
-    <cellStyle name="40 % - Dekorfärg3" xfId="5" builtinId="39"/>
-    <cellStyle name="40 % - Dekorfärg4" xfId="4" builtinId="43"/>
-    <cellStyle name="Indata" xfId="7" builtinId="20"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,7 +1098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1406,36 +1393,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="AI62" sqref="AI62:AJ63"/>
+    <sheetView tabSelected="1" topLeftCell="N49" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.83203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5" style="54" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="54" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.5" customWidth="1"/>
-    <col min="24" max="26" width="14.5" style="64"/>
-    <col min="28" max="30" width="14.5" style="64"/>
-    <col min="32" max="34" width="14.5" style="64"/>
-    <col min="36" max="38" width="14.5" style="64"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.42578125" customWidth="1"/>
+    <col min="24" max="26" width="14.42578125" style="64"/>
+    <col min="28" max="30" width="14.42578125" style="64"/>
+    <col min="32" max="34" width="14.42578125" style="64"/>
+    <col min="36" max="38" width="14.42578125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>60</v>
       </c>
@@ -1572,7 +1559,7 @@
         <v>Philip_Borta</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1649,7 @@
       <c r="AK2" s="46"/>
       <c r="AL2" s="46"/>
     </row>
-    <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -1752,7 +1739,7 @@
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
     </row>
-    <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +1829,7 @@
       <c r="AK4" s="46"/>
       <c r="AL4" s="46"/>
     </row>
-    <row r="5" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1919,7 @@
       <c r="AK5" s="46"/>
       <c r="AL5" s="46"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2009,7 @@
       <c r="AK6" s="46"/>
       <c r="AL6" s="46"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2099,7 @@
       <c r="AK7" s="46"/>
       <c r="AL7" s="46"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -2202,7 +2189,7 @@
       <c r="AK8" s="46"/>
       <c r="AL8" s="46"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2279,7 @@
       <c r="AK9" s="46"/>
       <c r="AL9" s="46"/>
     </row>
-    <row r="10" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>29</v>
       </c>
@@ -2382,7 +2369,7 @@
       <c r="AK10" s="46"/>
       <c r="AL10" s="46"/>
     </row>
-    <row r="11" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>25</v>
       </c>
@@ -2472,7 +2459,7 @@
       <c r="AK11" s="46"/>
       <c r="AL11" s="46"/>
     </row>
-    <row r="12" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2549,7 @@
       <c r="AK12" s="46"/>
       <c r="AL12" s="46"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2639,7 @@
       <c r="AK13" s="46"/>
       <c r="AL13" s="46"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -2742,7 +2729,7 @@
       <c r="AK14" s="46"/>
       <c r="AL14" s="46"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2832,7 +2819,7 @@
       <c r="AK15" s="46"/>
       <c r="AL15" s="46"/>
     </row>
-    <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +2909,7 @@
       <c r="AK16" s="46"/>
       <c r="AL16" s="46"/>
     </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +2999,7 @@
       <c r="AK17" s="46"/>
       <c r="AL17" s="46"/>
     </row>
-    <row r="18" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3089,7 @@
       <c r="AK18" s="62"/>
       <c r="AL18" s="62"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3179,7 @@
       <c r="AK19" s="46"/>
       <c r="AL19" s="46"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -3282,7 +3269,7 @@
       <c r="AK20" s="46"/>
       <c r="AL20" s="46"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -3372,7 +3359,7 @@
       <c r="AK21" s="46"/>
       <c r="AL21" s="46"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>17</v>
       </c>
@@ -3462,7 +3449,7 @@
       <c r="AK22" s="46"/>
       <c r="AL22" s="46"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3539,7 @@
       <c r="AK23" s="46"/>
       <c r="AL23" s="46"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>19</v>
       </c>
@@ -3642,7 +3629,7 @@
       <c r="AK24" s="46"/>
       <c r="AL24" s="46"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -3732,7 +3719,7 @@
       <c r="AK25" s="46"/>
       <c r="AL25" s="46"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -3822,7 +3809,7 @@
       <c r="AK26" s="46"/>
       <c r="AL26" s="46"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -3912,7 +3899,7 @@
       <c r="AK27" s="46"/>
       <c r="AL27" s="46"/>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>27</v>
       </c>
@@ -4002,7 +3989,7 @@
       <c r="AK28" s="46"/>
       <c r="AL28" s="46"/>
     </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>32</v>
       </c>
@@ -4092,7 +4079,7 @@
       <c r="AK29" s="46"/>
       <c r="AL29" s="46"/>
     </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>42</v>
       </c>
@@ -4182,7 +4169,7 @@
       <c r="AK30" s="46"/>
       <c r="AL30" s="46"/>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -4272,7 +4259,7 @@
       <c r="AK31" s="46"/>
       <c r="AL31" s="46"/>
     </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -4362,7 +4349,7 @@
       <c r="AK32" s="46"/>
       <c r="AL32" s="46"/>
     </row>
-    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
@@ -4452,7 +4439,7 @@
       <c r="AK33" s="46"/>
       <c r="AL33" s="46"/>
     </row>
-    <row r="34" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>12</v>
       </c>
@@ -4542,7 +4529,7 @@
       <c r="AK34" s="62"/>
       <c r="AL34" s="62"/>
     </row>
-    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>10</v>
       </c>
@@ -4632,7 +4619,7 @@
       <c r="AK35" s="46"/>
       <c r="AL35" s="46"/>
     </row>
-    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>14</v>
       </c>
@@ -4722,7 +4709,7 @@
       <c r="AK36" s="46"/>
       <c r="AL36" s="46"/>
     </row>
-    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>16</v>
       </c>
@@ -4812,7 +4799,7 @@
       <c r="AK37" s="46"/>
       <c r="AL37" s="46"/>
     </row>
-    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -4902,7 +4889,7 @@
       <c r="AK38" s="46"/>
       <c r="AL38" s="46"/>
     </row>
-    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -4992,7 +4979,7 @@
       <c r="AK39" s="46"/>
       <c r="AL39" s="46"/>
     </row>
-    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -5082,7 +5069,7 @@
       <c r="AK40" s="46"/>
       <c r="AL40" s="46"/>
     </row>
-    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
@@ -5172,7 +5159,7 @@
       <c r="AK41" s="46"/>
       <c r="AL41" s="46"/>
     </row>
-    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>47</v>
       </c>
@@ -5262,7 +5249,7 @@
       <c r="AK42" s="46"/>
       <c r="AL42" s="46"/>
     </row>
-    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>48</v>
       </c>
@@ -5352,7 +5339,7 @@
       <c r="AK43" s="66"/>
       <c r="AL43" s="66"/>
     </row>
-    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>46</v>
       </c>
@@ -5442,7 +5429,7 @@
       <c r="AK44" s="46"/>
       <c r="AL44" s="46"/>
     </row>
-    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>45</v>
       </c>
@@ -5532,7 +5519,7 @@
       <c r="AK45" s="46"/>
       <c r="AL45" s="46"/>
     </row>
-    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
@@ -5622,7 +5609,7 @@
       <c r="AK46" s="46"/>
       <c r="AL46" s="46"/>
     </row>
-    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -5712,7 +5699,7 @@
       <c r="AK47" s="46"/>
       <c r="AL47" s="46"/>
     </row>
-    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
@@ -5802,7 +5789,7 @@
       <c r="AK48" s="46"/>
       <c r="AL48" s="46"/>
     </row>
-    <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="73" t="s">
         <v>50</v>
       </c>
@@ -5892,7 +5879,7 @@
       <c r="AK49" s="46"/>
       <c r="AL49" s="46"/>
     </row>
-    <row r="50" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="88" t="s">
         <v>12</v>
       </c>
@@ -6004,7 +5991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="87" t="s">
         <v>17</v>
       </c>
@@ -6112,7 +6099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="87" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="87" t="s">
         <v>23</v>
       </c>
@@ -6332,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
         <v>29</v>
       </c>
@@ -6444,7 +6431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
         <v>42</v>
       </c>
@@ -6556,7 +6543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
         <v>31</v>
       </c>
@@ -6668,7 +6655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="87" t="s">
         <v>37</v>
       </c>
@@ -6780,7 +6767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="s">
         <v>12</v>
       </c>
@@ -6823,7 +6810,7 @@
         <v>2</v>
       </c>
       <c r="P58" s="95" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q58" s="94" t="s">
         <v>16</v>
@@ -6892,7 +6879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
         <v>29</v>
       </c>
@@ -7004,7 +6991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
         <v>9</v>
       </c>
@@ -7116,7 +7103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="84" t="s">
         <v>31</v>
       </c>
@@ -7228,7 +7215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="104" t="s">
         <v>17</v>
       </c>
@@ -7340,7 +7327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
         <v>23</v>
       </c>
@@ -7452,12 +7439,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" s="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B64" s="94" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C64" s="89">
         <v>43295</v>
@@ -7468,21 +7455,35 @@
       <c r="E64" s="91">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
+      <c r="F64" s="92">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G64" s="92">
+        <v>3.75</v>
+      </c>
+      <c r="H64" s="92">
+        <v>3.4</v>
+      </c>
       <c r="I64" s="92"/>
       <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="93"/>
+      <c r="K64" s="92">
+        <v>1</v>
+      </c>
+      <c r="L64" s="93" t="s">
+        <v>73</v>
+      </c>
       <c r="M64" s="94" t="s">
         <v>12</v>
       </c>
       <c r="N64" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="92"/>
-      <c r="P64" s="95"/>
+      <c r="O64" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" s="95" t="s">
+        <v>68</v>
+      </c>
       <c r="Q64" s="94" t="s">
         <v>16</v>
       </c>
@@ -7497,8 +7498,12 @@
       <c r="V64" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="W64" s="92"/>
-      <c r="X64" s="95"/>
+      <c r="W64" s="92">
+        <v>1</v>
+      </c>
+      <c r="X64" s="95" t="s">
+        <v>73</v>
+      </c>
       <c r="Y64" s="94" t="s">
         <v>29</v>
       </c>
@@ -7530,12 +7535,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B65" s="84" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C65" s="34">
         <v>43296</v>
@@ -7546,21 +7551,35 @@
       <c r="E65" s="38">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="F65" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="G65" s="22">
+        <v>3.3</v>
+      </c>
+      <c r="H65" s="22">
+        <v>5</v>
+      </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="46"/>
+      <c r="K65" s="16">
+        <v>2</v>
+      </c>
+      <c r="L65" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="M65" s="82" t="s">
         <v>27</v>
       </c>
       <c r="N65" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="O65" s="19"/>
-      <c r="P65" s="81"/>
+      <c r="O65" s="19">
+        <v>1</v>
+      </c>
+      <c r="P65" s="81" t="s">
+        <v>75</v>
+      </c>
       <c r="Q65" s="83" t="s">
         <v>42</v>
       </c>
@@ -7575,8 +7594,12 @@
       <c r="V65" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="W65" s="19"/>
-      <c r="X65" s="81"/>
+      <c r="W65" s="19">
+        <v>1</v>
+      </c>
+      <c r="X65" s="81" t="s">
+        <v>69</v>
+      </c>
       <c r="Y65" s="83" t="s">
         <v>15</v>
       </c>
@@ -7608,777 +7631,777 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8389,16 +8412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="105" t="s">
         <v>55</v>
       </c>
@@ -8408,7 +8431,7 @@
       </c>
       <c r="F1" s="106"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8437,7 +8460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -8477,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -8517,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -8557,7 +8580,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -8597,7 +8620,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -8637,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -8717,7 +8740,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -8757,7 +8780,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -8797,7 +8820,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -8837,7 +8860,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -8877,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -8917,7 +8940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -8957,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -8997,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -9037,7 +9060,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -9077,7 +9100,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -9117,7 +9140,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -9157,7 +9180,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -9197,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -9237,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -9277,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -9317,7 +9340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -9357,7 +9380,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -9397,7 +9420,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -9437,7 +9460,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -9477,7 +9500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -9517,7 +9540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -9557,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -9597,7 +9620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -9637,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -9677,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9717,7 +9740,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>12</v>
       </c>
@@ -9757,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>10</v>
       </c>
@@ -9797,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -9837,7 +9860,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -9877,7 +9900,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -9917,7 +9940,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -9957,7 +9980,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -9997,7 +10020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
@@ -10037,7 +10060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -10077,7 +10100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -10117,7 +10140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
@@ -10157,7 +10180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -10197,7 +10220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -10237,7 +10260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -10277,7 +10300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -10317,7 +10340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -10367,7 +10390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10377,9 +10400,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -10387,12 +10410,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -10406,7 +10429,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -10426,7 +10449,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -10446,7 +10469,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -10466,7 +10489,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -10486,7 +10509,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -10506,7 +10529,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -10526,7 +10549,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -10546,7 +10569,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -10568,7 +10591,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -10588,7 +10611,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -10608,7 +10631,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -10628,7 +10651,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -10648,7 +10671,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -10668,7 +10691,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -10688,7 +10711,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -10708,7 +10731,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -10728,7 +10751,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
@@ -10748,7 +10771,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -10768,7 +10791,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -10788,7 +10811,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -10808,7 +10831,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -10828,7 +10851,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -10848,7 +10871,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -10868,7 +10891,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -10888,7 +10911,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -10908,7 +10931,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
@@ -10928,7 +10951,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -10948,7 +10971,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -10968,7 +10991,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -10988,7 +11011,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
@@ -11008,7 +11031,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -11028,7 +11051,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -11048,7 +11071,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -11068,7 +11091,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -11088,7 +11111,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>14</v>
       </c>
@@ -11108,7 +11131,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -11128,7 +11151,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
@@ -11148,7 +11171,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -11168,7 +11191,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -11188,7 +11211,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -11208,7 +11231,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -11228,7 +11251,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -11248,7 +11271,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -11268,7 +11291,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>45</v>
       </c>
@@ -11288,7 +11311,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
@@ -11308,7 +11331,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -11325,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
@@ -11342,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
